--- a/data/stock_results.xlsx
+++ b/data/stock_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DeStep\HSE\НИС\АКЦИИ_ПЯТЁРОЧКИ\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97B268D-F665-44AD-8F53-9E8C7B8D998F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114B85F0-4ACC-4CA3-940F-E8206A1AB502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -661,6 +661,114 @@
     <t>BTCS</t>
   </si>
   <si>
+    <t>BVFL</t>
+  </si>
+  <si>
+    <t>BWFG</t>
+  </si>
+  <si>
+    <t>BYRN</t>
+  </si>
+  <si>
+    <t>BYU</t>
+  </si>
+  <si>
+    <t>BZUN</t>
+  </si>
+  <si>
+    <t>BANF</t>
+  </si>
+  <si>
+    <t>BANX</t>
+  </si>
+  <si>
+    <t>BBH</t>
+  </si>
+  <si>
+    <t>BCBP</t>
+  </si>
+  <si>
+    <t>BCLI</t>
+  </si>
+  <si>
+    <t>BCOV</t>
+  </si>
+  <si>
+    <t>BCPC</t>
+  </si>
+  <si>
+    <t>BEEM</t>
+  </si>
+  <si>
+    <t>BELFA</t>
+  </si>
+  <si>
+    <t>BFIN</t>
+  </si>
+  <si>
+    <t>BGC</t>
+  </si>
+  <si>
+    <t>BIB</t>
+  </si>
+  <si>
+    <t>BJK</t>
+  </si>
+  <si>
+    <t>BKR</t>
+  </si>
+  <si>
+    <t>BKYI</t>
+  </si>
+  <si>
+    <t>BLBD</t>
+  </si>
+  <si>
+    <t>BLDP</t>
+  </si>
+  <si>
+    <t>BLFS</t>
+  </si>
+  <si>
+    <t>BLIN</t>
+  </si>
+  <si>
+    <t>BLRX</t>
+  </si>
+  <si>
+    <t>BLUE</t>
+  </si>
+  <si>
+    <t>BMRA</t>
+  </si>
+  <si>
+    <t>BMRN</t>
+  </si>
+  <si>
+    <t>BOSC</t>
+  </si>
+  <si>
+    <t>BPMC</t>
+  </si>
+  <si>
+    <t>BPOPM</t>
+  </si>
+  <si>
+    <t>BPTH</t>
+  </si>
+  <si>
+    <t>BRKL</t>
+  </si>
+  <si>
+    <t>BSCP</t>
+  </si>
+  <si>
+    <t>BSET</t>
+  </si>
+  <si>
+    <t>BSRR</t>
+  </si>
+  <si>
     <t>BUSE</t>
   </si>
   <si>
@@ -670,114 +778,6 @@
     <t>BYFC</t>
   </si>
   <si>
-    <t>BANF</t>
-  </si>
-  <si>
-    <t>BANX</t>
-  </si>
-  <si>
-    <t>BBH</t>
-  </si>
-  <si>
-    <t>BCBP</t>
-  </si>
-  <si>
-    <t>BCLI</t>
-  </si>
-  <si>
-    <t>BCOV</t>
-  </si>
-  <si>
-    <t>BCPC</t>
-  </si>
-  <si>
-    <t>BEEM</t>
-  </si>
-  <si>
-    <t>BELFA</t>
-  </si>
-  <si>
-    <t>BFIN</t>
-  </si>
-  <si>
-    <t>BGC</t>
-  </si>
-  <si>
-    <t>BIB</t>
-  </si>
-  <si>
-    <t>BJK</t>
-  </si>
-  <si>
-    <t>BKR</t>
-  </si>
-  <si>
-    <t>BKYI</t>
-  </si>
-  <si>
-    <t>BLBD</t>
-  </si>
-  <si>
-    <t>BLDP</t>
-  </si>
-  <si>
-    <t>BLFS</t>
-  </si>
-  <si>
-    <t>BLIN</t>
-  </si>
-  <si>
-    <t>BLRX</t>
-  </si>
-  <si>
-    <t>BLUE</t>
-  </si>
-  <si>
-    <t>BMRA</t>
-  </si>
-  <si>
-    <t>BMRN</t>
-  </si>
-  <si>
-    <t>BOSC</t>
-  </si>
-  <si>
-    <t>BPMC</t>
-  </si>
-  <si>
-    <t>BPOPM</t>
-  </si>
-  <si>
-    <t>BPTH</t>
-  </si>
-  <si>
-    <t>BRKL</t>
-  </si>
-  <si>
-    <t>BSCP</t>
-  </si>
-  <si>
-    <t>BSET</t>
-  </si>
-  <si>
-    <t>BSRR</t>
-  </si>
-  <si>
-    <t>BVFL</t>
-  </si>
-  <si>
-    <t>BWFG</t>
-  </si>
-  <si>
-    <t>BYRN</t>
-  </si>
-  <si>
-    <t>BYU</t>
-  </si>
-  <si>
-    <t>BZUN</t>
-  </si>
-  <si>
     <t>CAAS</t>
   </si>
   <si>
@@ -1072,6 +1072,297 @@
     <t>CVGI</t>
   </si>
   <si>
+    <t>CWBC</t>
+  </si>
+  <si>
+    <t>CYBR</t>
+  </si>
+  <si>
+    <t>CYCCP</t>
+  </si>
+  <si>
+    <t>CYTH</t>
+  </si>
+  <si>
+    <t>CYTK</t>
+  </si>
+  <si>
+    <t>CZNC</t>
+  </si>
+  <si>
+    <t>CZWI</t>
+  </si>
+  <si>
+    <t>CACC</t>
+  </si>
+  <si>
+    <t>CAKE</t>
+  </si>
+  <si>
+    <t>CALM</t>
+  </si>
+  <si>
+    <t>CAR</t>
+  </si>
+  <si>
+    <t>CARE</t>
+  </si>
+  <si>
+    <t>CARM</t>
+  </si>
+  <si>
+    <t>CARV</t>
+  </si>
+  <si>
+    <t>CASH</t>
+  </si>
+  <si>
+    <t>CASS</t>
+  </si>
+  <si>
+    <t>CBAN</t>
+  </si>
+  <si>
+    <t>CBFV</t>
+  </si>
+  <si>
+    <t>CBRL</t>
+  </si>
+  <si>
+    <t>CCD</t>
+  </si>
+  <si>
+    <t>CCEP</t>
+  </si>
+  <si>
+    <t>CCLD</t>
+  </si>
+  <si>
+    <t>CCLDP</t>
+  </si>
+  <si>
+    <t>CCOI</t>
+  </si>
+  <si>
+    <t>CDC</t>
+  </si>
+  <si>
+    <t>CDNA</t>
+  </si>
+  <si>
+    <t>CDW</t>
+  </si>
+  <si>
+    <t>CDXS</t>
+  </si>
+  <si>
+    <t>CELZ</t>
+  </si>
+  <si>
+    <t>CENT</t>
+  </si>
+  <si>
+    <t>CENX</t>
+  </si>
+  <si>
+    <t>CERS</t>
+  </si>
+  <si>
+    <t>CETX</t>
+  </si>
+  <si>
+    <t>CEVA</t>
+  </si>
+  <si>
+    <t>CFFI</t>
+  </si>
+  <si>
+    <t>CGO</t>
+  </si>
+  <si>
+    <t>CHCO</t>
+  </si>
+  <si>
+    <t>CHEF</t>
+  </si>
+  <si>
+    <t>CHI</t>
+  </si>
+  <si>
+    <t>CHMG</t>
+  </si>
+  <si>
+    <t>CHRD</t>
+  </si>
+  <si>
+    <t>CHRW</t>
+  </si>
+  <si>
+    <t>CHSCM</t>
+  </si>
+  <si>
+    <t>CHSCO</t>
+  </si>
+  <si>
+    <t>CHUY</t>
+  </si>
+  <si>
+    <t>CIBR</t>
+  </si>
+  <si>
+    <t>CIGI</t>
+  </si>
+  <si>
+    <t>CINF</t>
+  </si>
+  <si>
+    <t>CIVB</t>
+  </si>
+  <si>
+    <t>CLLS</t>
+  </si>
+  <si>
+    <t>CLMT</t>
+  </si>
+  <si>
+    <t>CLPT</t>
+  </si>
+  <si>
+    <t>CLWT</t>
+  </si>
+  <si>
+    <t>CMCO</t>
+  </si>
+  <si>
+    <t>CMCT</t>
+  </si>
+  <si>
+    <t>CMRX</t>
+  </si>
+  <si>
+    <t>CNCR</t>
+  </si>
+  <si>
+    <t>CNET</t>
+  </si>
+  <si>
+    <t>CNFR</t>
+  </si>
+  <si>
+    <t>CNOB</t>
+  </si>
+  <si>
+    <t>CNSL</t>
+  </si>
+  <si>
+    <t>CNTY</t>
+  </si>
+  <si>
+    <t>CODA</t>
+  </si>
+  <si>
+    <t>COFS</t>
+  </si>
+  <si>
+    <t>COHU</t>
+  </si>
+  <si>
+    <t>COKE</t>
+  </si>
+  <si>
+    <t>COLL</t>
+  </si>
+  <si>
+    <t>COMM</t>
+  </si>
+  <si>
+    <t>COO</t>
+  </si>
+  <si>
+    <t>CORT</t>
+  </si>
+  <si>
+    <t>COSM</t>
+  </si>
+  <si>
+    <t>CPIX</t>
+  </si>
+  <si>
+    <t>CPRT</t>
+  </si>
+  <si>
+    <t>CPSH</t>
+  </si>
+  <si>
+    <t>CRBP</t>
+  </si>
+  <si>
+    <t>CREG</t>
+  </si>
+  <si>
+    <t>CRESY</t>
+  </si>
+  <si>
+    <t>CRMT</t>
+  </si>
+  <si>
+    <t>CRNT</t>
+  </si>
+  <si>
+    <t>CRTO</t>
+  </si>
+  <si>
+    <t>CRVL</t>
+  </si>
+  <si>
+    <t>CRWS</t>
+  </si>
+  <si>
+    <t>CSB</t>
+  </si>
+  <si>
+    <t>CSCI</t>
+  </si>
+  <si>
+    <t>CSF</t>
+  </si>
+  <si>
+    <t>CSGS</t>
+  </si>
+  <si>
+    <t>CSPI</t>
+  </si>
+  <si>
+    <t>CSTE</t>
+  </si>
+  <si>
+    <t>CSWC</t>
+  </si>
+  <si>
+    <t>CSWI</t>
+  </si>
+  <si>
+    <t>CTAS</t>
+  </si>
+  <si>
+    <t>CTMX</t>
+  </si>
+  <si>
+    <t>CTSH</t>
+  </si>
+  <si>
+    <t>CTXR</t>
+  </si>
+  <si>
+    <t>CUBA</t>
+  </si>
+  <si>
+    <t>CVCO</t>
+  </si>
+  <si>
+    <t>CVGW</t>
+  </si>
+  <si>
     <t>CVLT</t>
   </si>
   <si>
@@ -1102,297 +1393,6 @@
     <t>CZR</t>
   </si>
   <si>
-    <t>CACC</t>
-  </si>
-  <si>
-    <t>CAKE</t>
-  </si>
-  <si>
-    <t>CALM</t>
-  </si>
-  <si>
-    <t>CAR</t>
-  </si>
-  <si>
-    <t>CARE</t>
-  </si>
-  <si>
-    <t>CARM</t>
-  </si>
-  <si>
-    <t>CARV</t>
-  </si>
-  <si>
-    <t>CASH</t>
-  </si>
-  <si>
-    <t>CASS</t>
-  </si>
-  <si>
-    <t>CBAN</t>
-  </si>
-  <si>
-    <t>CBFV</t>
-  </si>
-  <si>
-    <t>CBRL</t>
-  </si>
-  <si>
-    <t>CCD</t>
-  </si>
-  <si>
-    <t>CCEP</t>
-  </si>
-  <si>
-    <t>CCLD</t>
-  </si>
-  <si>
-    <t>CCLDP</t>
-  </si>
-  <si>
-    <t>CCOI</t>
-  </si>
-  <si>
-    <t>CDC</t>
-  </si>
-  <si>
-    <t>CDNA</t>
-  </si>
-  <si>
-    <t>CDW</t>
-  </si>
-  <si>
-    <t>CDXS</t>
-  </si>
-  <si>
-    <t>CELZ</t>
-  </si>
-  <si>
-    <t>CENT</t>
-  </si>
-  <si>
-    <t>CENX</t>
-  </si>
-  <si>
-    <t>CERS</t>
-  </si>
-  <si>
-    <t>CETX</t>
-  </si>
-  <si>
-    <t>CEVA</t>
-  </si>
-  <si>
-    <t>CFFI</t>
-  </si>
-  <si>
-    <t>CGO</t>
-  </si>
-  <si>
-    <t>CHCO</t>
-  </si>
-  <si>
-    <t>CHEF</t>
-  </si>
-  <si>
-    <t>CHI</t>
-  </si>
-  <si>
-    <t>CHMG</t>
-  </si>
-  <si>
-    <t>CHRD</t>
-  </si>
-  <si>
-    <t>CHRW</t>
-  </si>
-  <si>
-    <t>CHSCM</t>
-  </si>
-  <si>
-    <t>CHSCO</t>
-  </si>
-  <si>
-    <t>CHUY</t>
-  </si>
-  <si>
-    <t>CIBR</t>
-  </si>
-  <si>
-    <t>CIGI</t>
-  </si>
-  <si>
-    <t>CINF</t>
-  </si>
-  <si>
-    <t>CIVB</t>
-  </si>
-  <si>
-    <t>CLLS</t>
-  </si>
-  <si>
-    <t>CLMT</t>
-  </si>
-  <si>
-    <t>CLPT</t>
-  </si>
-  <si>
-    <t>CLWT</t>
-  </si>
-  <si>
-    <t>CMCO</t>
-  </si>
-  <si>
-    <t>CMCT</t>
-  </si>
-  <si>
-    <t>CMRX</t>
-  </si>
-  <si>
-    <t>CNCR</t>
-  </si>
-  <si>
-    <t>CNET</t>
-  </si>
-  <si>
-    <t>CNFR</t>
-  </si>
-  <si>
-    <t>CNOB</t>
-  </si>
-  <si>
-    <t>CNSL</t>
-  </si>
-  <si>
-    <t>CNTY</t>
-  </si>
-  <si>
-    <t>CODA</t>
-  </si>
-  <si>
-    <t>COFS</t>
-  </si>
-  <si>
-    <t>COHU</t>
-  </si>
-  <si>
-    <t>COKE</t>
-  </si>
-  <si>
-    <t>COLL</t>
-  </si>
-  <si>
-    <t>COMM</t>
-  </si>
-  <si>
-    <t>COO</t>
-  </si>
-  <si>
-    <t>CORT</t>
-  </si>
-  <si>
-    <t>COSM</t>
-  </si>
-  <si>
-    <t>CPIX</t>
-  </si>
-  <si>
-    <t>CPRT</t>
-  </si>
-  <si>
-    <t>CPSH</t>
-  </si>
-  <si>
-    <t>CRBP</t>
-  </si>
-  <si>
-    <t>CREG</t>
-  </si>
-  <si>
-    <t>CRESY</t>
-  </si>
-  <si>
-    <t>CRMT</t>
-  </si>
-  <si>
-    <t>CRNT</t>
-  </si>
-  <si>
-    <t>CRTO</t>
-  </si>
-  <si>
-    <t>CRVL</t>
-  </si>
-  <si>
-    <t>CRWS</t>
-  </si>
-  <si>
-    <t>CSB</t>
-  </si>
-  <si>
-    <t>CSCI</t>
-  </si>
-  <si>
-    <t>CSF</t>
-  </si>
-  <si>
-    <t>CSGS</t>
-  </si>
-  <si>
-    <t>CSPI</t>
-  </si>
-  <si>
-    <t>CSTE</t>
-  </si>
-  <si>
-    <t>CSWC</t>
-  </si>
-  <si>
-    <t>CSWI</t>
-  </si>
-  <si>
-    <t>CTAS</t>
-  </si>
-  <si>
-    <t>CTMX</t>
-  </si>
-  <si>
-    <t>CTSH</t>
-  </si>
-  <si>
-    <t>CTXR</t>
-  </si>
-  <si>
-    <t>CUBA</t>
-  </si>
-  <si>
-    <t>CVCO</t>
-  </si>
-  <si>
-    <t>CVGW</t>
-  </si>
-  <si>
-    <t>CWBC</t>
-  </si>
-  <si>
-    <t>CYBR</t>
-  </si>
-  <si>
-    <t>CYCCP</t>
-  </si>
-  <si>
-    <t>CYTH</t>
-  </si>
-  <si>
-    <t>CYTK</t>
-  </si>
-  <si>
-    <t>CZNC</t>
-  </si>
-  <si>
-    <t>CZWI</t>
-  </si>
-  <si>
     <t>DAIO</t>
   </si>
   <si>
@@ -1402,6 +1402,81 @@
     <t>DCOM</t>
   </si>
   <si>
+    <t>DGICB</t>
+  </si>
+  <si>
+    <t>DGLY</t>
+  </si>
+  <si>
+    <t>DGRS</t>
+  </si>
+  <si>
+    <t>DHCNI</t>
+  </si>
+  <si>
+    <t>DHIL</t>
+  </si>
+  <si>
+    <t>DIOD</t>
+  </si>
+  <si>
+    <t>DLTH</t>
+  </si>
+  <si>
+    <t>DMAC</t>
+  </si>
+  <si>
+    <t>DMLP</t>
+  </si>
+  <si>
+    <t>DOMH</t>
+  </si>
+  <si>
+    <t>DOOO</t>
+  </si>
+  <si>
+    <t>DOX</t>
+  </si>
+  <si>
+    <t>DRRX</t>
+  </si>
+  <si>
+    <t>DSGX</t>
+  </si>
+  <si>
+    <t>DSWL</t>
+  </si>
+  <si>
+    <t>DVY</t>
+  </si>
+  <si>
+    <t>DWSN</t>
+  </si>
+  <si>
+    <t>DXCM</t>
+  </si>
+  <si>
+    <t>DXLG</t>
+  </si>
+  <si>
+    <t>DXR</t>
+  </si>
+  <si>
+    <t>DYAI</t>
+  </si>
+  <si>
+    <t>DAKT</t>
+  </si>
+  <si>
+    <t>DARE</t>
+  </si>
+  <si>
+    <t>DBVT</t>
+  </si>
+  <si>
+    <t>DDIV</t>
+  </si>
+  <si>
     <t>DENN</t>
   </si>
   <si>
@@ -1438,81 +1513,6 @@
     <t>DORM</t>
   </si>
   <si>
-    <t>DRRX</t>
-  </si>
-  <si>
-    <t>DSGX</t>
-  </si>
-  <si>
-    <t>DSWL</t>
-  </si>
-  <si>
-    <t>DVY</t>
-  </si>
-  <si>
-    <t>DWSN</t>
-  </si>
-  <si>
-    <t>DXCM</t>
-  </si>
-  <si>
-    <t>DXLG</t>
-  </si>
-  <si>
-    <t>DXR</t>
-  </si>
-  <si>
-    <t>DYAI</t>
-  </si>
-  <si>
-    <t>DAKT</t>
-  </si>
-  <si>
-    <t>DARE</t>
-  </si>
-  <si>
-    <t>DBVT</t>
-  </si>
-  <si>
-    <t>DDIV</t>
-  </si>
-  <si>
-    <t>DGICB</t>
-  </si>
-  <si>
-    <t>DGLY</t>
-  </si>
-  <si>
-    <t>DGRS</t>
-  </si>
-  <si>
-    <t>DHCNI</t>
-  </si>
-  <si>
-    <t>DHIL</t>
-  </si>
-  <si>
-    <t>DIOD</t>
-  </si>
-  <si>
-    <t>DLTH</t>
-  </si>
-  <si>
-    <t>DMAC</t>
-  </si>
-  <si>
-    <t>DMLP</t>
-  </si>
-  <si>
-    <t>DOMH</t>
-  </si>
-  <si>
-    <t>DOOO</t>
-  </si>
-  <si>
-    <t>DOX</t>
-  </si>
-  <si>
     <t>DRS</t>
   </si>
   <si>
@@ -1798,6 +1798,162 @@
     <t>FEX</t>
   </si>
   <si>
+    <t>FFBC</t>
+  </si>
+  <si>
+    <t>FFIN</t>
+  </si>
+  <si>
+    <t>FFNW</t>
+  </si>
+  <si>
+    <t>FGF</t>
+  </si>
+  <si>
+    <t>FGM</t>
+  </si>
+  <si>
+    <t>FIBK</t>
+  </si>
+  <si>
+    <t>FID</t>
+  </si>
+  <si>
+    <t>FITB</t>
+  </si>
+  <si>
+    <t>FIVE</t>
+  </si>
+  <si>
+    <t>FIZZ</t>
+  </si>
+  <si>
+    <t>FKU</t>
+  </si>
+  <si>
+    <t>FLEX</t>
+  </si>
+  <si>
+    <t>FLL</t>
+  </si>
+  <si>
+    <t>FLXS</t>
+  </si>
+  <si>
+    <t>FMB</t>
+  </si>
+  <si>
+    <t>FNWB</t>
+  </si>
+  <si>
+    <t>FNX</t>
+  </si>
+  <si>
+    <t>FOLD</t>
+  </si>
+  <si>
+    <t>FORM</t>
+  </si>
+  <si>
+    <t>FORTY</t>
+  </si>
+  <si>
+    <t>FPA</t>
+  </si>
+  <si>
+    <t>FRAF</t>
+  </si>
+  <si>
+    <t>FRME</t>
+  </si>
+  <si>
+    <t>FRPT</t>
+  </si>
+  <si>
+    <t>FRST</t>
+  </si>
+  <si>
+    <t>FSBW</t>
+  </si>
+  <si>
+    <t>FSTR</t>
+  </si>
+  <si>
+    <t>FSV</t>
+  </si>
+  <si>
+    <t>FTA</t>
+  </si>
+  <si>
+    <t>FTAI</t>
+  </si>
+  <si>
+    <t>FTEK</t>
+  </si>
+  <si>
+    <t>FTFT</t>
+  </si>
+  <si>
+    <t>FTNT</t>
+  </si>
+  <si>
+    <t>FTSL</t>
+  </si>
+  <si>
+    <t>FUND</t>
+  </si>
+  <si>
+    <t>FWONK</t>
+  </si>
+  <si>
+    <t>FYT</t>
+  </si>
+  <si>
+    <t>FAB</t>
+  </si>
+  <si>
+    <t>FANG</t>
+  </si>
+  <si>
+    <t>FARM</t>
+  </si>
+  <si>
+    <t>FAST</t>
+  </si>
+  <si>
+    <t>FBIO</t>
+  </si>
+  <si>
+    <t>FBIZ</t>
+  </si>
+  <si>
+    <t>FBZ</t>
+  </si>
+  <si>
+    <t>FCBC</t>
+  </si>
+  <si>
+    <t>FCFS</t>
+  </si>
+  <si>
+    <t>FCVT</t>
+  </si>
+  <si>
+    <t>FDT</t>
+  </si>
+  <si>
+    <t>FEIM</t>
+  </si>
+  <si>
+    <t>FEM</t>
+  </si>
+  <si>
+    <t>FEMS</t>
+  </si>
+  <si>
+    <t>FEUZ</t>
+  </si>
+  <si>
     <t>FFIC</t>
   </si>
   <si>
@@ -1954,162 +2110,6 @@
     <t>FYX</t>
   </si>
   <si>
-    <t>FAB</t>
-  </si>
-  <si>
-    <t>FANG</t>
-  </si>
-  <si>
-    <t>FARM</t>
-  </si>
-  <si>
-    <t>FAST</t>
-  </si>
-  <si>
-    <t>FBIO</t>
-  </si>
-  <si>
-    <t>FBIZ</t>
-  </si>
-  <si>
-    <t>FBZ</t>
-  </si>
-  <si>
-    <t>FCBC</t>
-  </si>
-  <si>
-    <t>FCFS</t>
-  </si>
-  <si>
-    <t>FCVT</t>
-  </si>
-  <si>
-    <t>FDT</t>
-  </si>
-  <si>
-    <t>FEIM</t>
-  </si>
-  <si>
-    <t>FEM</t>
-  </si>
-  <si>
-    <t>FEMS</t>
-  </si>
-  <si>
-    <t>FEUZ</t>
-  </si>
-  <si>
-    <t>FFBC</t>
-  </si>
-  <si>
-    <t>FFIN</t>
-  </si>
-  <si>
-    <t>FFNW</t>
-  </si>
-  <si>
-    <t>FGF</t>
-  </si>
-  <si>
-    <t>FGM</t>
-  </si>
-  <si>
-    <t>FIBK</t>
-  </si>
-  <si>
-    <t>FID</t>
-  </si>
-  <si>
-    <t>FITB</t>
-  </si>
-  <si>
-    <t>FIVE</t>
-  </si>
-  <si>
-    <t>FIZZ</t>
-  </si>
-  <si>
-    <t>FKU</t>
-  </si>
-  <si>
-    <t>FLEX</t>
-  </si>
-  <si>
-    <t>FLL</t>
-  </si>
-  <si>
-    <t>FLXS</t>
-  </si>
-  <si>
-    <t>FMB</t>
-  </si>
-  <si>
-    <t>FNWB</t>
-  </si>
-  <si>
-    <t>FNX</t>
-  </si>
-  <si>
-    <t>FOLD</t>
-  </si>
-  <si>
-    <t>FORM</t>
-  </si>
-  <si>
-    <t>FORTY</t>
-  </si>
-  <si>
-    <t>FPA</t>
-  </si>
-  <si>
-    <t>FRAF</t>
-  </si>
-  <si>
-    <t>FRME</t>
-  </si>
-  <si>
-    <t>FRPT</t>
-  </si>
-  <si>
-    <t>FRST</t>
-  </si>
-  <si>
-    <t>FSBW</t>
-  </si>
-  <si>
-    <t>FSTR</t>
-  </si>
-  <si>
-    <t>FSV</t>
-  </si>
-  <si>
-    <t>FTA</t>
-  </si>
-  <si>
-    <t>FTAI</t>
-  </si>
-  <si>
-    <t>FTEK</t>
-  </si>
-  <si>
-    <t>FTFT</t>
-  </si>
-  <si>
-    <t>FTNT</t>
-  </si>
-  <si>
-    <t>FTSL</t>
-  </si>
-  <si>
-    <t>FUND</t>
-  </si>
-  <si>
-    <t>FWONK</t>
-  </si>
-  <si>
-    <t>FYT</t>
-  </si>
-  <si>
     <t>GAIA</t>
   </si>
   <si>
@@ -2185,6 +2185,93 @@
     <t>GRID</t>
   </si>
   <si>
+    <t>GROW</t>
+  </si>
+  <si>
+    <t>GSBC</t>
+  </si>
+  <si>
+    <t>GT</t>
+  </si>
+  <si>
+    <t>GWAV</t>
+  </si>
+  <si>
+    <t>GYRE</t>
+  </si>
+  <si>
+    <t>GABC</t>
+  </si>
+  <si>
+    <t>GAIN</t>
+  </si>
+  <si>
+    <t>GALT</t>
+  </si>
+  <si>
+    <t>GASS</t>
+  </si>
+  <si>
+    <t>GBDC</t>
+  </si>
+  <si>
+    <t>GDC</t>
+  </si>
+  <si>
+    <t>GEG</t>
+  </si>
+  <si>
+    <t>GENE</t>
+  </si>
+  <si>
+    <t>GEOS</t>
+  </si>
+  <si>
+    <t>GEVO</t>
+  </si>
+  <si>
+    <t>GIFI</t>
+  </si>
+  <si>
+    <t>GIII</t>
+  </si>
+  <si>
+    <t>GILT</t>
+  </si>
+  <si>
+    <t>GLBS</t>
+  </si>
+  <si>
+    <t>GLDD</t>
+  </si>
+  <si>
+    <t>GLMD</t>
+  </si>
+  <si>
+    <t>GLPI</t>
+  </si>
+  <si>
+    <t>GLYC</t>
+  </si>
+  <si>
+    <t>GMGI</t>
+  </si>
+  <si>
+    <t>GNSS</t>
+  </si>
+  <si>
+    <t>GNTX</t>
+  </si>
+  <si>
+    <t>GOGL</t>
+  </si>
+  <si>
+    <t>GOOD</t>
+  </si>
+  <si>
+    <t>GOOGL</t>
+  </si>
+  <si>
     <t>GRPN</t>
   </si>
   <si>
@@ -2209,93 +2296,6 @@
     <t>GYRO</t>
   </si>
   <si>
-    <t>GABC</t>
-  </si>
-  <si>
-    <t>GAIN</t>
-  </si>
-  <si>
-    <t>GALT</t>
-  </si>
-  <si>
-    <t>GASS</t>
-  </si>
-  <si>
-    <t>GBDC</t>
-  </si>
-  <si>
-    <t>GDC</t>
-  </si>
-  <si>
-    <t>GEG</t>
-  </si>
-  <si>
-    <t>GENE</t>
-  </si>
-  <si>
-    <t>GEOS</t>
-  </si>
-  <si>
-    <t>GEVO</t>
-  </si>
-  <si>
-    <t>GIFI</t>
-  </si>
-  <si>
-    <t>GIII</t>
-  </si>
-  <si>
-    <t>GILT</t>
-  </si>
-  <si>
-    <t>GLBS</t>
-  </si>
-  <si>
-    <t>GLDD</t>
-  </si>
-  <si>
-    <t>GLMD</t>
-  </si>
-  <si>
-    <t>GLPI</t>
-  </si>
-  <si>
-    <t>GLYC</t>
-  </si>
-  <si>
-    <t>GMGI</t>
-  </si>
-  <si>
-    <t>GNSS</t>
-  </si>
-  <si>
-    <t>GNTX</t>
-  </si>
-  <si>
-    <t>GOGL</t>
-  </si>
-  <si>
-    <t>GOOD</t>
-  </si>
-  <si>
-    <t>GOOGL</t>
-  </si>
-  <si>
-    <t>GROW</t>
-  </si>
-  <si>
-    <t>GSBC</t>
-  </si>
-  <si>
-    <t>GT</t>
-  </si>
-  <si>
-    <t>GWAV</t>
-  </si>
-  <si>
-    <t>GYRE</t>
-  </si>
-  <si>
     <t>HAFC</t>
   </si>
   <si>
@@ -4996,6 +4996,117 @@
     <t>TFSL</t>
   </si>
   <si>
+    <t>TGTX</t>
+  </si>
+  <si>
+    <t>THFF</t>
+  </si>
+  <si>
+    <t>THRM</t>
+  </si>
+  <si>
+    <t>THTX</t>
+  </si>
+  <si>
+    <t>TILE</t>
+  </si>
+  <si>
+    <t>TMUS</t>
+  </si>
+  <si>
+    <t>TNFA</t>
+  </si>
+  <si>
+    <t>TNXP</t>
+  </si>
+  <si>
+    <t>TOMZ</t>
+  </si>
+  <si>
+    <t>TOWN</t>
+  </si>
+  <si>
+    <t>TPCS</t>
+  </si>
+  <si>
+    <t>TPST</t>
+  </si>
+  <si>
+    <t>TRAW</t>
+  </si>
+  <si>
+    <t>TREE</t>
+  </si>
+  <si>
+    <t>TRIP</t>
+  </si>
+  <si>
+    <t>TRNS</t>
+  </si>
+  <si>
+    <t>TROW</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>TRUP</t>
+  </si>
+  <si>
+    <t>TSAT</t>
+  </si>
+  <si>
+    <t>TSLA</t>
+  </si>
+  <si>
+    <t>TTEK</t>
+  </si>
+  <si>
+    <t>TTMI</t>
+  </si>
+  <si>
+    <t>TTOO</t>
+  </si>
+  <si>
+    <t>TTWO</t>
+  </si>
+  <si>
+    <t>TXN</t>
+  </si>
+  <si>
+    <t>TACT</t>
+  </si>
+  <si>
+    <t>TANH</t>
+  </si>
+  <si>
+    <t>TARA</t>
+  </si>
+  <si>
+    <t>TATT</t>
+  </si>
+  <si>
+    <t>TAYD</t>
+  </si>
+  <si>
+    <t>TBPH</t>
+  </si>
+  <si>
+    <t>TCPC</t>
+  </si>
+  <si>
+    <t>TCX</t>
+  </si>
+  <si>
+    <t>TDIV</t>
+  </si>
+  <si>
+    <t>TECH</t>
+  </si>
+  <si>
+    <t>TENX</t>
+  </si>
+  <si>
     <t>TIPT</t>
   </si>
   <si>
@@ -5083,117 +5194,6 @@
     <t>TZOO</t>
   </si>
   <si>
-    <t>TACT</t>
-  </si>
-  <si>
-    <t>TANH</t>
-  </si>
-  <si>
-    <t>TARA</t>
-  </si>
-  <si>
-    <t>TATT</t>
-  </si>
-  <si>
-    <t>TAYD</t>
-  </si>
-  <si>
-    <t>TBPH</t>
-  </si>
-  <si>
-    <t>TCPC</t>
-  </si>
-  <si>
-    <t>TCX</t>
-  </si>
-  <si>
-    <t>TDIV</t>
-  </si>
-  <si>
-    <t>TECH</t>
-  </si>
-  <si>
-    <t>TENX</t>
-  </si>
-  <si>
-    <t>TGTX</t>
-  </si>
-  <si>
-    <t>THFF</t>
-  </si>
-  <si>
-    <t>THRM</t>
-  </si>
-  <si>
-    <t>THTX</t>
-  </si>
-  <si>
-    <t>TILE</t>
-  </si>
-  <si>
-    <t>TMUS</t>
-  </si>
-  <si>
-    <t>TNFA</t>
-  </si>
-  <si>
-    <t>TNXP</t>
-  </si>
-  <si>
-    <t>TOMZ</t>
-  </si>
-  <si>
-    <t>TOWN</t>
-  </si>
-  <si>
-    <t>TPCS</t>
-  </si>
-  <si>
-    <t>TPST</t>
-  </si>
-  <si>
-    <t>TRAW</t>
-  </si>
-  <si>
-    <t>TREE</t>
-  </si>
-  <si>
-    <t>TRIP</t>
-  </si>
-  <si>
-    <t>TRNS</t>
-  </si>
-  <si>
-    <t>TROW</t>
-  </si>
-  <si>
-    <t>TRUE</t>
-  </si>
-  <si>
-    <t>TRUP</t>
-  </si>
-  <si>
-    <t>TSAT</t>
-  </si>
-  <si>
-    <t>TSLA</t>
-  </si>
-  <si>
-    <t>TTEK</t>
-  </si>
-  <si>
-    <t>TTMI</t>
-  </si>
-  <si>
-    <t>TTOO</t>
-  </si>
-  <si>
-    <t>TTWO</t>
-  </si>
-  <si>
-    <t>TXN</t>
-  </si>
-  <si>
     <t>UAL</t>
   </si>
   <si>
@@ -5374,6 +5374,90 @@
     <t>VS</t>
   </si>
   <si>
+    <t>VSTM</t>
+  </si>
+  <si>
+    <t>VTGN</t>
+  </si>
+  <si>
+    <t>VTIP</t>
+  </si>
+  <si>
+    <t>VTRS</t>
+  </si>
+  <si>
+    <t>VTVT</t>
+  </si>
+  <si>
+    <t>VTWO</t>
+  </si>
+  <si>
+    <t>VWOB</t>
+  </si>
+  <si>
+    <t>VXUS</t>
+  </si>
+  <si>
+    <t>VABK</t>
+  </si>
+  <si>
+    <t>VANI</t>
+  </si>
+  <si>
+    <t>VC</t>
+  </si>
+  <si>
+    <t>VCIT</t>
+  </si>
+  <si>
+    <t>VECO</t>
+  </si>
+  <si>
+    <t>VEON</t>
+  </si>
+  <si>
+    <t>VERB</t>
+  </si>
+  <si>
+    <t>VGLT</t>
+  </si>
+  <si>
+    <t>VIAV</t>
+  </si>
+  <si>
+    <t>VIRX</t>
+  </si>
+  <si>
+    <t>VKTX</t>
+  </si>
+  <si>
+    <t>VLGEA</t>
+  </si>
+  <si>
+    <t>VMBS</t>
+  </si>
+  <si>
+    <t>VNET</t>
+  </si>
+  <si>
+    <t>VNQI</t>
+  </si>
+  <si>
+    <t>VONE</t>
+  </si>
+  <si>
+    <t>VONV</t>
+  </si>
+  <si>
+    <t>VRNS</t>
+  </si>
+  <si>
+    <t>VRSK</t>
+  </si>
+  <si>
+    <t>VRTX</t>
+  </si>
+  <si>
     <t>VSAT</t>
   </si>
   <si>
@@ -5405,90 +5489,6 @@
   </si>
   <si>
     <t>VYGR</t>
-  </si>
-  <si>
-    <t>VABK</t>
-  </si>
-  <si>
-    <t>VANI</t>
-  </si>
-  <si>
-    <t>VC</t>
-  </si>
-  <si>
-    <t>VCIT</t>
-  </si>
-  <si>
-    <t>VECO</t>
-  </si>
-  <si>
-    <t>VEON</t>
-  </si>
-  <si>
-    <t>VERB</t>
-  </si>
-  <si>
-    <t>VGLT</t>
-  </si>
-  <si>
-    <t>VIAV</t>
-  </si>
-  <si>
-    <t>VIRX</t>
-  </si>
-  <si>
-    <t>VKTX</t>
-  </si>
-  <si>
-    <t>VLGEA</t>
-  </si>
-  <si>
-    <t>VMBS</t>
-  </si>
-  <si>
-    <t>VNET</t>
-  </si>
-  <si>
-    <t>VNQI</t>
-  </si>
-  <si>
-    <t>VONE</t>
-  </si>
-  <si>
-    <t>VONV</t>
-  </si>
-  <si>
-    <t>VRNS</t>
-  </si>
-  <si>
-    <t>VRSK</t>
-  </si>
-  <si>
-    <t>VRTX</t>
-  </si>
-  <si>
-    <t>VSTM</t>
-  </si>
-  <si>
-    <t>VTGN</t>
-  </si>
-  <si>
-    <t>VTIP</t>
-  </si>
-  <si>
-    <t>VTRS</t>
-  </si>
-  <si>
-    <t>VTVT</t>
-  </si>
-  <si>
-    <t>VTWO</t>
-  </si>
-  <si>
-    <t>VWOB</t>
-  </si>
-  <si>
-    <t>VXUS</t>
   </si>
   <si>
     <t>WASH</t>
@@ -6087,7 +6087,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C1899"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1873" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6123,10 +6123,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>4.6515617992326432E-4</v>
+        <v>4.6515658960344922E-4</v>
       </c>
       <c r="C3">
-        <v>2.1677468634176219E-4</v>
+        <v>2.1677486111233271E-4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -6134,10 +6134,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>3.0063697140265028E-4</v>
+        <v>3.0063807943011552E-4</v>
       </c>
       <c r="C4">
-        <v>1.3963029950159119E-4</v>
+        <v>1.3963070594688861E-4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -6222,10 +6222,10 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>1.8747079079727909E-3</v>
+        <v>1.874707976605291E-3</v>
       </c>
       <c r="C12">
-        <v>7.4248775946143483E-4</v>
+        <v>7.4248763817465842E-4</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -6233,10 +6233,10 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>3.9251689149815821E-4</v>
+        <v>3.9251693637241492E-4</v>
       </c>
       <c r="C13">
-        <v>8.8120337149873195E-5</v>
+        <v>8.8120034852951474E-5</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -6266,10 +6266,10 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>9.9293854424659447E-4</v>
+        <v>9.9293792543856969E-4</v>
       </c>
       <c r="C16">
-        <v>1.108288016048234E-4</v>
+        <v>1.108285658034406E-4</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -6299,10 +6299,10 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>2.8061804339660512E-3</v>
+        <v>2.8061807198271681E-3</v>
       </c>
       <c r="C19">
-        <v>3.2148577134823549E-4</v>
+        <v>3.2148628871191441E-4</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -6310,10 +6310,10 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>4.4473496820011569E-4</v>
+        <v>4.4473354854495642E-4</v>
       </c>
       <c r="C20">
-        <v>1.2553369431282001E-4</v>
+        <v>1.255335523219565E-4</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -6354,10 +6354,10 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>5.830145225836829E-4</v>
+        <v>5.8301725112219695E-4</v>
       </c>
       <c r="C24">
-        <v>1.026268134367163E-4</v>
+        <v>1.0262692224329991E-4</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -6376,10 +6376,10 @@
         <v>27</v>
       </c>
       <c r="B26">
-        <v>5.6448850248795807E-4</v>
+        <v>5.6448919761014683E-4</v>
       </c>
       <c r="C26">
-        <v>1.4247044002664691E-4</v>
+        <v>1.4247016119301991E-4</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -6398,10 +6398,10 @@
         <v>29</v>
       </c>
       <c r="B28">
-        <v>1.520770693274655E-3</v>
+        <v>1.5207683050272619E-3</v>
       </c>
       <c r="C28">
-        <v>1.7772630745691999E-4</v>
+        <v>1.7772594298884751E-4</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -6486,10 +6486,10 @@
         <v>37</v>
       </c>
       <c r="B36">
-        <v>6.5273305378880898E-4</v>
+        <v>3.3374441242076629E-4</v>
       </c>
       <c r="C36">
-        <v>3.7502452046634369E-3</v>
+        <v>3.7531983292739581E-3</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -6497,10 +6497,10 @@
         <v>38</v>
       </c>
       <c r="B37">
-        <v>2.2884136375515649E-3</v>
+        <v>2.2884152005552632E-3</v>
       </c>
       <c r="C37">
-        <v>3.758884207926304E-4</v>
+        <v>3.7588835491361678E-4</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -6530,10 +6530,10 @@
         <v>41</v>
       </c>
       <c r="B40">
-        <v>2.2219995323107221E-3</v>
+        <v>2.2219992097419539E-3</v>
       </c>
       <c r="C40">
-        <v>8.9415418020072693E-4</v>
+        <v>8.9415406743262804E-4</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -6574,10 +6574,10 @@
         <v>45</v>
       </c>
       <c r="B44">
-        <v>9.1337767525533325E-4</v>
+        <v>9.133796248567684E-4</v>
       </c>
       <c r="C44">
-        <v>2.170603850294281E-5</v>
+        <v>2.1705764319720771E-5</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -6651,10 +6651,10 @@
         <v>52</v>
       </c>
       <c r="B51">
-        <v>9.6500900287886584E-4</v>
+        <v>9.6500847117909081E-4</v>
       </c>
       <c r="C51">
-        <v>3.9284132313571632E-4</v>
+        <v>3.9284232957049602E-4</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -6695,10 +6695,10 @@
         <v>56</v>
       </c>
       <c r="B55">
-        <v>2.567159427850648E-3</v>
+        <v>2.5671594278506471E-3</v>
       </c>
       <c r="C55">
-        <v>2.190386323733098E-3</v>
+        <v>2.190385713584886E-3</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -6728,10 +6728,10 @@
         <v>59</v>
       </c>
       <c r="B58">
-        <v>1.1814586710330859E-3</v>
+        <v>1.181457172966629E-3</v>
       </c>
       <c r="C58">
-        <v>8.9908238051398127E-4</v>
+        <v>8.9908319029144239E-4</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -6750,10 +6750,10 @@
         <v>61</v>
       </c>
       <c r="B60">
-        <v>2.3825708204765778E-3</v>
+        <v>2.3825719464601789E-3</v>
       </c>
       <c r="C60">
-        <v>1.398076906901334E-3</v>
+        <v>1.3980789876360639E-3</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -6761,10 +6761,10 @@
         <v>62</v>
       </c>
       <c r="B61">
-        <v>1.68951235852365E-3</v>
+        <v>1.6856303675095519E-3</v>
       </c>
       <c r="C61">
-        <v>2.305873611030313E-4</v>
+        <v>2.3058977308483791E-4</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -6783,10 +6783,10 @@
         <v>64</v>
       </c>
       <c r="B63">
-        <v>1.0468142820358301E-3</v>
+        <v>1.0468147392170459E-3</v>
       </c>
       <c r="C63">
-        <v>2.7930565876187652E-4</v>
+        <v>2.7930611252350061E-4</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -6805,10 +6805,10 @@
         <v>66</v>
       </c>
       <c r="B65">
-        <v>2.163308974221657E-3</v>
+        <v>2.1633086816599209E-3</v>
       </c>
       <c r="C65">
-        <v>4.9497217080431784E-4</v>
+        <v>4.9497212687824716E-4</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -6882,10 +6882,10 @@
         <v>73</v>
       </c>
       <c r="B72">
-        <v>4.320016770846428E-4</v>
+        <v>4.3200342621510751E-4</v>
       </c>
       <c r="C72">
-        <v>2.5277682142423632E-4</v>
+        <v>2.5277747741571241E-4</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -6937,10 +6937,10 @@
         <v>78</v>
       </c>
       <c r="B77">
-        <v>2.4847048960821019E-4</v>
+        <v>2.4846927633136591E-4</v>
       </c>
       <c r="C77">
-        <v>5.7718890978687839E-4</v>
+        <v>5.7718909148992716E-4</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -6970,10 +6970,10 @@
         <v>81</v>
       </c>
       <c r="B80">
-        <v>-2.142931277129099E-3</v>
+        <v>-2.142931110955963E-3</v>
       </c>
       <c r="C80">
-        <v>1.793412411469839E-3</v>
+        <v>1.7934123868752971E-3</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -6981,10 +6981,10 @@
         <v>82</v>
       </c>
       <c r="B81">
-        <v>2.759870708087999E-4</v>
+        <v>2.7598750519125732E-4</v>
       </c>
       <c r="C81">
-        <v>1.553962990431564E-4</v>
+        <v>1.553960674197917E-4</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -6992,10 +6992,10 @@
         <v>83</v>
       </c>
       <c r="B82">
-        <v>-6.44772132727596E-4</v>
+        <v>-6.4477253619276342E-4</v>
       </c>
       <c r="C82">
-        <v>1.1940761739083949E-3</v>
+        <v>1.194075444419254E-3</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -7003,10 +7003,10 @@
         <v>84</v>
       </c>
       <c r="B83">
-        <v>1.6418219906822031E-3</v>
+        <v>1.625969637866137E-3</v>
       </c>
       <c r="C83">
-        <v>3.3624086921644049E-4</v>
+        <v>3.3612202977944411E-4</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
@@ -7014,10 +7014,10 @@
         <v>85</v>
       </c>
       <c r="B84">
-        <v>-1.9418141670577401E-3</v>
+        <v>-1.941814029878079E-3</v>
       </c>
       <c r="C84">
-        <v>1.15195968070195E-3</v>
+        <v>1.1519595832578369E-3</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -7058,10 +7058,10 @@
         <v>89</v>
       </c>
       <c r="B88">
-        <v>-4.7334616851197318E-4</v>
+        <v>-4.1651961006694489E-4</v>
       </c>
       <c r="C88">
-        <v>1.069024800110546E-3</v>
+        <v>1.0682362308028191E-3</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
@@ -7080,10 +7080,10 @@
         <v>91</v>
       </c>
       <c r="B90">
-        <v>1.6446983868089961E-3</v>
+        <v>1.644698298670276E-3</v>
       </c>
       <c r="C90">
-        <v>1.8697947244132211E-4</v>
+        <v>1.8697955638796051E-4</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
@@ -7124,10 +7124,10 @@
         <v>95</v>
       </c>
       <c r="B94">
-        <v>2.540892002915031E-4</v>
+        <v>2.5408893761241043E-4</v>
       </c>
       <c r="C94">
-        <v>1.327632297879803E-4</v>
+        <v>1.3276302218698331E-4</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
@@ -7146,10 +7146,10 @@
         <v>97</v>
       </c>
       <c r="B96">
-        <v>1.639357208998334E-3</v>
+        <v>1.873548148572316E-3</v>
       </c>
       <c r="C96">
-        <v>2.7254416029190599E-4</v>
+        <v>2.8239727641819561E-4</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
@@ -7157,10 +7157,10 @@
         <v>98</v>
       </c>
       <c r="B97">
-        <v>1.25829759937038E-3</v>
+        <v>1.258298744329198E-3</v>
       </c>
       <c r="C97">
-        <v>2.2049244594162789E-4</v>
+        <v>2.204925034395605E-4</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
@@ -7179,10 +7179,10 @@
         <v>100</v>
       </c>
       <c r="B99">
-        <v>1.1355362432566309E-3</v>
+        <v>1.135535822970043E-3</v>
       </c>
       <c r="C99">
-        <v>3.423227441373598E-4</v>
+        <v>3.4232198915205592E-4</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
@@ -7245,10 +7245,10 @@
         <v>106</v>
       </c>
       <c r="B105">
-        <v>1.685685414874056E-4</v>
+        <v>9.5399772670675081E-5</v>
       </c>
       <c r="C105">
-        <v>1.032460694296618E-5</v>
+        <v>1.036439113060117E-5</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
@@ -7278,10 +7278,10 @@
         <v>109</v>
       </c>
       <c r="B108">
-        <v>-1.270265542445673E-3</v>
+        <v>-1.27026365604687E-3</v>
       </c>
       <c r="C108">
-        <v>4.88989830335935E-4</v>
+        <v>4.8898848100823583E-4</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
@@ -7311,10 +7311,10 @@
         <v>112</v>
       </c>
       <c r="B111">
-        <v>1.9517978841890229E-4</v>
+        <v>1.951813837648268E-4</v>
       </c>
       <c r="C111">
-        <v>4.9828515157044131E-4</v>
+        <v>4.9828513438846206E-4</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
@@ -7333,10 +7333,10 @@
         <v>114</v>
       </c>
       <c r="B113">
-        <v>-6.1654029495432242E-4</v>
+        <v>-5.9764311655448224E-4</v>
       </c>
       <c r="C113">
-        <v>9.7523866913564058E-4</v>
+        <v>9.7420335636817009E-4</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
@@ -7344,10 +7344,10 @@
         <v>115</v>
       </c>
       <c r="B114">
-        <v>1.514478795932372E-4</v>
+        <v>1.514469948517206E-4</v>
       </c>
       <c r="C114">
-        <v>3.655851751182344E-4</v>
+        <v>3.6558500026331972E-4</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
@@ -7366,10 +7366,10 @@
         <v>117</v>
       </c>
       <c r="B116">
-        <v>-2.896402801527038E-4</v>
+        <v>-2.8964019019367643E-4</v>
       </c>
       <c r="C116">
-        <v>1.067790328510998E-4</v>
+        <v>1.067798281873072E-4</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
@@ -7377,10 +7377,10 @@
         <v>118</v>
       </c>
       <c r="B117">
-        <v>6.8452955085202634E-4</v>
+        <v>6.8453120524546358E-4</v>
       </c>
       <c r="C117">
-        <v>9.4505289440315605E-5</v>
+        <v>9.450526853007245E-5</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
@@ -7410,10 +7410,10 @@
         <v>121</v>
       </c>
       <c r="B120">
-        <v>-2.1386603322018781E-4</v>
+        <v>-2.138672221682473E-4</v>
       </c>
       <c r="C120">
-        <v>2.375851172179911E-4</v>
+        <v>2.375852191020826E-4</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
@@ -7432,10 +7432,10 @@
         <v>123</v>
       </c>
       <c r="B122">
-        <v>2.018874123001898E-4</v>
+        <v>1.389800321773039E-4</v>
       </c>
       <c r="C122">
-        <v>6.7447734137388786E-4</v>
+        <v>6.7242118784479775E-4</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
@@ -7443,10 +7443,10 @@
         <v>124</v>
       </c>
       <c r="B123">
-        <v>1.1421006976528431E-3</v>
+        <v>1.1420994710797849E-3</v>
       </c>
       <c r="C123">
-        <v>2.1823123372977519E-4</v>
+        <v>2.182319370287671E-4</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
@@ -7454,10 +7454,10 @@
         <v>125</v>
       </c>
       <c r="B124">
-        <v>3.8349411858026958E-4</v>
+        <v>3.4025130764695762E-4</v>
       </c>
       <c r="C124">
-        <v>3.1497854408659272E-4</v>
+        <v>3.1260873448517458E-4</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
@@ -7487,10 +7487,10 @@
         <v>128</v>
       </c>
       <c r="B127">
-        <v>1.57089158948446E-3</v>
+        <v>1.57089237762371E-3</v>
       </c>
       <c r="C127">
-        <v>8.4260097914432464E-4</v>
+        <v>8.4260131665407428E-4</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
@@ -7553,10 +7553,10 @@
         <v>134</v>
       </c>
       <c r="B133">
-        <v>1.5020609107498329E-3</v>
+        <v>1.5020609796654429E-3</v>
       </c>
       <c r="C133">
-        <v>9.2139561928210822E-4</v>
+        <v>9.2139653160249065E-4</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
@@ -7575,10 +7575,10 @@
         <v>136</v>
       </c>
       <c r="B135">
-        <v>9.2618834612829312E-4</v>
+        <v>9.2618837313229285E-4</v>
       </c>
       <c r="C135">
-        <v>1.1485059786721359E-4</v>
+        <v>1.1485035334925499E-4</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
@@ -7597,10 +7597,10 @@
         <v>138</v>
       </c>
       <c r="B137">
-        <v>4.2850783886707792E-4</v>
+        <v>4.285089045460969E-4</v>
       </c>
       <c r="C137">
-        <v>2.7963024783096658E-4</v>
+        <v>2.7962970407498819E-4</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
@@ -7608,10 +7608,10 @@
         <v>139</v>
       </c>
       <c r="B138">
-        <v>1.049590001066114E-3</v>
+        <v>1.049590197702835E-3</v>
       </c>
       <c r="C138">
-        <v>2.2045419275045011E-3</v>
+        <v>2.2045415698523198E-3</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
@@ -7619,10 +7619,10 @@
         <v>140</v>
       </c>
       <c r="B139">
-        <v>8.8343889380135786E-4</v>
+        <v>8.8343940167127954E-4</v>
       </c>
       <c r="C139">
-        <v>3.9142394514485958E-4</v>
+        <v>3.9142494178681018E-4</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
@@ -7641,10 +7641,10 @@
         <v>142</v>
       </c>
       <c r="B141">
-        <v>3.6681027262523897E-4</v>
+        <v>3.6680944863542677E-4</v>
       </c>
       <c r="C141">
-        <v>7.5684049591227394E-5</v>
+        <v>7.5684118131405444E-5</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
@@ -7685,10 +7685,10 @@
         <v>146</v>
       </c>
       <c r="B145">
-        <v>6.2815769467451156E-4</v>
+        <v>6.2815727466186309E-4</v>
       </c>
       <c r="C145">
-        <v>2.3966562893667619E-4</v>
+        <v>2.396661316326852E-4</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
@@ -7751,10 +7751,10 @@
         <v>152</v>
       </c>
       <c r="B151">
-        <v>1.5120629260629819E-3</v>
+        <v>1.5120629350290451E-3</v>
       </c>
       <c r="C151">
-        <v>2.2849802276060901E-4</v>
+        <v>2.2849744825817391E-4</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
@@ -7762,10 +7762,10 @@
         <v>153</v>
       </c>
       <c r="B152">
-        <v>3.7265005914860748E-4</v>
+        <v>3.7265030672530822E-4</v>
       </c>
       <c r="C152">
-        <v>2.297311111617851E-4</v>
+        <v>2.2973116684971411E-4</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
@@ -7795,10 +7795,10 @@
         <v>156</v>
       </c>
       <c r="B155">
-        <v>1.2493926135005631E-3</v>
+        <v>1.2493912400811449E-3</v>
       </c>
       <c r="C155">
-        <v>1.724292773682939E-4</v>
+        <v>1.7242940695666871E-4</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
@@ -7828,10 +7828,10 @@
         <v>159</v>
       </c>
       <c r="B158">
-        <v>1.7721580216964201E-3</v>
+        <v>1.772158030439231E-3</v>
       </c>
       <c r="C158">
-        <v>4.5921119131920311E-4</v>
+        <v>4.5921073749014202E-4</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
@@ -7872,10 +7872,10 @@
         <v>163</v>
       </c>
       <c r="B162">
-        <v>1.4805577304034161E-3</v>
+        <v>9.251793847086131E-4</v>
       </c>
       <c r="C162">
-        <v>3.7274288931139651E-4</v>
+        <v>3.4931398435045371E-4</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
@@ -7894,10 +7894,10 @@
         <v>165</v>
       </c>
       <c r="B164">
-        <v>5.3317604735307145E-4</v>
+        <v>5.3317666679561482E-4</v>
       </c>
       <c r="C164">
-        <v>2.2899475945094519E-4</v>
+        <v>2.2899500962220319E-4</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
@@ -7982,10 +7982,10 @@
         <v>173</v>
       </c>
       <c r="B172">
-        <v>-6.208118778476163E-4</v>
+        <v>-6.2081150440450859E-4</v>
       </c>
       <c r="C172">
-        <v>2.472119648602954E-4</v>
+        <v>2.4721197511533592E-4</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
@@ -7993,10 +7993,10 @@
         <v>174</v>
       </c>
       <c r="B173">
-        <v>2.0242846630083001E-3</v>
+        <v>2.1567194182087949E-3</v>
       </c>
       <c r="C173">
-        <v>3.5325506853769821E-4</v>
+        <v>3.5355088222050423E-4</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
@@ -8004,10 +8004,10 @@
         <v>175</v>
       </c>
       <c r="B174">
-        <v>3.6818732974326429E-4</v>
+        <v>3.6818740104462342E-4</v>
       </c>
       <c r="C174">
-        <v>3.0436795086106279E-4</v>
+        <v>3.0436759525141537E-4</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
@@ -8015,10 +8015,10 @@
         <v>176</v>
       </c>
       <c r="B175">
-        <v>9.7505718594119201E-4</v>
+        <v>9.7505865155737695E-4</v>
       </c>
       <c r="C175">
-        <v>2.3858331624207669E-4</v>
+        <v>2.3858313885245691E-4</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
@@ -8026,10 +8026,10 @@
         <v>177</v>
       </c>
       <c r="B176">
-        <v>2.4520445503744752E-3</v>
+        <v>2.4520435175034061E-3</v>
       </c>
       <c r="C176">
-        <v>1.3984671945660139E-3</v>
+        <v>1.398468962759234E-3</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
@@ -8037,10 +8037,10 @@
         <v>178</v>
       </c>
       <c r="B177">
-        <v>2.1117618662698889E-3</v>
+        <v>1.832623520107881E-3</v>
       </c>
       <c r="C177">
-        <v>1.5395362537943839E-3</v>
+        <v>1.5268657571068239E-3</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
@@ -8070,10 +8070,10 @@
         <v>181</v>
       </c>
       <c r="B180">
-        <v>4.5687435758391112E-4</v>
+        <v>4.5687384811433029E-4</v>
       </c>
       <c r="C180">
-        <v>5.5623669864441347E-5</v>
+        <v>5.5623816732394632E-5</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
@@ -8125,10 +8125,10 @@
         <v>186</v>
       </c>
       <c r="B185">
-        <v>2.0115347799858148E-3</v>
+        <v>2.011535505811375E-3</v>
       </c>
       <c r="C185">
-        <v>6.5903265204984461E-4</v>
+        <v>6.5903398003453047E-4</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
@@ -8136,10 +8136,10 @@
         <v>187</v>
       </c>
       <c r="B186">
-        <v>9.5715434647365922E-4</v>
+        <v>9.5715451222081718E-4</v>
       </c>
       <c r="C186">
-        <v>1.417817916404764E-4</v>
+        <v>1.4178113824070339E-4</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
@@ -8147,10 +8147,10 @@
         <v>188</v>
       </c>
       <c r="B187">
-        <v>2.3221672770728729E-3</v>
+        <v>2.3221671112130591E-3</v>
       </c>
       <c r="C187">
-        <v>1.0026069338306819E-3</v>
+        <v>1.0026072504399201E-3</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
@@ -8158,10 +8158,10 @@
         <v>189</v>
       </c>
       <c r="B188">
-        <v>7.6708882945792393E-3</v>
+        <v>1.04001286285797E-4</v>
       </c>
       <c r="C188">
-        <v>3.8241660297791578E-3</v>
+        <v>3.916211173159172E-5</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
@@ -8202,10 +8202,10 @@
         <v>193</v>
       </c>
       <c r="B192">
-        <v>5.4062738483143279E-4</v>
+        <v>5.4062768725836861E-4</v>
       </c>
       <c r="C192">
-        <v>1.4298647407156729E-3</v>
+        <v>1.4298647619117289E-3</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
@@ -8213,10 +8213,10 @@
         <v>194</v>
       </c>
       <c r="B193">
-        <v>-2.6282310526921801E-4</v>
+        <v>-2.6282307989653728E-4</v>
       </c>
       <c r="C193">
-        <v>3.105578262988523E-4</v>
+        <v>3.105575757186263E-4</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
@@ -8224,10 +8224,10 @@
         <v>195</v>
       </c>
       <c r="B194">
-        <v>6.4998366409990639E-4</v>
+        <v>6.4998355446432789E-4</v>
       </c>
       <c r="C194">
-        <v>3.5072743443295852E-4</v>
+        <v>3.5072728617639032E-4</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
@@ -8235,10 +8235,10 @@
         <v>196</v>
       </c>
       <c r="B195">
-        <v>4.6893616677885873E-5</v>
+        <v>4.6893132915564941E-5</v>
       </c>
       <c r="C195">
-        <v>3.6275024338211568E-4</v>
+        <v>3.6275058296501958E-4</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
@@ -8246,10 +8246,10 @@
         <v>197</v>
       </c>
       <c r="B196">
-        <v>4.1628522645098802E-4</v>
+        <v>4.1628500162399973E-4</v>
       </c>
       <c r="C196">
-        <v>3.6899152137134642E-4</v>
+        <v>3.6899102532432368E-4</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
@@ -8268,10 +8268,10 @@
         <v>199</v>
       </c>
       <c r="B198">
-        <v>1.1358755925993491E-3</v>
+        <v>1.135873609440267E-3</v>
       </c>
       <c r="C198">
-        <v>2.2375178434644381E-4</v>
+        <v>2.2375126994335801E-4</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
@@ -8279,10 +8279,10 @@
         <v>200</v>
       </c>
       <c r="B199">
-        <v>1.0118752942924319E-4</v>
+        <v>1.01187287484116E-4</v>
       </c>
       <c r="C199">
-        <v>4.2328754132829279E-6</v>
+        <v>4.232775233234705E-6</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
@@ -8290,10 +8290,10 @@
         <v>201</v>
       </c>
       <c r="B200">
-        <v>1.7137257074344779E-4</v>
+        <v>1.71372614872118E-4</v>
       </c>
       <c r="C200">
-        <v>3.8995708517966973E-6</v>
+        <v>3.8995777689376254E-6</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
@@ -8301,10 +8301,10 @@
         <v>202</v>
       </c>
       <c r="B201">
-        <v>-4.0136769963821893E-3</v>
+        <v>-4.0136770750018747E-3</v>
       </c>
       <c r="C201">
-        <v>4.68239112391891E-3</v>
+        <v>4.6823916335139706E-3</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
@@ -8312,10 +8312,10 @@
         <v>203</v>
       </c>
       <c r="B202">
-        <v>1.541260263671317E-3</v>
+        <v>1.5412613183240749E-3</v>
       </c>
       <c r="C202">
-        <v>3.7791247289547749E-4</v>
+        <v>3.7791219137102259E-4</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
@@ -8323,10 +8323,10 @@
         <v>204</v>
       </c>
       <c r="B203">
-        <v>3.2325329228617651E-3</v>
+        <v>3.232532128714969E-3</v>
       </c>
       <c r="C203">
-        <v>1.2287374499426521E-3</v>
+        <v>1.228737604525185E-3</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
@@ -8334,10 +8334,10 @@
         <v>205</v>
       </c>
       <c r="B204">
-        <v>8.4690495025767181E-4</v>
+        <v>8.4689737410573727E-4</v>
       </c>
       <c r="C204">
-        <v>2.2386924250847751E-4</v>
+        <v>2.238688089093009E-4</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
@@ -8345,10 +8345,10 @@
         <v>206</v>
       </c>
       <c r="B205">
-        <v>1.8694201704753451E-3</v>
+        <v>1.869418969819181E-3</v>
       </c>
       <c r="C205">
-        <v>3.1878999055923282E-4</v>
+        <v>3.1878993275391711E-4</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
@@ -8378,10 +8378,10 @@
         <v>209</v>
       </c>
       <c r="B208">
-        <v>-4.1505263397741582E-4</v>
+        <v>-4.1505256690661671E-4</v>
       </c>
       <c r="C208">
-        <v>3.8319420397583812E-4</v>
+        <v>3.8319384433589351E-4</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
@@ -8400,10 +8400,10 @@
         <v>211</v>
       </c>
       <c r="B210">
-        <v>2.392441270108284E-4</v>
+        <v>2.2974963313267521E-4</v>
       </c>
       <c r="C210">
-        <v>9.9664794180162375E-6</v>
+        <v>9.9764512430336657E-6</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
@@ -8411,10 +8411,10 @@
         <v>212</v>
       </c>
       <c r="B211">
-        <v>-1.5965470963041531E-2</v>
+        <v>-1.5965470979151811E-2</v>
       </c>
       <c r="C211">
-        <v>3.4382778348486902E-2</v>
+        <v>3.4382777706233637E-2</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
@@ -8422,10 +8422,10 @@
         <v>213</v>
       </c>
       <c r="B212">
-        <v>1.7564522842792639E-3</v>
+        <v>-2.7071976855979338E-4</v>
       </c>
       <c r="C212">
-        <v>1.7503590203806911E-4</v>
+        <v>1.6695426533168059E-4</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
@@ -8433,10 +8433,10 @@
         <v>214</v>
       </c>
       <c r="B213">
-        <v>2.5977252208889208E-3</v>
+        <v>2.0134470962134281E-3</v>
       </c>
       <c r="C213">
-        <v>1.056342367497676E-3</v>
+        <v>1.23908551533176E-4</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
@@ -8444,10 +8444,10 @@
         <v>215</v>
       </c>
       <c r="B214">
-        <v>3.2903023347557179E-4</v>
+        <v>-8.8901813272593353E-4</v>
       </c>
       <c r="C214">
-        <v>9.6963800988626844E-4</v>
+        <v>2.3764219245432532E-2</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
@@ -8455,10 +8455,10 @@
         <v>216</v>
       </c>
       <c r="B215">
-        <v>2.0677565377736121E-3</v>
+        <v>4.6777682915388674E-3</v>
       </c>
       <c r="C215">
-        <v>2.3631108482109739E-4</v>
+        <v>7.7956808270774119E-3</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
@@ -8466,10 +8466,10 @@
         <v>217</v>
       </c>
       <c r="B216">
-        <v>9.1837004187532716E-4</v>
+        <v>1.911665493098332E-3</v>
       </c>
       <c r="C216">
-        <v>1.777107725998177E-4</v>
+        <v>1.5194720977612739E-3</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
@@ -8477,10 +8477,10 @@
         <v>218</v>
       </c>
       <c r="B217">
-        <v>-5.430668496123047E-4</v>
+        <v>2.0677569707434878E-3</v>
       </c>
       <c r="C217">
-        <v>2.7849649731266841E-4</v>
+        <v>2.363115521405706E-4</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
@@ -8488,10 +8488,10 @@
         <v>219</v>
       </c>
       <c r="B218">
-        <v>1.071441042106081E-3</v>
+        <v>9.1837063051827166E-4</v>
       </c>
       <c r="C218">
-        <v>1.108955081875976E-4</v>
+        <v>1.777096201747236E-4</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
@@ -8499,10 +8499,10 @@
         <v>220</v>
       </c>
       <c r="B219">
-        <v>-5.9617976296314076E-4</v>
+        <v>-5.4306705769845045E-4</v>
       </c>
       <c r="C219">
-        <v>1.848990667494704E-3</v>
+        <v>2.7849650456933188E-4</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
@@ -8510,10 +8510,10 @@
         <v>221</v>
       </c>
       <c r="B220">
-        <v>1.184269099490662E-3</v>
+        <v>1.0714415009733149E-3</v>
       </c>
       <c r="C220">
-        <v>8.4219450265161195E-4</v>
+        <v>1.1089480036069449E-4</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
@@ -8521,10 +8521,10 @@
         <v>222</v>
       </c>
       <c r="B221">
-        <v>1.481853435467307E-3</v>
+        <v>-5.9617976296314076E-4</v>
       </c>
       <c r="C221">
-        <v>3.9415363831990768E-4</v>
+        <v>1.848990667494704E-3</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
@@ -8532,10 +8532,10 @@
         <v>223</v>
       </c>
       <c r="B222">
-        <v>4.0748534912137408E-4</v>
+        <v>1.184269099490662E-3</v>
       </c>
       <c r="C222">
-        <v>4.1345340602049084E-3</v>
+        <v>8.4219450265161195E-4</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
@@ -8543,10 +8543,10 @@
         <v>224</v>
       </c>
       <c r="B223">
-        <v>2.043665363659717E-3</v>
+        <v>1.4818530232036549E-3</v>
       </c>
       <c r="C223">
-        <v>8.7689090074854624E-4</v>
+        <v>3.9415360782598958E-4</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
@@ -8554,10 +8554,10 @@
         <v>225</v>
       </c>
       <c r="B224">
-        <v>7.175006372070027E-4</v>
+        <v>4.0748534912137408E-4</v>
       </c>
       <c r="C224">
-        <v>1.475646209961124E-4</v>
+        <v>4.1345340602049084E-3</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
@@ -8565,10 +8565,10 @@
         <v>226</v>
       </c>
       <c r="B225">
-        <v>3.1597558586576841E-4</v>
+        <v>2.0436654146514239E-3</v>
       </c>
       <c r="C225">
-        <v>1.861244683471579E-4</v>
+        <v>8.7689171555162238E-4</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
@@ -8576,10 +8576,10 @@
         <v>227</v>
       </c>
       <c r="B226">
-        <v>-2.044932857458057E-3</v>
+        <v>7.1750164218345903E-4</v>
       </c>
       <c r="C226">
-        <v>1.3894530051164939E-3</v>
+        <v>1.4756515362216371E-4</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
@@ -8587,10 +8587,10 @@
         <v>228</v>
       </c>
       <c r="B227">
-        <v>4.6814123284770481E-4</v>
+        <v>5.8738242820797722E-4</v>
       </c>
       <c r="C227">
-        <v>1.792019370225506E-4</v>
+        <v>1.810896740405935E-4</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
@@ -8598,10 +8598,10 @@
         <v>229</v>
       </c>
       <c r="B228">
-        <v>1.3258951811229321E-3</v>
+        <v>-2.044933163443344E-3</v>
       </c>
       <c r="C228">
-        <v>6.0308410446727396E-4</v>
+        <v>1.3894534069896179E-3</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
@@ -8609,10 +8609,10 @@
         <v>230</v>
       </c>
       <c r="B229">
-        <v>1.2838025108229099E-3</v>
+        <v>4.6814108359925159E-4</v>
       </c>
       <c r="C229">
-        <v>2.6385416694457839E-3</v>
+        <v>1.79201859814083E-4</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
@@ -8620,10 +8620,10 @@
         <v>231</v>
       </c>
       <c r="B230">
-        <v>1.7331629402566129E-3</v>
+        <v>1.325895109906747E-3</v>
       </c>
       <c r="C230">
-        <v>3.5503259124545339E-4</v>
+        <v>6.0308373078501044E-4</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
@@ -8631,10 +8631,10 @@
         <v>232</v>
       </c>
       <c r="B231">
-        <v>3.269519966256542E-4</v>
+        <v>1.2838025108229099E-3</v>
       </c>
       <c r="C231">
-        <v>1.783997041959135E-3</v>
+        <v>2.6385416694457839E-3</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
@@ -8642,10 +8642,10 @@
         <v>233</v>
       </c>
       <c r="B232">
-        <v>-9.625720398742251E-4</v>
+        <v>1.7331629402566129E-3</v>
       </c>
       <c r="C232">
-        <v>1.7861203053166561E-3</v>
+        <v>3.5503259124545339E-4</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
@@ -8653,10 +8653,10 @@
         <v>234</v>
       </c>
       <c r="B233">
-        <v>-2.0101833097704979E-3</v>
+        <v>3.269519966256542E-4</v>
       </c>
       <c r="C233">
-        <v>4.3527286487867944E-3</v>
+        <v>1.783997041959135E-3</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
@@ -8664,10 +8664,10 @@
         <v>235</v>
       </c>
       <c r="B234">
-        <v>-1.3774735441640449E-3</v>
+        <v>-9.625720398742251E-4</v>
       </c>
       <c r="C234">
-        <v>1.373603680847718E-3</v>
+        <v>1.7861203053166561E-3</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
@@ -8675,10 +8675,10 @@
         <v>236</v>
       </c>
       <c r="B235">
-        <v>-1.126830254479086E-4</v>
+        <v>-2.0101833097704979E-3</v>
       </c>
       <c r="C235">
-        <v>2.6400147397380321E-3</v>
+        <v>4.3527286487867944E-3</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
@@ -8686,10 +8686,10 @@
         <v>237</v>
       </c>
       <c r="B236">
-        <v>2.2730871490651201E-3</v>
+        <v>-1.3774735441640449E-3</v>
       </c>
       <c r="C236">
-        <v>3.3318508088056469E-3</v>
+        <v>1.373603680847718E-3</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
@@ -8697,10 +8697,10 @@
         <v>238</v>
       </c>
       <c r="B237">
-        <v>-9.4138304871074253E-4</v>
+        <v>-1.126830254479086E-4</v>
       </c>
       <c r="C237">
-        <v>8.2888804630819942E-4</v>
+        <v>2.6400147397380321E-3</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
@@ -8708,10 +8708,10 @@
         <v>239</v>
       </c>
       <c r="B238">
-        <v>3.3301449272315651E-4</v>
+        <v>2.2730871490651201E-3</v>
       </c>
       <c r="C238">
-        <v>3.135459200020434E-3</v>
+        <v>3.3318508088056469E-3</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
@@ -8719,10 +8719,10 @@
         <v>240</v>
       </c>
       <c r="B239">
-        <v>5.4561558541826177E-4</v>
+        <v>-9.4138304871074253E-4</v>
       </c>
       <c r="C239">
-        <v>1.575203858553757E-3</v>
+        <v>8.2888804630819942E-4</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
@@ -8730,10 +8730,10 @@
         <v>241</v>
       </c>
       <c r="B240">
-        <v>1.2874288869739699E-3</v>
+        <v>3.3301449272315651E-4</v>
       </c>
       <c r="C240">
-        <v>2.082926010163448E-4</v>
+        <v>3.135459200020434E-3</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
@@ -8741,10 +8741,10 @@
         <v>242</v>
       </c>
       <c r="B241">
-        <v>2.121295399155811E-4</v>
+        <v>5.4561558541826177E-4</v>
       </c>
       <c r="C241">
-        <v>1.406109410415104E-3</v>
+        <v>1.575203858553757E-3</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
@@ -8752,10 +8752,10 @@
         <v>243</v>
       </c>
       <c r="B242">
-        <v>1.699461558906111E-3</v>
+        <v>1.2874283965607981E-3</v>
       </c>
       <c r="C242">
-        <v>2.1348872592883469E-4</v>
+        <v>2.0829321777524759E-4</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
@@ -8763,10 +8763,10 @@
         <v>244</v>
       </c>
       <c r="B243">
-        <v>2.0569332538506989E-4</v>
+        <v>2.121295399155811E-4</v>
       </c>
       <c r="C243">
-        <v>1.079297612502339E-5</v>
+        <v>1.406109410415104E-3</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
@@ -8774,10 +8774,10 @@
         <v>245</v>
       </c>
       <c r="B244">
-        <v>8.784478637754267E-4</v>
+        <v>1.699462280304845E-3</v>
       </c>
       <c r="C244">
-        <v>6.5300076465359548E-4</v>
+        <v>2.1348939772546541E-4</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
@@ -8785,10 +8785,10 @@
         <v>246</v>
       </c>
       <c r="B245">
-        <v>1.772493247424246E-3</v>
+        <v>1.9690541541497381E-4</v>
       </c>
       <c r="C245">
-        <v>2.8078113743405737E-4</v>
+        <v>1.0873853996172721E-5</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
@@ -8796,10 +8796,10 @@
         <v>247</v>
       </c>
       <c r="B246">
-        <v>-2.7071946151006811E-4</v>
+        <v>8.7844659540286792E-4</v>
       </c>
       <c r="C246">
-        <v>1.669541987548354E-4</v>
+        <v>6.5300161248338362E-4</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
@@ -8807,10 +8807,10 @@
         <v>248</v>
       </c>
       <c r="B247">
-        <v>2.0134443896058052E-3</v>
+        <v>1.772492119388992E-3</v>
       </c>
       <c r="C247">
-        <v>1.2390927721981059E-4</v>
+        <v>2.8078208440337929E-4</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
@@ -8818,10 +8818,10 @@
         <v>249</v>
       </c>
       <c r="B248">
-        <v>-8.8901813272593353E-4</v>
+        <v>1.756452270271413E-3</v>
       </c>
       <c r="C248">
-        <v>2.3764219245432532E-2</v>
+        <v>1.7503623726429E-4</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
@@ -8829,10 +8829,10 @@
         <v>250</v>
       </c>
       <c r="B249">
-        <v>4.6777682915388674E-3</v>
+        <v>2.5977252208889208E-3</v>
       </c>
       <c r="C249">
-        <v>7.7956808270774119E-3</v>
+        <v>1.056342367497676E-3</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
@@ -8840,10 +8840,10 @@
         <v>251</v>
       </c>
       <c r="B250">
-        <v>1.911665493098332E-3</v>
+        <v>3.2903023347557179E-4</v>
       </c>
       <c r="C250">
-        <v>1.5194720977612739E-3</v>
+        <v>9.6963800988626844E-4</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
@@ -8851,10 +8851,10 @@
         <v>252</v>
       </c>
       <c r="B251">
-        <v>6.967593753619114E-4</v>
+        <v>6.9675936100965102E-4</v>
       </c>
       <c r="C251">
-        <v>1.2661364301017721E-3</v>
+        <v>1.2661365115190571E-3</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
@@ -8862,10 +8862,10 @@
         <v>253</v>
       </c>
       <c r="B252">
-        <v>1.83038838577375E-3</v>
+        <v>1.8303879397123771E-3</v>
       </c>
       <c r="C252">
-        <v>1.593394712010586E-4</v>
+        <v>1.5933992984271429E-4</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
@@ -8873,10 +8873,10 @@
         <v>254</v>
       </c>
       <c r="B253">
-        <v>1.6948988866955421E-3</v>
+        <v>1.6948989667729269E-3</v>
       </c>
       <c r="C253">
-        <v>8.4686335928978098E-4</v>
+        <v>8.4686326227911412E-4</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
@@ -8906,10 +8906,10 @@
         <v>257</v>
       </c>
       <c r="B256">
-        <v>9.4746131538786201E-6</v>
+        <v>9.4735289971353763E-6</v>
       </c>
       <c r="C256">
-        <v>1.8614849464900101E-4</v>
+        <v>1.86148276453891E-4</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
@@ -8928,10 +8928,10 @@
         <v>259</v>
       </c>
       <c r="B258">
-        <v>1.42721256004015E-4</v>
+        <v>1.4272178796058689E-4</v>
       </c>
       <c r="C258">
-        <v>2.8714930333528018E-4</v>
+        <v>2.8714938542683883E-4</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
@@ -8939,10 +8939,10 @@
         <v>260</v>
       </c>
       <c r="B259">
-        <v>1.025812547207424E-3</v>
+        <v>1.0258131184426339E-3</v>
       </c>
       <c r="C259">
-        <v>2.7507565199045891E-4</v>
+        <v>2.7507521514575289E-4</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
@@ -8961,10 +8961,10 @@
         <v>262</v>
       </c>
       <c r="B261">
-        <v>1.3847154636379231E-3</v>
+        <v>1.3776657651074201E-3</v>
       </c>
       <c r="C261">
-        <v>1.933615402127743E-4</v>
+        <v>1.9355075387654481E-4</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
@@ -8972,10 +8972,10 @@
         <v>263</v>
       </c>
       <c r="B262">
-        <v>1.278146393085455E-3</v>
+        <v>1.278146310296366E-3</v>
       </c>
       <c r="C262">
-        <v>2.9912111121406472E-4</v>
+        <v>2.9912084739938742E-4</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
@@ -8983,10 +8983,10 @@
         <v>264</v>
       </c>
       <c r="B263">
-        <v>-1.997397886570692E-3</v>
+        <v>-1.4732320747134419E-3</v>
       </c>
       <c r="C263">
-        <v>1.586631763841816E-3</v>
+        <v>1.5317648024324631E-3</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
@@ -8994,10 +8994,10 @@
         <v>265</v>
       </c>
       <c r="B264">
-        <v>1.880745169866239E-3</v>
+        <v>1.8807447095705199E-3</v>
       </c>
       <c r="C264">
-        <v>2.6728849003966002E-4</v>
+        <v>2.6728870742305408E-4</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
@@ -9016,10 +9016,10 @@
         <v>267</v>
       </c>
       <c r="B266">
-        <v>7.8316708155195863E-4</v>
+        <v>7.640191954196915E-4</v>
       </c>
       <c r="C266">
-        <v>5.0986792670603258E-5</v>
+        <v>5.1135490899434801E-5</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
@@ -9093,10 +9093,10 @@
         <v>274</v>
       </c>
       <c r="B273">
-        <v>2.5474882219653251E-3</v>
+        <v>2.6655029012552281E-3</v>
       </c>
       <c r="C273">
-        <v>6.6306708107335337E-4</v>
+        <v>6.5935770587844441E-4</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
@@ -9137,10 +9137,10 @@
         <v>278</v>
       </c>
       <c r="B277">
-        <v>6.0631594023106787E-4</v>
+        <v>6.0631581093518582E-4</v>
       </c>
       <c r="C277">
-        <v>7.2245270176586531E-5</v>
+        <v>7.2244805807234776E-5</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
@@ -9148,10 +9148,10 @@
         <v>279</v>
       </c>
       <c r="B278">
-        <v>1.1537398618238969E-3</v>
+        <v>1.153738562338886E-3</v>
       </c>
       <c r="C278">
-        <v>1.157341959878004E-3</v>
+        <v>1.157342928676432E-3</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
@@ -9159,10 +9159,10 @@
         <v>280</v>
       </c>
       <c r="B279">
-        <v>1.384508774332276E-3</v>
+        <v>1.3845070478879151E-3</v>
       </c>
       <c r="C279">
-        <v>9.2614309580322794E-5</v>
+        <v>9.2613893494571938E-5</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
@@ -9170,10 +9170,10 @@
         <v>281</v>
       </c>
       <c r="B280">
-        <v>5.86770974101921E-4</v>
+        <v>5.8677215988979698E-4</v>
       </c>
       <c r="C280">
-        <v>7.1043101573776995E-5</v>
+        <v>7.1043833825106174E-5</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
@@ -9181,10 +9181,10 @@
         <v>282</v>
       </c>
       <c r="B281">
-        <v>3.5532288291484262E-4</v>
+        <v>3.5532330763349751E-4</v>
       </c>
       <c r="C281">
-        <v>4.7744316075931979E-4</v>
+        <v>4.7744296472116332E-4</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
@@ -9214,10 +9214,10 @@
         <v>285</v>
       </c>
       <c r="B284">
-        <v>2.6067007245954379E-3</v>
+        <v>2.6067005645891259E-3</v>
       </c>
       <c r="C284">
-        <v>4.5930420361854781E-4</v>
+        <v>4.593038559272929E-4</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
@@ -9236,10 +9236,10 @@
         <v>287</v>
       </c>
       <c r="B286">
-        <v>4.6921127547015079E-4</v>
+        <v>4.3502187558657401E-4</v>
       </c>
       <c r="C286">
-        <v>1.9940799785304349E-4</v>
+        <v>1.9975906362648921E-4</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
@@ -9291,10 +9291,10 @@
         <v>292</v>
       </c>
       <c r="B291">
-        <v>2.8107792891549988E-4</v>
+        <v>2.8107775831034179E-4</v>
       </c>
       <c r="C291">
-        <v>7.7707943316876075E-5</v>
+        <v>7.7708831858332782E-5</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
@@ -9302,10 +9302,10 @@
         <v>293</v>
       </c>
       <c r="B292">
-        <v>1.2411362982700191E-4</v>
+        <v>1.2411150505115001E-4</v>
       </c>
       <c r="C292">
-        <v>1.40132872571366E-4</v>
+        <v>1.4013320826667121E-4</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
@@ -9313,10 +9313,10 @@
         <v>294</v>
       </c>
       <c r="B293">
-        <v>5.3953186953073597E-5</v>
+        <v>5.3953303171269471E-5</v>
       </c>
       <c r="C293">
-        <v>6.9559605538562343E-5</v>
+        <v>6.9559669292157357E-5</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
@@ -9335,10 +9335,10 @@
         <v>296</v>
       </c>
       <c r="B295">
-        <v>3.6800605933861609E-4</v>
+        <v>3.6800881200917021E-4</v>
       </c>
       <c r="C295">
-        <v>1.153272082646597E-4</v>
+        <v>1.153273884674963E-4</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
@@ -9346,10 +9346,10 @@
         <v>297</v>
       </c>
       <c r="B296">
-        <v>4.4306231496030521E-4</v>
+        <v>4.4306302069472029E-4</v>
       </c>
       <c r="C296">
-        <v>1.0778624787466949E-4</v>
+        <v>1.0778645304545291E-4</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
@@ -9357,10 +9357,10 @@
         <v>298</v>
       </c>
       <c r="B297">
-        <v>1.150542134604439E-4</v>
+        <v>1.0218828333290789E-4</v>
       </c>
       <c r="C297">
-        <v>1.4802729215299969E-4</v>
+        <v>1.483238686027096E-4</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
@@ -9368,10 +9368,10 @@
         <v>299</v>
       </c>
       <c r="B298">
-        <v>6.7306413800383779E-5</v>
+        <v>6.7306481336895359E-5</v>
       </c>
       <c r="C298">
-        <v>1.3945919373263311E-4</v>
+        <v>1.394585053206045E-4</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
@@ -9379,10 +9379,10 @@
         <v>300</v>
       </c>
       <c r="B299">
-        <v>-2.2628104318583021E-4</v>
+        <v>-2.2628306223597061E-4</v>
       </c>
       <c r="C299">
-        <v>9.6358636743910516E-5</v>
+        <v>9.6358398023737546E-5</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
@@ -9401,10 +9401,10 @@
         <v>302</v>
       </c>
       <c r="B301">
-        <v>8.0610951502875343E-4</v>
+        <v>8.0610883689278146E-4</v>
       </c>
       <c r="C301">
-        <v>5.2870773188578061E-4</v>
+        <v>5.2870675434746241E-4</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
@@ -9445,10 +9445,10 @@
         <v>306</v>
       </c>
       <c r="B305">
-        <v>7.7446571757659301E-5</v>
+        <v>2.340519030693574E-4</v>
       </c>
       <c r="C305">
-        <v>2.782913095189425E-4</v>
+        <v>2.7762552088057759E-4</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
@@ -9478,10 +9478,10 @@
         <v>309</v>
       </c>
       <c r="B308">
-        <v>-4.9812740512476534E-4</v>
+        <v>-4.9812734699063654E-4</v>
       </c>
       <c r="C308">
-        <v>3.1140345151925761E-4</v>
+        <v>3.1140390688485289E-4</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
@@ -9489,10 +9489,10 @@
         <v>310</v>
       </c>
       <c r="B309">
-        <v>9.270752074002173E-4</v>
+        <v>9.2707492175930772E-4</v>
       </c>
       <c r="C309">
-        <v>1.1445927347020539E-4</v>
+        <v>1.14459706657999E-4</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
@@ -9500,10 +9500,10 @@
         <v>311</v>
       </c>
       <c r="B310">
-        <v>1.2497339627706449E-3</v>
+        <v>1.2497349436383089E-3</v>
       </c>
       <c r="C310">
-        <v>1.4984107471649141E-4</v>
+        <v>1.4984073868650551E-4</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
@@ -9522,10 +9522,10 @@
         <v>313</v>
       </c>
       <c r="B312">
-        <v>-1.733732113405541E-3</v>
+        <v>-1.733732394693739E-3</v>
       </c>
       <c r="C312">
-        <v>8.5437965270897904E-4</v>
+        <v>8.5437868966842462E-4</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
@@ -9544,10 +9544,10 @@
         <v>315</v>
       </c>
       <c r="B314">
-        <v>9.8518180134351445E-4</v>
+        <v>9.8518186754914723E-4</v>
       </c>
       <c r="C314">
-        <v>2.7273112956618478E-4</v>
+        <v>2.7273085551091271E-4</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
@@ -9566,10 +9566,10 @@
         <v>317</v>
       </c>
       <c r="B316">
-        <v>1.56092467204935E-3</v>
+        <v>1.5609251502596789E-3</v>
       </c>
       <c r="C316">
-        <v>2.8359537085440869E-4</v>
+        <v>2.8359552542382151E-4</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
@@ -9577,10 +9577,10 @@
         <v>318</v>
       </c>
       <c r="B317">
-        <v>7.095346020699571E-4</v>
+        <v>7.0953462564934163E-4</v>
       </c>
       <c r="C317">
-        <v>4.0667166665879929E-4</v>
+        <v>4.0667122376021272E-4</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
@@ -9588,10 +9588,10 @@
         <v>319</v>
       </c>
       <c r="B318">
-        <v>7.7794628716993828E-4</v>
+        <v>7.7794521618786616E-4</v>
       </c>
       <c r="C318">
-        <v>1.7532181806177881E-4</v>
+        <v>1.7532157360952171E-4</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
@@ -9610,10 +9610,10 @@
         <v>321</v>
       </c>
       <c r="B320">
-        <v>5.969933193958856E-5</v>
+        <v>5.9699202086596818E-5</v>
       </c>
       <c r="C320">
-        <v>1.216731136606195E-4</v>
+        <v>1.216730660769918E-4</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
@@ -9621,10 +9621,10 @@
         <v>322</v>
       </c>
       <c r="B321">
-        <v>7.4108987260843885E-4</v>
+        <v>7.1511959834998659E-4</v>
       </c>
       <c r="C321">
-        <v>1.6597580403108529E-4</v>
+        <v>1.655744265978472E-4</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
@@ -9632,10 +9632,10 @@
         <v>323</v>
       </c>
       <c r="B322">
-        <v>3.372517941668193E-5</v>
+        <v>3.3725271102423598E-5</v>
       </c>
       <c r="C322">
-        <v>2.147429003978999E-4</v>
+        <v>2.147434335867022E-4</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
@@ -9643,10 +9643,10 @@
         <v>324</v>
       </c>
       <c r="B323">
-        <v>-1.031438343963968E-3</v>
+        <v>-1.0323336149740509E-3</v>
       </c>
       <c r="C323">
-        <v>1.515942931322552E-3</v>
+        <v>1.516036449409642E-3</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
@@ -9676,10 +9676,10 @@
         <v>327</v>
       </c>
       <c r="B326">
-        <v>2.5986933343482839E-3</v>
+        <v>2.5986934283706311E-3</v>
       </c>
       <c r="C326">
-        <v>4.6742888407212772E-4</v>
+        <v>4.6742977325414572E-4</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
@@ -9764,10 +9764,10 @@
         <v>335</v>
       </c>
       <c r="B334">
-        <v>1.077141687360136E-3</v>
+        <v>1.0771442241458409E-3</v>
       </c>
       <c r="C334">
-        <v>1.1100459035649111E-4</v>
+        <v>1.110042132589478E-4</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
@@ -9786,10 +9786,10 @@
         <v>337</v>
       </c>
       <c r="B336">
-        <v>6.4208732771133046E-4</v>
+        <v>6.4208853545056244E-4</v>
       </c>
       <c r="C336">
-        <v>1.8115411431208659E-4</v>
+        <v>1.8115416867323201E-4</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
@@ -9819,10 +9819,10 @@
         <v>340</v>
       </c>
       <c r="B339">
-        <v>6.1122544369715374E-4</v>
+        <v>6.1122464873322822E-4</v>
       </c>
       <c r="C339">
-        <v>9.900545389886903E-5</v>
+        <v>9.9005790802538462E-5</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
@@ -9830,10 +9830,10 @@
         <v>341</v>
       </c>
       <c r="B340">
-        <v>1.4242612655829981E-3</v>
+        <v>1.4242621057984951E-3</v>
       </c>
       <c r="C340">
-        <v>2.6385581643521779E-4</v>
+        <v>2.638553591478567E-4</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
@@ -9841,10 +9841,10 @@
         <v>342</v>
       </c>
       <c r="B341">
-        <v>1.626277859818855E-3</v>
+        <v>1.6262774557637659E-3</v>
       </c>
       <c r="C341">
-        <v>1.917767749545462E-4</v>
+        <v>1.9177719095848751E-4</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
@@ -9874,10 +9874,10 @@
         <v>345</v>
       </c>
       <c r="B344">
-        <v>-2.5214741411245769E-4</v>
+        <v>-2.5214742107191582E-4</v>
       </c>
       <c r="C344">
-        <v>6.9904384344965733E-4</v>
+        <v>6.9904371302583542E-4</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
@@ -9907,10 +9907,10 @@
         <v>348</v>
       </c>
       <c r="B347">
-        <v>1.407423439367683E-3</v>
+        <v>1.4074232852503471E-3</v>
       </c>
       <c r="C347">
-        <v>2.9324033846252841E-4</v>
+        <v>2.9324029133230692E-4</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
@@ -9929,10 +9929,10 @@
         <v>350</v>
       </c>
       <c r="B349">
-        <v>1.2065410189427161E-3</v>
+        <v>2.041892172734306E-3</v>
       </c>
       <c r="C349">
-        <v>4.1391292957051443E-4</v>
+        <v>4.4969234425899129E-4</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
@@ -9940,10 +9940,10 @@
         <v>351</v>
       </c>
       <c r="B350">
-        <v>-5.440277616350958E-4</v>
+        <v>1.4716192006537061E-4</v>
       </c>
       <c r="C350">
-        <v>9.6560016637473164E-4</v>
+        <v>7.9989154544968201E-4</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
@@ -9951,10 +9951,10 @@
         <v>352</v>
       </c>
       <c r="B351">
-        <v>-2.6967884887225193E-4</v>
+        <v>2.3223472651451821E-3</v>
       </c>
       <c r="C351">
-        <v>5.1218353281645885E-4</v>
+        <v>2.9365261634103738E-3</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
@@ -9962,10 +9962,10 @@
         <v>353</v>
       </c>
       <c r="B352">
-        <v>3.0373318801771979E-3</v>
+        <v>-6.7978293637754579E-4</v>
       </c>
       <c r="C352">
-        <v>4.5223910493210441E-4</v>
+        <v>1.171255037933914E-2</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
@@ -9973,10 +9973,10 @@
         <v>354</v>
       </c>
       <c r="B353">
-        <v>-6.2189517797164719E-6</v>
+        <v>7.7587269082002113E-4</v>
       </c>
       <c r="C353">
-        <v>2.1782680685499041E-4</v>
+        <v>9.3894088731849166E-4</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
@@ -9984,10 +9984,10 @@
         <v>355</v>
       </c>
       <c r="B354">
-        <v>-4.2126898820847841E-4</v>
+        <v>1.2225969256963549E-3</v>
       </c>
       <c r="C354">
-        <v>4.1981946237724206E-3</v>
+        <v>1.6514689366857189E-4</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
@@ -9995,10 +9995,10 @@
         <v>356</v>
       </c>
       <c r="B355">
-        <v>1.7657588673873801E-3</v>
+        <v>1.1625826152638829E-3</v>
       </c>
       <c r="C355">
-        <v>3.4194545810662322E-3</v>
+        <v>1.7584625077543249E-4</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
@@ -10006,10 +10006,10 @@
         <v>357</v>
       </c>
       <c r="B356">
-        <v>-6.2057873032532922E-3</v>
+        <v>7.7682493905072012E-5</v>
       </c>
       <c r="C356">
-        <v>6.3253572428648187E-3</v>
+        <v>6.9921629370776482E-4</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
@@ -10017,10 +10017,10 @@
         <v>358</v>
       </c>
       <c r="B357">
-        <v>4.6176909007274831E-4</v>
+        <v>1.095239105810903E-3</v>
       </c>
       <c r="C357">
-        <v>1.4901472888556331E-4</v>
+        <v>2.2328999211993519E-4</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
@@ -10028,10 +10028,10 @@
         <v>359</v>
       </c>
       <c r="B358">
-        <v>1.873935078946779E-3</v>
+        <v>-2.0941011533051881E-4</v>
       </c>
       <c r="C358">
-        <v>3.6945044493496637E-4</v>
+        <v>3.9858732527173072E-4</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.3">
@@ -10039,10 +10039,10 @@
         <v>360</v>
       </c>
       <c r="B359">
-        <v>7.7682493905072012E-5</v>
+        <v>6.570855274036112E-5</v>
       </c>
       <c r="C359">
-        <v>6.9921629370776482E-4</v>
+        <v>1.54478363849579E-3</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.3">
@@ -10050,10 +10050,10 @@
         <v>361</v>
       </c>
       <c r="B360">
-        <v>1.0952393761017719E-3</v>
+        <v>1.037640759928346E-4</v>
       </c>
       <c r="C360">
-        <v>2.2329062139375089E-4</v>
+        <v>9.6007647707513103E-5</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.3">
@@ -10061,10 +10061,10 @@
         <v>362</v>
       </c>
       <c r="B361">
-        <v>-2.0941047085719109E-4</v>
+        <v>-1.6500126580727269E-3</v>
       </c>
       <c r="C361">
-        <v>3.985866169406053E-4</v>
+        <v>1.9374473973641119E-2</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.3">
@@ -10072,10 +10072,10 @@
         <v>363</v>
       </c>
       <c r="B362">
-        <v>6.5708803840400603E-5</v>
+        <v>-4.6650448518997762E-4</v>
       </c>
       <c r="C362">
-        <v>1.5447835710910079E-3</v>
+        <v>5.0487967664330363E-3</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.3">
@@ -10083,10 +10083,10 @@
         <v>364</v>
       </c>
       <c r="B363">
-        <v>1.037640759928352E-4</v>
+        <v>3.3638037960801248E-3</v>
       </c>
       <c r="C363">
-        <v>9.6007683881702615E-5</v>
+        <v>3.3538903099059628E-4</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.3">
@@ -10094,10 +10094,10 @@
         <v>365</v>
       </c>
       <c r="B364">
-        <v>-1.6500128561510779E-3</v>
+        <v>1.654074133575276E-3</v>
       </c>
       <c r="C364">
-        <v>1.937447483975004E-2</v>
+        <v>2.4778524442658811E-4</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.3">
@@ -10105,10 +10105,10 @@
         <v>366</v>
       </c>
       <c r="B365">
-        <v>-4.6650448518997762E-4</v>
+        <v>1.2812091883350129E-3</v>
       </c>
       <c r="C365">
-        <v>5.0487967664330363E-3</v>
+        <v>3.9733399272410169E-4</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.3">
@@ -10116,10 +10116,10 @@
         <v>367</v>
       </c>
       <c r="B366">
-        <v>3.394811906314034E-3</v>
+        <v>6.6498898201921468E-4</v>
       </c>
       <c r="C366">
-        <v>3.3675098131761118E-4</v>
+        <v>1.710844420230271E-4</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.3">
@@ -10127,10 +10127,10 @@
         <v>368</v>
       </c>
       <c r="B367">
-        <v>1.6540761747084729E-3</v>
+        <v>1.4063907476240809E-3</v>
       </c>
       <c r="C367">
-        <v>2.4778590249108559E-4</v>
+        <v>2.130369483737432E-4</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.3">
@@ -10138,10 +10138,10 @@
         <v>369</v>
       </c>
       <c r="B368">
-        <v>1.2812096249123421E-3</v>
+        <v>3.1068272151377218E-4</v>
       </c>
       <c r="C368">
-        <v>3.9733389209143391E-4</v>
+        <v>1.3511985693231209E-4</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
@@ -10149,10 +10149,10 @@
         <v>370</v>
       </c>
       <c r="B369">
-        <v>6.6498784717107821E-4</v>
+        <v>-3.3981635055024709E-4</v>
       </c>
       <c r="C369">
-        <v>1.7108457303112779E-4</v>
+        <v>1.9583828096653131E-4</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
@@ -10160,10 +10160,10 @@
         <v>371</v>
       </c>
       <c r="B370">
-        <v>1.406389562261997E-3</v>
+        <v>-1.660931445103115E-3</v>
       </c>
       <c r="C370">
-        <v>2.130363286544535E-4</v>
+        <v>2.810081075008282E-3</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
@@ -10171,10 +10171,10 @@
         <v>372</v>
       </c>
       <c r="B371">
-        <v>3.1068008753011892E-4</v>
+        <v>5.1790707842681426E-4</v>
       </c>
       <c r="C371">
-        <v>1.35119901256662E-4</v>
+        <v>1.9233987268858011E-3</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
@@ -10182,10 +10182,10 @@
         <v>373</v>
       </c>
       <c r="B372">
-        <v>-3.3981546930263439E-4</v>
+        <v>9.3588810722676941E-4</v>
       </c>
       <c r="C372">
-        <v>1.95837674836265E-4</v>
+        <v>3.6860668847811892E-4</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
@@ -10193,10 +10193,10 @@
         <v>374</v>
       </c>
       <c r="B373">
-        <v>-1.660931445103115E-3</v>
+        <v>7.7331202784444394E-4</v>
       </c>
       <c r="C373">
-        <v>2.810081075008282E-3</v>
+        <v>5.4589189682592023E-5</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
@@ -10204,10 +10204,10 @@
         <v>375</v>
       </c>
       <c r="B374">
-        <v>9.9745198584953509E-5</v>
+        <v>-3.3566715574975601E-3</v>
       </c>
       <c r="C374">
-        <v>1.9173928941752421E-3</v>
+        <v>1.924877644184503E-3</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
@@ -10215,10 +10215,10 @@
         <v>376</v>
       </c>
       <c r="B375">
-        <v>9.3588683555243261E-4</v>
+        <v>1.001693616272637E-3</v>
       </c>
       <c r="C375">
-        <v>3.6860680098239169E-4</v>
+        <v>2.2143886387289671E-4</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
@@ -10226,10 +10226,10 @@
         <v>377</v>
       </c>
       <c r="B376">
-        <v>7.7331390534890465E-4</v>
+        <v>3.4351077463226301E-4</v>
       </c>
       <c r="C376">
-        <v>5.4588624125813429E-5</v>
+        <v>7.7774381038258537E-4</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
@@ -10237,10 +10237,10 @@
         <v>378</v>
       </c>
       <c r="B377">
-        <v>-3.3566715574975601E-3</v>
+        <v>1.528492212318725E-2</v>
       </c>
       <c r="C377">
-        <v>1.924877644184503E-3</v>
+        <v>7.5369711105848572E-2</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
@@ -10248,10 +10248,10 @@
         <v>379</v>
       </c>
       <c r="B378">
-        <v>1.014156617921498E-3</v>
+        <v>3.6253562045215609E-3</v>
       </c>
       <c r="C378">
-        <v>2.2151984960824619E-4</v>
+        <v>7.3423808871662911E-4</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
@@ -10259,10 +10259,10 @@
         <v>380</v>
       </c>
       <c r="B379">
-        <v>3.4351077463226301E-4</v>
+        <v>2.5353715273467789E-3</v>
       </c>
       <c r="C379">
-        <v>7.7774381038258537E-4</v>
+        <v>2.4811823215396189E-3</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
@@ -10270,10 +10270,10 @@
         <v>381</v>
       </c>
       <c r="B380">
-        <v>1.528492212318725E-2</v>
+        <v>-1.4374674204163751E-3</v>
       </c>
       <c r="C380">
-        <v>7.5369711105848572E-2</v>
+        <v>9.0541487203615813E-4</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
@@ -10281,10 +10281,10 @@
         <v>382</v>
       </c>
       <c r="B381">
-        <v>3.6253562045215609E-3</v>
+        <v>4.3126806684445724E-3</v>
       </c>
       <c r="C381">
-        <v>7.3423808871662911E-4</v>
+        <v>3.3545454048914572E-3</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
@@ -10292,10 +10292,10 @@
         <v>383</v>
       </c>
       <c r="B382">
-        <v>2.5353715273467789E-3</v>
+        <v>1.5476959971329109E-3</v>
       </c>
       <c r="C382">
-        <v>2.4811823215396189E-3</v>
+        <v>6.387155515435762E-4</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
@@ -10303,10 +10303,10 @@
         <v>384</v>
       </c>
       <c r="B383">
-        <v>-1.4374674204163751E-3</v>
+        <v>1.1203099838172071E-3</v>
       </c>
       <c r="C383">
-        <v>9.0541487203615813E-4</v>
+        <v>1.9698518214586141E-4</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.3">
@@ -10314,10 +10314,10 @@
         <v>385</v>
       </c>
       <c r="B384">
-        <v>4.3126805587213124E-3</v>
+        <v>1.8056101952955051E-4</v>
       </c>
       <c r="C384">
-        <v>3.3545457391312311E-3</v>
+        <v>9.588844310323157E-5</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
@@ -10325,10 +10325,10 @@
         <v>386</v>
       </c>
       <c r="B385">
-        <v>1.5476959971329109E-3</v>
+        <v>1.83024159178779E-3</v>
       </c>
       <c r="C385">
-        <v>6.387155515435762E-4</v>
+        <v>2.175638642197992E-4</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.3">
@@ -10336,10 +10336,10 @@
         <v>387</v>
       </c>
       <c r="B386">
-        <v>1.1203098134585541E-3</v>
+        <v>-2.7640958781902572E-5</v>
       </c>
       <c r="C386">
-        <v>1.9698590602471811E-4</v>
+        <v>1.235769163194602E-3</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.3">
@@ -10347,10 +10347,10 @@
         <v>388</v>
       </c>
       <c r="B387">
-        <v>1.8056121115997349E-4</v>
+        <v>4.9599831316183543E-4</v>
       </c>
       <c r="C387">
-        <v>9.5888134744020562E-5</v>
+        <v>1.063570402921654E-4</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.3">
@@ -10358,10 +10358,10 @@
         <v>389</v>
       </c>
       <c r="B388">
-        <v>1.8302417740900679E-3</v>
+        <v>1.213694861823107E-3</v>
       </c>
       <c r="C388">
-        <v>2.1756387762811099E-4</v>
+        <v>2.4490629796310301E-4</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.3">
@@ -10369,10 +10369,10 @@
         <v>390</v>
       </c>
       <c r="B389">
-        <v>-2.7640958781902572E-5</v>
+        <v>2.756283270665157E-3</v>
       </c>
       <c r="C389">
-        <v>1.235769163194602E-3</v>
+        <v>3.0175541411824451E-3</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.3">
@@ -10380,10 +10380,10 @@
         <v>391</v>
       </c>
       <c r="B390">
-        <v>4.9600024808844618E-4</v>
+        <v>7.7377233611848292E-4</v>
       </c>
       <c r="C390">
-        <v>1.0635625936057501E-4</v>
+        <v>1.2504807378320779E-4</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.3">
@@ -10391,10 +10391,10 @@
         <v>392</v>
       </c>
       <c r="B391">
-        <v>1.213693788272193E-3</v>
+        <v>1.810222931617766E-4</v>
       </c>
       <c r="C391">
-        <v>2.4490639927325712E-4</v>
+        <v>9.7732499538692413E-5</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.3">
@@ -10402,10 +10402,10 @@
         <v>393</v>
       </c>
       <c r="B392">
-        <v>2.7562831916204062E-3</v>
+        <v>1.9487155500778609E-4</v>
       </c>
       <c r="C392">
-        <v>3.0175531396684791E-3</v>
+        <v>6.8696861392205429E-5</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.3">
@@ -10413,10 +10413,10 @@
         <v>394</v>
       </c>
       <c r="B393">
-        <v>7.7377120177941027E-4</v>
+        <v>-6.333716114331662E-5</v>
       </c>
       <c r="C393">
-        <v>1.2504830473318281E-4</v>
+        <v>4.0707689873103472E-4</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.3">
@@ -10424,10 +10424,10 @@
         <v>395</v>
       </c>
       <c r="B394">
-        <v>1.810241476992783E-4</v>
+        <v>4.4632681784686758E-4</v>
       </c>
       <c r="C394">
-        <v>9.773285577516184E-5</v>
+        <v>1.5583558680497489E-4</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.3">
@@ -10435,10 +10435,10 @@
         <v>396</v>
       </c>
       <c r="B395">
-        <v>1.9487267504325701E-4</v>
+        <v>-6.8224671733104099E-4</v>
       </c>
       <c r="C395">
-        <v>6.8696799508410181E-5</v>
+        <v>4.4877601653358208E-4</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.3">
@@ -10446,10 +10446,10 @@
         <v>397</v>
       </c>
       <c r="B396">
-        <v>-6.333716114331662E-5</v>
+        <v>1.2033919594624299E-3</v>
       </c>
       <c r="C396">
-        <v>4.0707689873103472E-4</v>
+        <v>1.0777066571284439E-4</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.3">
@@ -10457,10 +10457,10 @@
         <v>398</v>
       </c>
       <c r="B397">
-        <v>4.4632773611053922E-4</v>
+        <v>2.030192586828104E-3</v>
       </c>
       <c r="C397">
-        <v>1.558359343622776E-4</v>
+        <v>3.8220823013186678E-4</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.3">
@@ -10468,10 +10468,10 @@
         <v>399</v>
       </c>
       <c r="B398">
-        <v>-6.8224553016416317E-4</v>
+        <v>-2.295811391405739E-3</v>
       </c>
       <c r="C398">
-        <v>4.4877570179651261E-4</v>
+        <v>9.7658918834963898E-4</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.3">
@@ -10479,10 +10479,10 @@
         <v>400</v>
       </c>
       <c r="B399">
-        <v>1.2033930113377761E-3</v>
+        <v>-6.2229827033634701E-3</v>
       </c>
       <c r="C399">
-        <v>1.077711710115695E-4</v>
+        <v>4.1135841701762186E-3</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.3">
@@ -10490,10 +10490,10 @@
         <v>401</v>
       </c>
       <c r="B400">
-        <v>2.0301923712738668E-3</v>
+        <v>-5.750807651074265E-3</v>
       </c>
       <c r="C400">
-        <v>3.8220749766461538E-4</v>
+        <v>7.5418613533668483E-3</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.3">
@@ -10501,10 +10501,10 @@
         <v>402</v>
       </c>
       <c r="B401">
-        <v>-2.295811391405739E-3</v>
+        <v>8.0572431952575065E-4</v>
       </c>
       <c r="C401">
-        <v>9.7658918834963898E-4</v>
+        <v>3.427237561426503E-3</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.3">
@@ -10512,10 +10512,10 @@
         <v>403</v>
       </c>
       <c r="B402">
-        <v>-6.2229827033634701E-3</v>
+        <v>1.585842251584863E-3</v>
       </c>
       <c r="C402">
-        <v>4.1135841701762186E-3</v>
+        <v>4.2224072704179411E-4</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.3">
@@ -10523,10 +10523,10 @@
         <v>404</v>
       </c>
       <c r="B403">
-        <v>-5.750807651074265E-3</v>
+        <v>6.9300269856809984E-5</v>
       </c>
       <c r="C403">
-        <v>7.5418613533668483E-3</v>
+        <v>4.7995254548546622E-4</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.3">
@@ -10534,10 +10534,10 @@
         <v>405</v>
       </c>
       <c r="B404">
-        <v>8.0572432682331468E-4</v>
+        <v>-2.5067260382197688E-3</v>
       </c>
       <c r="C404">
-        <v>3.4272378518334112E-3</v>
+        <v>2.554385248124195E-3</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.3">
@@ -10545,10 +10545,10 @@
         <v>406</v>
       </c>
       <c r="B405">
-        <v>1.5858406313817271E-3</v>
+        <v>-1.0285204299530261E-3</v>
       </c>
       <c r="C405">
-        <v>4.2224120499004031E-4</v>
+        <v>5.6216908236699544E-4</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.3">
@@ -10556,10 +10556,10 @@
         <v>407</v>
       </c>
       <c r="B406">
-        <v>6.9300000710441448E-5</v>
+        <v>-2.9082117676600058E-3</v>
       </c>
       <c r="C406">
-        <v>4.7995180182114171E-4</v>
+        <v>2.0994410202802849E-3</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.3">
@@ -10567,10 +10567,10 @@
         <v>408</v>
       </c>
       <c r="B407">
-        <v>-2.5067260382197688E-3</v>
+        <v>-4.9146289276391739E-4</v>
       </c>
       <c r="C407">
-        <v>2.554385248124195E-3</v>
+        <v>1.0203785688867599E-3</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.3">
@@ -10578,10 +10578,10 @@
         <v>409</v>
       </c>
       <c r="B408">
-        <v>-1.0285203226802341E-3</v>
+        <v>1.441877205200604E-3</v>
       </c>
       <c r="C408">
-        <v>5.6216906030255392E-4</v>
+        <v>3.1367105177643179E-4</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.3">
@@ -10589,10 +10589,10 @@
         <v>410</v>
       </c>
       <c r="B409">
-        <v>-2.9082117676600058E-3</v>
+        <v>1.402395460769105E-3</v>
       </c>
       <c r="C409">
-        <v>2.0994410202802849E-3</v>
+        <v>3.3255906288301218E-4</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.3">
@@ -10600,10 +10600,10 @@
         <v>411</v>
       </c>
       <c r="B410">
-        <v>-4.9146289276391739E-4</v>
+        <v>3.1728177021391011E-4</v>
       </c>
       <c r="C410">
-        <v>1.0203785688867599E-3</v>
+        <v>5.0342760333287224E-4</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.3">
@@ -10611,10 +10611,10 @@
         <v>412</v>
       </c>
       <c r="B411">
-        <v>1.4418761889757349E-3</v>
+        <v>2.2454495149439018E-3</v>
       </c>
       <c r="C411">
-        <v>3.1367086015491208E-4</v>
+        <v>4.6041935212019899E-3</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.3">
@@ -10622,10 +10622,10 @@
         <v>413</v>
       </c>
       <c r="B412">
-        <v>1.4023941997099801E-3</v>
+        <v>1.124802593447151E-4</v>
       </c>
       <c r="C412">
-        <v>3.3255864181374061E-4</v>
+        <v>1.2362987704347299E-4</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.3">
@@ -10633,10 +10633,10 @@
         <v>414</v>
       </c>
       <c r="B413">
-        <v>3.1728177021391011E-4</v>
+        <v>8.6140463738898379E-4</v>
       </c>
       <c r="C413">
-        <v>5.0342760333287224E-4</v>
+        <v>4.2622107946460049E-4</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.3">
@@ -10644,10 +10644,10 @@
         <v>415</v>
       </c>
       <c r="B414">
-        <v>2.2454495149439018E-3</v>
+        <v>1.1121708891418229E-4</v>
       </c>
       <c r="C414">
-        <v>4.6041935212019899E-3</v>
+        <v>4.6881062246447309E-4</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.3">
@@ -10655,10 +10655,10 @@
         <v>416</v>
       </c>
       <c r="B415">
-        <v>1.124841990385197E-4</v>
+        <v>-2.0779195624749201E-3</v>
       </c>
       <c r="C415">
-        <v>1.236296480490092E-4</v>
+        <v>2.0750369048966478E-3</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.3">
@@ -10666,10 +10666,10 @@
         <v>417</v>
       </c>
       <c r="B416">
-        <v>8.6140492230327701E-4</v>
+        <v>1.4889100215201071E-3</v>
       </c>
       <c r="C416">
-        <v>4.2622268559317368E-4</v>
+        <v>4.5797582493102042E-4</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.3">
@@ -10677,10 +10677,10 @@
         <v>418</v>
       </c>
       <c r="B417">
-        <v>1.112158543566712E-4</v>
+        <v>1.1277380376672589E-3</v>
       </c>
       <c r="C417">
-        <v>4.6881247267933511E-4</v>
+        <v>1.7544721333779501E-4</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.3">
@@ -10688,10 +10688,10 @@
         <v>419</v>
       </c>
       <c r="B418">
-        <v>-2.0779195624749201E-3</v>
+        <v>1.7663922110348869E-3</v>
       </c>
       <c r="C418">
-        <v>2.0750369048966478E-3</v>
+        <v>1.050211376300763E-3</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.3">
@@ -10699,10 +10699,10 @@
         <v>420</v>
       </c>
       <c r="B419">
-        <v>1.4889100215201071E-3</v>
+        <v>7.1667526955369518E-4</v>
       </c>
       <c r="C419">
-        <v>4.5797582493102042E-4</v>
+        <v>6.8933414317510341E-3</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.3">
@@ -10710,10 +10710,10 @@
         <v>421</v>
       </c>
       <c r="B420">
-        <v>1.132728280498711E-3</v>
+        <v>3.2433163656204642E-4</v>
       </c>
       <c r="C420">
-        <v>1.756186383148219E-4</v>
+        <v>3.7426965360524831E-4</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.3">
@@ -10721,10 +10721,10 @@
         <v>422</v>
       </c>
       <c r="B421">
-        <v>1.7663922110348869E-3</v>
+        <v>1.537434689359692E-3</v>
       </c>
       <c r="C421">
-        <v>1.050211376300763E-3</v>
+        <v>1.8457538401742799E-4</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.3">
@@ -10732,10 +10732,10 @@
         <v>423</v>
       </c>
       <c r="B422">
-        <v>7.1667526955369518E-4</v>
+        <v>-1.4781283488109751E-3</v>
       </c>
       <c r="C422">
-        <v>6.8933414317510341E-3</v>
+        <v>2.818258234229278E-3</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.3">
@@ -10743,10 +10743,10 @@
         <v>424</v>
       </c>
       <c r="B423">
-        <v>3.2433163656204642E-4</v>
+        <v>6.6053078811496389E-3</v>
       </c>
       <c r="C423">
-        <v>3.7426965360524831E-4</v>
+        <v>4.3191458246683899E-3</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.3">
@@ -10754,10 +10754,10 @@
         <v>425</v>
       </c>
       <c r="B424">
-        <v>1.537434689359692E-3</v>
+        <v>-3.514572713572479E-3</v>
       </c>
       <c r="C424">
-        <v>1.8457538401742799E-4</v>
+        <v>2.5852608322165381E-3</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.3">
@@ -10765,10 +10765,10 @@
         <v>426</v>
       </c>
       <c r="B425">
-        <v>-1.4781283488109751E-3</v>
+        <v>8.8459959887254684E-4</v>
       </c>
       <c r="C425">
-        <v>2.818258234229278E-3</v>
+        <v>5.705867101763937E-4</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.3">
@@ -10776,10 +10776,10 @@
         <v>427</v>
       </c>
       <c r="B426">
-        <v>6.6053078811496389E-3</v>
+        <v>1.868701430631507E-3</v>
       </c>
       <c r="C426">
-        <v>4.3191458246683899E-3</v>
+        <v>6.9768299995000152E-4</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.3">
@@ -10787,10 +10787,10 @@
         <v>428</v>
       </c>
       <c r="B427">
-        <v>-3.514572713572479E-3</v>
+        <v>3.0125899968208771E-3</v>
       </c>
       <c r="C427">
-        <v>2.5852608322165381E-3</v>
+        <v>1.7385927368159439E-3</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.3">
@@ -10798,10 +10798,10 @@
         <v>429</v>
       </c>
       <c r="B428">
-        <v>8.8459960487944028E-4</v>
+        <v>2.5738456331337911E-4</v>
       </c>
       <c r="C428">
-        <v>5.7058660532436506E-4</v>
+        <v>8.8946724720777076E-4</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.3">
@@ -10809,10 +10809,10 @@
         <v>430</v>
       </c>
       <c r="B429">
-        <v>1.868701430631507E-3</v>
+        <v>-6.8443328703453093E-4</v>
       </c>
       <c r="C429">
-        <v>6.9768299995000152E-4</v>
+        <v>3.7471773411825289E-4</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.3">
@@ -10820,10 +10820,10 @@
         <v>431</v>
       </c>
       <c r="B430">
-        <v>3.0125899968208771E-3</v>
+        <v>1.1168096725210181E-4</v>
       </c>
       <c r="C430">
-        <v>1.7385927368159439E-3</v>
+        <v>2.706760035571798E-4</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.3">
@@ -10831,10 +10831,10 @@
         <v>432</v>
       </c>
       <c r="B431">
-        <v>2.5738456331337911E-4</v>
+        <v>1.1183367873875659E-3</v>
       </c>
       <c r="C431">
-        <v>8.8946724720777076E-4</v>
+        <v>8.6415633203891439E-5</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.3">
@@ -10842,10 +10842,10 @@
         <v>433</v>
       </c>
       <c r="B432">
-        <v>-6.8443328703453093E-4</v>
+        <v>-7.9948484247869015E-4</v>
       </c>
       <c r="C432">
-        <v>3.7471773411825289E-4</v>
+        <v>1.783605406202606E-3</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.3">
@@ -10853,10 +10853,10 @@
         <v>434</v>
       </c>
       <c r="B433">
-        <v>1.116816074254347E-4</v>
+        <v>7.8523206988225316E-4</v>
       </c>
       <c r="C433">
-        <v>2.7067601058698801E-4</v>
+        <v>8.4185177989395203E-5</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.3">
@@ -10864,10 +10864,10 @@
         <v>435</v>
       </c>
       <c r="B434">
-        <v>1.1217172755054619E-3</v>
+        <v>1.370514388134204E-3</v>
       </c>
       <c r="C434">
-        <v>8.638179743717929E-5</v>
+        <v>3.799863683976491E-4</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.3">
@@ -10875,10 +10875,10 @@
         <v>436</v>
       </c>
       <c r="B435">
-        <v>-7.9948484247869015E-4</v>
+        <v>1.9635634548174309E-3</v>
       </c>
       <c r="C435">
-        <v>1.783605406202606E-3</v>
+        <v>6.0226936280692123E-4</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.3">
@@ -10886,10 +10886,10 @@
         <v>437</v>
       </c>
       <c r="B436">
-        <v>7.8523087437756844E-4</v>
+        <v>-1.5513834844176301E-3</v>
       </c>
       <c r="C436">
-        <v>8.4185264809578692E-5</v>
+        <v>1.0667484032290721E-3</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.3">
@@ -10897,10 +10897,10 @@
         <v>438</v>
       </c>
       <c r="B437">
-        <v>1.3705154996571411E-3</v>
+        <v>5.6101754233394633E-4</v>
       </c>
       <c r="C437">
-        <v>3.7998606980001773E-4</v>
+        <v>1.174416262221269E-4</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.3">
@@ -10908,10 +10908,10 @@
         <v>439</v>
       </c>
       <c r="B438">
-        <v>2.1514236192164268E-3</v>
+        <v>-4.8356956996920243E-5</v>
       </c>
       <c r="C438">
-        <v>6.0624042607662957E-4</v>
+        <v>2.2973872654917971E-4</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.3">
@@ -10919,10 +10919,10 @@
         <v>440</v>
       </c>
       <c r="B439">
-        <v>-1.5513834265091599E-3</v>
+        <v>1.123462684963145E-3</v>
       </c>
       <c r="C439">
-        <v>1.0667491446602769E-3</v>
+        <v>1.4820399066595071E-4</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.3">
@@ -10930,10 +10930,10 @@
         <v>441</v>
       </c>
       <c r="B440">
-        <v>5.610154624688758E-4</v>
+        <v>-2.476039713892994E-3</v>
       </c>
       <c r="C440">
-        <v>1.174416794467031E-4</v>
+        <v>1.4948721984555471E-3</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.3">
@@ -10941,10 +10941,10 @@
         <v>442</v>
       </c>
       <c r="B441">
-        <v>-4.8357098831337413E-5</v>
+        <v>-1.4659211921577589E-4</v>
       </c>
       <c r="C441">
-        <v>2.2973849241480571E-4</v>
+        <v>3.7994020957588057E-4</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.3">
@@ -10952,10 +10952,10 @@
         <v>443</v>
       </c>
       <c r="B442">
-        <v>1.2808190489323611E-3</v>
+        <v>-5.6857226237101198E-3</v>
       </c>
       <c r="C442">
-        <v>1.5263279698902779E-4</v>
+        <v>6.5266839929116298E-3</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.3">
@@ -10963,10 +10963,10 @@
         <v>444</v>
       </c>
       <c r="B443">
-        <v>-2.476039713892994E-3</v>
+        <v>7.0496776922778564E-5</v>
       </c>
       <c r="C443">
-        <v>1.4948721984555471E-3</v>
+        <v>4.3544266129037058E-4</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.3">
@@ -10974,10 +10974,10 @@
         <v>445</v>
       </c>
       <c r="B444">
-        <v>-1.4659228323344781E-4</v>
+        <v>8.0707305163765927E-4</v>
       </c>
       <c r="C444">
-        <v>3.7994008954966738E-4</v>
+        <v>3.1867227241558921E-4</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.3">
@@ -10985,10 +10985,10 @@
         <v>446</v>
       </c>
       <c r="B445">
-        <v>-5.6857226237101198E-3</v>
+        <v>9.9880863403330297E-4</v>
       </c>
       <c r="C445">
-        <v>6.5266839929116298E-3</v>
+        <v>5.7848820318243685E-4</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.3">
@@ -10996,10 +10996,10 @@
         <v>447</v>
       </c>
       <c r="B446">
-        <v>7.3326879539218064E-5</v>
+        <v>1.2065410189427161E-3</v>
       </c>
       <c r="C446">
-        <v>4.3552707450844011E-4</v>
+        <v>4.1391292957051443E-4</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.3">
@@ -11007,10 +11007,10 @@
         <v>448</v>
       </c>
       <c r="B447">
-        <v>8.0707305163765927E-4</v>
+        <v>-5.440277616350958E-4</v>
       </c>
       <c r="C447">
-        <v>3.1867227241558921E-4</v>
+        <v>9.6560016637473164E-4</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.3">
@@ -11018,10 +11018,10 @@
         <v>449</v>
       </c>
       <c r="B448">
-        <v>9.9880835132268048E-4</v>
+        <v>-2.9718763773500573E-4</v>
       </c>
       <c r="C448">
-        <v>5.7848808486961117E-4</v>
+        <v>5.1147488067569225E-4</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.3">
@@ -11029,10 +11029,10 @@
         <v>450</v>
       </c>
       <c r="B449">
-        <v>2.007705380720432E-3</v>
+        <v>3.0373318801771979E-3</v>
       </c>
       <c r="C449">
-        <v>4.504937691820348E-4</v>
+        <v>4.5223910493210441E-4</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.3">
@@ -11040,10 +11040,10 @@
         <v>451</v>
       </c>
       <c r="B450">
-        <v>1.4716192006537061E-4</v>
+        <v>-6.2176688158426646E-6</v>
       </c>
       <c r="C450">
-        <v>7.9989154544968201E-4</v>
+        <v>2.1782636878111579E-4</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.3">
@@ -11051,10 +11051,10 @@
         <v>452</v>
       </c>
       <c r="B451">
-        <v>2.3223462110927278E-3</v>
+        <v>-4.2126898820847841E-4</v>
       </c>
       <c r="C451">
-        <v>2.936525185941057E-3</v>
+        <v>4.1981946237724206E-3</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.3">
@@ -11062,10 +11062,10 @@
         <v>453</v>
       </c>
       <c r="B452">
-        <v>-6.7978293637754579E-4</v>
+        <v>1.7657588673873801E-3</v>
       </c>
       <c r="C452">
-        <v>1.171255037933914E-2</v>
+        <v>3.4194545810662322E-3</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.3">
@@ -11073,10 +11073,10 @@
         <v>454</v>
       </c>
       <c r="B453">
-        <v>7.7587269082002113E-4</v>
+        <v>-6.2057873032532922E-3</v>
       </c>
       <c r="C453">
-        <v>9.3894088731849166E-4</v>
+        <v>6.3253572428648187E-3</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.3">
@@ -11084,10 +11084,10 @@
         <v>455</v>
       </c>
       <c r="B454">
-        <v>1.2225984088037229E-3</v>
+        <v>4.6757402763242798E-4</v>
       </c>
       <c r="C454">
-        <v>1.6514734674135461E-4</v>
+        <v>1.4910458823026219E-4</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.3">
@@ -11095,10 +11095,10 @@
         <v>456</v>
       </c>
       <c r="B455">
-        <v>1.1625822175367359E-3</v>
+        <v>1.873935078946779E-3</v>
       </c>
       <c r="C455">
-        <v>1.7584643149147261E-4</v>
+        <v>3.6945044493496637E-4</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.3">
@@ -11117,10 +11117,10 @@
         <v>458</v>
       </c>
       <c r="B457">
-        <v>2.523857147920143E-4</v>
+        <v>2.5238670876816602E-4</v>
       </c>
       <c r="C457">
-        <v>1.901638959221564E-4</v>
+        <v>1.901641273836322E-4</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.3">
@@ -11128,10 +11128,10 @@
         <v>459</v>
       </c>
       <c r="B458">
-        <v>1.0785587312570389E-3</v>
+        <v>1.1264381635208349E-3</v>
       </c>
       <c r="C458">
-        <v>1.8588565795760241E-4</v>
+        <v>1.8374837074674021E-4</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.3">
@@ -11139,10 +11139,10 @@
         <v>460</v>
       </c>
       <c r="B459">
-        <v>1.205585277694802E-3</v>
+        <v>-3.0478082137313449E-5</v>
       </c>
       <c r="C459">
-        <v>2.2646889781734479E-4</v>
+        <v>1.1098182025165459E-3</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.3">
@@ -11150,10 +11150,10 @@
         <v>461</v>
       </c>
       <c r="B460">
-        <v>1.0143790015283869E-3</v>
+        <v>-1.5516524572180251E-3</v>
       </c>
       <c r="C460">
-        <v>1.8188295426505461E-4</v>
+        <v>2.5577325478040348E-3</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.3">
@@ -11161,10 +11161,10 @@
         <v>462</v>
       </c>
       <c r="B461">
-        <v>9.5107079738791539E-4</v>
+        <v>1.1483110976131001E-3</v>
       </c>
       <c r="C461">
-        <v>8.0462279711885525E-4</v>
+        <v>1.146247473506453E-4</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.3">
@@ -11172,10 +11172,10 @@
         <v>463</v>
       </c>
       <c r="B462">
-        <v>5.2050501781700936E-4</v>
+        <v>-1.178475108707808E-4</v>
       </c>
       <c r="C462">
-        <v>2.1912745093989399E-4</v>
+        <v>1.7023000788788861E-4</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.3">
@@ -11183,10 +11183,10 @@
         <v>464</v>
       </c>
       <c r="B463">
-        <v>5.1321108573060736E-4</v>
+        <v>7.799630919908578E-4</v>
       </c>
       <c r="C463">
-        <v>5.881814775223958E-5</v>
+        <v>2.449794957176762E-4</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.3">
@@ -11194,10 +11194,10 @@
         <v>465</v>
       </c>
       <c r="B464">
-        <v>1.228891558032483E-3</v>
+        <v>5.607026039904894E-4</v>
       </c>
       <c r="C464">
-        <v>2.7987946270440411E-4</v>
+        <v>4.9166320496696499E-4</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.3">
@@ -11205,10 +11205,10 @@
         <v>466</v>
       </c>
       <c r="B465">
-        <v>7.3568448693524474E-4</v>
+        <v>2.170768763380169E-3</v>
       </c>
       <c r="C465">
-        <v>3.3926421085559268E-4</v>
+        <v>1.177836913666977E-3</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.3">
@@ -11216,10 +11216,10 @@
         <v>467</v>
       </c>
       <c r="B466">
-        <v>1.5455885059259471E-3</v>
+        <v>5.76827470869079E-4</v>
       </c>
       <c r="C466">
-        <v>1.3288782168312579E-3</v>
+        <v>3.4250371070926569E-3</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.3">
@@ -11227,10 +11227,10 @@
         <v>468</v>
       </c>
       <c r="B467">
-        <v>1.4210157129033181E-3</v>
+        <v>2.560577297599803E-3</v>
       </c>
       <c r="C467">
-        <v>7.7013441650562011E-3</v>
+        <v>7.5462393286582316E-4</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.3">
@@ -11238,10 +11238,10 @@
         <v>469</v>
       </c>
       <c r="B468">
-        <v>-8.3264945512450325E-5</v>
+        <v>-3.1273096253071129E-3</v>
       </c>
       <c r="C468">
-        <v>3.2860848940051678E-4</v>
+        <v>5.3284853833036779E-3</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.3">
@@ -11249,10 +11249,10 @@
         <v>470</v>
       </c>
       <c r="B469">
-        <v>-5.0217159752700199E-4</v>
+        <v>1.5679864559748941E-3</v>
       </c>
       <c r="C469">
-        <v>1.146320122422155E-3</v>
+        <v>8.7548235953991836E-4</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.3">
@@ -11260,10 +11260,10 @@
         <v>471</v>
       </c>
       <c r="B470">
-        <v>1.8001142444516759E-3</v>
+        <v>3.3868211921504287E-4</v>
       </c>
       <c r="C470">
-        <v>2.7662557420719808E-4</v>
+        <v>1.2386430505991161E-4</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.3">
@@ -11293,10 +11293,10 @@
         <v>474</v>
       </c>
       <c r="B473">
-        <v>1.1694275221981311E-3</v>
+        <v>1.169427807751257E-3</v>
       </c>
       <c r="C473">
-        <v>4.3713929537519269E-4</v>
+        <v>4.3713915365664108E-4</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.3">
@@ -11304,10 +11304,10 @@
         <v>475</v>
       </c>
       <c r="B474">
-        <v>8.1171595167417432E-4</v>
+        <v>8.1171668560235818E-4</v>
       </c>
       <c r="C474">
-        <v>5.6374714439389023E-5</v>
+        <v>5.6374365009043769E-5</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.3">
@@ -11315,10 +11315,10 @@
         <v>476</v>
       </c>
       <c r="B475">
-        <v>3.2907096249878689E-3</v>
+        <v>3.2907096550431909E-3</v>
       </c>
       <c r="C475">
-        <v>1.57702347475189E-3</v>
+        <v>1.5770241835551921E-3</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.3">
@@ -11348,10 +11348,10 @@
         <v>479</v>
       </c>
       <c r="B478">
-        <v>3.3618958261680921E-4</v>
+        <v>3.361894695881748E-4</v>
       </c>
       <c r="C478">
-        <v>2.9895996201704069E-4</v>
+        <v>2.9895978343121357E-4</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.3">
@@ -11370,10 +11370,10 @@
         <v>481</v>
       </c>
       <c r="B480">
-        <v>1.2465878236379839E-3</v>
+        <v>1.2465887368457149E-3</v>
       </c>
       <c r="C480">
-        <v>8.8201023845686289E-4</v>
+        <v>8.8201094374083669E-4</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.3">
@@ -11403,10 +11403,10 @@
         <v>484</v>
       </c>
       <c r="B483">
-        <v>7.0330515568077924E-4</v>
+        <v>7.033070007957759E-4</v>
       </c>
       <c r="C483">
-        <v>6.3705824810086646E-5</v>
+        <v>6.3705529227307052E-5</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.3">
@@ -11414,10 +11414,10 @@
         <v>485</v>
       </c>
       <c r="B484">
-        <v>-3.0476852459188411E-5</v>
+        <v>1.205585277694802E-3</v>
       </c>
       <c r="C484">
-        <v>1.109818630157021E-3</v>
+        <v>2.2646889781734479E-4</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.3">
@@ -11425,10 +11425,10 @@
         <v>486</v>
       </c>
       <c r="B485">
-        <v>-1.5516524572180251E-3</v>
+        <v>1.014379762255972E-3</v>
       </c>
       <c r="C485">
-        <v>2.5577325478040348E-3</v>
+        <v>1.8188307515360749E-4</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.3">
@@ -11436,10 +11436,10 @@
         <v>487</v>
       </c>
       <c r="B486">
-        <v>1.148312407380703E-3</v>
+        <v>9.5107079738791539E-4</v>
       </c>
       <c r="C486">
-        <v>1.146249749695916E-4</v>
+        <v>8.0462279711885525E-4</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.3">
@@ -11447,10 +11447,10 @@
         <v>488</v>
       </c>
       <c r="B487">
-        <v>-1.178470863252095E-4</v>
+        <v>5.2050438849355739E-4</v>
       </c>
       <c r="C487">
-        <v>1.7022988117480889E-4</v>
+        <v>2.191265847899022E-4</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.3">
@@ -11458,10 +11458,10 @@
         <v>489</v>
       </c>
       <c r="B488">
-        <v>7.7996376777328066E-4</v>
+        <v>5.1320968173175431E-4</v>
       </c>
       <c r="C488">
-        <v>2.4497963813350712E-4</v>
+        <v>5.8818354772153812E-5</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.3">
@@ -11469,10 +11469,10 @@
         <v>490</v>
       </c>
       <c r="B489">
-        <v>5.607026039904894E-4</v>
+        <v>1.228891695732708E-3</v>
       </c>
       <c r="C489">
-        <v>4.9166320496696499E-4</v>
+        <v>2.7987947781783111E-4</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.3">
@@ -11480,10 +11480,10 @@
         <v>491</v>
       </c>
       <c r="B490">
-        <v>2.170768763380169E-3</v>
+        <v>7.3568448693524474E-4</v>
       </c>
       <c r="C490">
-        <v>1.177836913666977E-3</v>
+        <v>3.3926421085559268E-4</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.3">
@@ -11491,10 +11491,10 @@
         <v>492</v>
       </c>
       <c r="B491">
-        <v>5.76827470869079E-4</v>
+        <v>1.5455885059259471E-3</v>
       </c>
       <c r="C491">
-        <v>3.4250371070926569E-3</v>
+        <v>1.3288782168312579E-3</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.3">
@@ -11502,10 +11502,10 @@
         <v>493</v>
       </c>
       <c r="B492">
-        <v>2.5605772163485091E-3</v>
+        <v>1.4210157129033181E-3</v>
       </c>
       <c r="C492">
-        <v>7.5462257056397024E-4</v>
+        <v>7.7013441650562011E-3</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.3">
@@ -11513,10 +11513,10 @@
         <v>494</v>
       </c>
       <c r="B493">
-        <v>-3.1273096253071129E-3</v>
+        <v>-8.3264945512450325E-5</v>
       </c>
       <c r="C493">
-        <v>5.3284853833036779E-3</v>
+        <v>3.2860848940051678E-4</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.3">
@@ -11524,10 +11524,10 @@
         <v>495</v>
       </c>
       <c r="B494">
-        <v>1.567985829831333E-3</v>
+        <v>-5.0217159752700199E-4</v>
       </c>
       <c r="C494">
-        <v>8.7548301110049556E-4</v>
+        <v>1.146320122422155E-3</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.3">
@@ -11535,10 +11535,10 @@
         <v>496</v>
       </c>
       <c r="B495">
-        <v>3.3868207253075731E-4</v>
+        <v>1.8001142444516759E-3</v>
       </c>
       <c r="C495">
-        <v>1.238642826216877E-4</v>
+        <v>2.7662557420719808E-4</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.3">
@@ -11590,10 +11590,10 @@
         <v>501</v>
       </c>
       <c r="B500">
-        <v>4.5355676729849311E-4</v>
+        <v>4.5355631540570078E-4</v>
       </c>
       <c r="C500">
-        <v>1.405195603185703E-4</v>
+        <v>1.4051938691404179E-4</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.3">
@@ -11601,10 +11601,10 @@
         <v>502</v>
       </c>
       <c r="B501">
-        <v>4.8979660470894863E-4</v>
+        <v>4.1139031089983201E-4</v>
       </c>
       <c r="C501">
-        <v>2.4549940757225751E-4</v>
+        <v>2.4181457662770839E-4</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.3">
@@ -11634,10 +11634,10 @@
         <v>505</v>
       </c>
       <c r="B504">
-        <v>2.3422680997365248E-3</v>
+        <v>2.3422672461762941E-3</v>
       </c>
       <c r="C504">
-        <v>2.8062371627867258E-4</v>
+        <v>2.8062426346610932E-4</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.3">
@@ -11645,10 +11645,10 @@
         <v>506</v>
       </c>
       <c r="B505">
-        <v>2.2093019945028341E-3</v>
+        <v>2.209303192593368E-3</v>
       </c>
       <c r="C505">
-        <v>5.8218679186962873E-4</v>
+        <v>5.8218651881239859E-4</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.3">
@@ -11678,10 +11678,10 @@
         <v>509</v>
       </c>
       <c r="B508">
-        <v>3.4510430914380772E-4</v>
+        <v>3.4510433874679298E-4</v>
       </c>
       <c r="C508">
-        <v>1.4904236906403311E-4</v>
+        <v>1.4904252547174709E-4</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.3">
@@ -11700,10 +11700,10 @@
         <v>511</v>
       </c>
       <c r="B510">
-        <v>1.756903004332203E-3</v>
+        <v>1.7569039809330639E-3</v>
       </c>
       <c r="C510">
-        <v>2.2244746530461129E-4</v>
+        <v>2.22447050276032E-4</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.3">
@@ -11788,10 +11788,10 @@
         <v>519</v>
       </c>
       <c r="B518">
-        <v>1.6670944125427381E-3</v>
+        <v>2.529299541642019E-3</v>
       </c>
       <c r="C518">
-        <v>1.0685049696041479E-3</v>
+        <v>8.7839290485832886E-4</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.3">
@@ -11832,10 +11832,10 @@
         <v>523</v>
       </c>
       <c r="B522">
-        <v>1.1031389426423371E-3</v>
+        <v>1.1031385745887479E-3</v>
       </c>
       <c r="C522">
-        <v>3.5404441230908718E-4</v>
+        <v>3.5404427699370399E-4</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.3">
@@ -11843,10 +11843,10 @@
         <v>524</v>
       </c>
       <c r="B523">
-        <v>8.3343760146093501E-4</v>
+        <v>8.3343681749751012E-4</v>
       </c>
       <c r="C523">
-        <v>2.3489836090232529E-4</v>
+        <v>2.3489833480252439E-4</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.3">
@@ -11854,10 +11854,10 @@
         <v>525</v>
       </c>
       <c r="B524">
-        <v>-1.5925552768236921E-3</v>
+        <v>-1.769243198085701E-3</v>
       </c>
       <c r="C524">
-        <v>6.351302406604934E-4</v>
+        <v>6.1753968283133755E-4</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.3">
@@ -11876,10 +11876,10 @@
         <v>527</v>
       </c>
       <c r="B526">
-        <v>-1.6700291240570569E-3</v>
+        <v>-1.6700287469881439E-3</v>
       </c>
       <c r="C526">
-        <v>9.91610389334034E-3</v>
+        <v>9.9161075815122381E-3</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.3">
@@ -11920,10 +11920,10 @@
         <v>531</v>
       </c>
       <c r="B530">
-        <v>9.8620842219319742E-4</v>
+        <v>9.8620727995454805E-4</v>
       </c>
       <c r="C530">
-        <v>4.220834546047614E-4</v>
+        <v>4.2208392795449489E-4</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.3">
@@ -11931,10 +11931,10 @@
         <v>532</v>
       </c>
       <c r="B531">
-        <v>2.1829236079060222E-3</v>
+        <v>2.182921854217841E-3</v>
       </c>
       <c r="C531">
-        <v>5.0652576316261185E-4</v>
+        <v>5.0652626237451738E-4</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.3">
@@ -12591,10 +12591,10 @@
         <v>592</v>
       </c>
       <c r="B591">
-        <v>1.507678708065067E-3</v>
+        <v>2.0581457314601888E-3</v>
       </c>
       <c r="C591">
-        <v>2.8491261730056961E-4</v>
+        <v>2.26143937224926E-4</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.3">
@@ -12602,10 +12602,10 @@
         <v>593</v>
       </c>
       <c r="B592">
-        <v>1.596859672785016E-3</v>
+        <v>1.8430255537783091E-3</v>
       </c>
       <c r="C592">
-        <v>2.9978423724538462E-4</v>
+        <v>3.4252544347545638E-4</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.3">
@@ -12613,10 +12613,10 @@
         <v>594</v>
       </c>
       <c r="B593">
-        <v>1.1340866936904511E-3</v>
+        <v>1.5377457429893359E-3</v>
       </c>
       <c r="C593">
-        <v>4.4623697805778171E-4</v>
+        <v>1.891838773554091E-4</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.3">
@@ -12624,10 +12624,10 @@
         <v>595</v>
       </c>
       <c r="B594">
-        <v>-1.411696332315731E-3</v>
+        <v>1.562579187508766E-4</v>
       </c>
       <c r="C594">
-        <v>1.512502698419843E-3</v>
+        <v>5.0226722788486412E-4</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.3">
@@ -12635,10 +12635,10 @@
         <v>596</v>
       </c>
       <c r="B595">
-        <v>1.0621604788894729E-3</v>
+        <v>1.6388729947855061E-4</v>
       </c>
       <c r="C595">
-        <v>1.846495327880547E-4</v>
+        <v>1.8063864582976139E-4</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.3">
@@ -12646,10 +12646,10 @@
         <v>597</v>
       </c>
       <c r="B596">
-        <v>-3.6880440482517749E-5</v>
+        <v>1.7820044160921889E-3</v>
       </c>
       <c r="C596">
-        <v>8.037739192729748E-5</v>
+        <v>2.1411806720727849E-4</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.3">
@@ -12657,10 +12657,10 @@
         <v>598</v>
       </c>
       <c r="B597">
-        <v>2.160654427307031E-3</v>
+        <v>1.340856754254492E-4</v>
       </c>
       <c r="C597">
-        <v>1.0125911853829479E-3</v>
+        <v>1.190777423413534E-4</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.3">
@@ -12668,10 +12668,10 @@
         <v>599</v>
       </c>
       <c r="B598">
-        <v>1.7505152776779099E-4</v>
+        <v>1.389493638769188E-3</v>
       </c>
       <c r="C598">
-        <v>1.4004613855373159E-4</v>
+        <v>3.8237431790331852E-4</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.3">
@@ -12679,10 +12679,10 @@
         <v>600</v>
       </c>
       <c r="B599">
-        <v>1.0313210309944819E-3</v>
+        <v>7.817993690781912E-4</v>
       </c>
       <c r="C599">
-        <v>6.4647206458379517E-4</v>
+        <v>4.4843138594754162E-4</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.3">
@@ -12690,10 +12690,10 @@
         <v>601</v>
       </c>
       <c r="B600">
-        <v>1.6281636242636171E-3</v>
+        <v>8.6495335029392062E-4</v>
       </c>
       <c r="C600">
-        <v>3.2729857717219969E-4</v>
+        <v>6.246530325239413E-4</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.3">
@@ -12701,10 +12701,10 @@
         <v>602</v>
       </c>
       <c r="B601">
-        <v>1.416212856726331E-3</v>
+        <v>-6.5402490830866289E-4</v>
       </c>
       <c r="C601">
-        <v>3.8978861985060939E-4</v>
+        <v>3.9328499779671991E-4</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.3">
@@ -12712,10 +12712,10 @@
         <v>603</v>
       </c>
       <c r="B602">
-        <v>-3.0078270737638182E-3</v>
+        <v>1.025087973619101E-3</v>
       </c>
       <c r="C602">
-        <v>2.032478013626068E-3</v>
+        <v>2.5926020239218058E-4</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.3">
@@ -12723,10 +12723,10 @@
         <v>604</v>
       </c>
       <c r="B603">
-        <v>1.650929161169087E-3</v>
+        <v>1.54138950277706E-3</v>
       </c>
       <c r="C603">
-        <v>6.1551328838525571E-4</v>
+        <v>7.7556468525937297E-4</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.3">
@@ -12734,10 +12734,10 @@
         <v>605</v>
       </c>
       <c r="B604">
-        <v>1.3572955814968939E-3</v>
+        <v>1.456579675292157E-3</v>
       </c>
       <c r="C604">
-        <v>2.7957457470639791E-4</v>
+        <v>6.4205501743506261E-4</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.3">
@@ -12745,10 +12745,10 @@
         <v>606</v>
       </c>
       <c r="B605">
-        <v>1.1772091170473131E-3</v>
+        <v>5.5462959229344513E-5</v>
       </c>
       <c r="C605">
-        <v>2.378777696811223E-4</v>
+        <v>5.8061860585925288E-6</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.3">
@@ -12756,10 +12756,10 @@
         <v>607</v>
       </c>
       <c r="B606">
-        <v>1.9919322873307422E-3</v>
+        <v>5.7012286346224132E-4</v>
       </c>
       <c r="C606">
-        <v>3.25933719882883E-4</v>
+        <v>1.05288119489312E-4</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.3">
@@ -12767,10 +12767,10 @@
         <v>608</v>
       </c>
       <c r="B607">
-        <v>9.6006378914186442E-4</v>
+        <v>7.3916815973424602E-4</v>
       </c>
       <c r="C607">
-        <v>1.408801802214193E-4</v>
+        <v>1.114109879564759E-4</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.3">
@@ -12778,10 +12778,10 @@
         <v>609</v>
       </c>
       <c r="B608">
-        <v>2.247799558945514E-3</v>
+        <v>-2.379014103442309E-3</v>
       </c>
       <c r="C608">
-        <v>2.6579804718844811E-4</v>
+        <v>2.540377868403821E-3</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.3">
@@ -12789,10 +12789,10 @@
         <v>610</v>
       </c>
       <c r="B609">
-        <v>9.2507330971428568E-4</v>
+        <v>1.0570319024364679E-3</v>
       </c>
       <c r="C609">
-        <v>1.218190165602055E-4</v>
+        <v>8.2764375674509072E-4</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.3">
@@ -12800,10 +12800,10 @@
         <v>611</v>
       </c>
       <c r="B610">
-        <v>4.3041128519553251E-4</v>
+        <v>1.7813962672323851E-3</v>
       </c>
       <c r="C610">
-        <v>8.7974013388695624E-5</v>
+        <v>4.3700587309514481E-4</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.3">
@@ -12811,10 +12811,10 @@
         <v>612</v>
       </c>
       <c r="B611">
-        <v>5.2635439739854315E-4</v>
+        <v>8.9204576257460541E-5</v>
       </c>
       <c r="C611">
-        <v>9.220008112996495E-4</v>
+        <v>1.2258784292866579E-4</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.3">
@@ -12822,10 +12822,10 @@
         <v>613</v>
       </c>
       <c r="B612">
-        <v>-5.3597970635740444E-4</v>
+        <v>9.4797859086956772E-4</v>
       </c>
       <c r="C612">
-        <v>1.429942034885625E-3</v>
+        <v>8.1248776815982652E-5</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.3">
@@ -12833,10 +12833,10 @@
         <v>614</v>
       </c>
       <c r="B613">
-        <v>1.74447265953798E-3</v>
+        <v>1.7776052436091179E-3</v>
       </c>
       <c r="C613">
-        <v>2.3939820658474301E-4</v>
+        <v>2.2296906342323449E-4</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.3">
@@ -12844,10 +12844,10 @@
         <v>615</v>
       </c>
       <c r="B614">
-        <v>-1.124129068639494E-3</v>
+        <v>7.7296925049911318E-4</v>
       </c>
       <c r="C614">
-        <v>1.5055375257923031E-3</v>
+        <v>1.075232887890366E-3</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.3">
@@ -12855,10 +12855,10 @@
         <v>616</v>
       </c>
       <c r="B615">
-        <v>2.134496093835145E-3</v>
+        <v>9.4801978885042176E-4</v>
       </c>
       <c r="C615">
-        <v>4.02975269770118E-4</v>
+        <v>1.4494535535824359E-4</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.3">
@@ -12866,10 +12866,10 @@
         <v>617</v>
       </c>
       <c r="B616">
-        <v>-3.7972177432157031E-4</v>
+        <v>1.443678249052996E-3</v>
       </c>
       <c r="C616">
-        <v>3.003866391516201E-3</v>
+        <v>1.814912188290851E-4</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.3">
@@ -12877,10 +12877,10 @@
         <v>618</v>
       </c>
       <c r="B617">
-        <v>-6.5982593024016848E-5</v>
+        <v>2.4695335129941318E-4</v>
       </c>
       <c r="C617">
-        <v>1.034962177518145E-4</v>
+        <v>2.3976203018196019E-3</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.3">
@@ -12888,10 +12888,10 @@
         <v>619</v>
       </c>
       <c r="B618">
-        <v>2.2106993953537111E-3</v>
+        <v>7.7351113864099327E-4</v>
       </c>
       <c r="C618">
-        <v>4.8663133465611397E-4</v>
+        <v>2.9208231820016542E-4</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.3">
@@ -12899,10 +12899,10 @@
         <v>620</v>
       </c>
       <c r="B619">
-        <v>5.9622143748775855E-4</v>
+        <v>8.8394693233546158E-4</v>
       </c>
       <c r="C619">
-        <v>4.5357683611082871E-4</v>
+        <v>1.1451219304067249E-4</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.3">
@@ -12910,10 +12910,10 @@
         <v>621</v>
       </c>
       <c r="B620">
-        <v>1.236388129520702E-3</v>
+        <v>1.2619146766800621E-3</v>
       </c>
       <c r="C620">
-        <v>1.087558227842994E-4</v>
+        <v>4.641130833899681E-4</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.3">
@@ -12921,10 +12921,10 @@
         <v>622</v>
       </c>
       <c r="B621">
-        <v>-2.9161765596399931E-3</v>
+        <v>-1.7849590309484381E-3</v>
       </c>
       <c r="C621">
-        <v>8.6919835036156816E-4</v>
+        <v>1.168920104270864E-3</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.3">
@@ -12932,10 +12932,10 @@
         <v>623</v>
       </c>
       <c r="B622">
-        <v>2.1654233967477449E-4</v>
+        <v>8.2910611390699161E-4</v>
       </c>
       <c r="C622">
-        <v>1.213059758212827E-4</v>
+        <v>1.02463671456811E-2</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.3">
@@ -12943,10 +12943,10 @@
         <v>624</v>
       </c>
       <c r="B623">
-        <v>5.2595706490233922E-4</v>
+        <v>-1.452342082719582E-5</v>
       </c>
       <c r="C623">
-        <v>2.6410859323950948E-4</v>
+        <v>4.7217991212302021E-4</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.3">
@@ -12954,10 +12954,10 @@
         <v>625</v>
       </c>
       <c r="B624">
-        <v>1.720061269974891E-4</v>
+        <v>2.8029418473644771E-4</v>
       </c>
       <c r="C624">
-        <v>6.8628727947953321E-5</v>
+        <v>2.0183113836725511E-6</v>
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.3">
@@ -12965,10 +12965,10 @@
         <v>626</v>
       </c>
       <c r="B625">
-        <v>3.8669517436834392E-4</v>
+        <v>1.123770447401271E-3</v>
       </c>
       <c r="C625">
-        <v>5.5196087906126129E-5</v>
+        <v>1.3660539135851191E-4</v>
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.3">
@@ -12976,10 +12976,10 @@
         <v>627</v>
       </c>
       <c r="B626">
-        <v>4.9563982091991199E-4</v>
+        <v>6.0778330055852585E-4</v>
       </c>
       <c r="C626">
-        <v>9.1584186975857265E-5</v>
+        <v>1.081247326571978E-3</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.3">
@@ -12987,10 +12987,10 @@
         <v>628</v>
       </c>
       <c r="B627">
-        <v>6.2959474101320111E-5</v>
+        <v>1.13991458397758E-3</v>
       </c>
       <c r="C627">
-        <v>4.9986884000908362E-5</v>
+        <v>1.666725773255088E-4</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.3">
@@ -12998,10 +12998,10 @@
         <v>629</v>
       </c>
       <c r="B628">
-        <v>4.8370587986250432E-4</v>
+        <v>9.5080622336712666E-4</v>
       </c>
       <c r="C628">
-        <v>8.3541198335911082E-5</v>
+        <v>1.2586232908924519E-4</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.3">
@@ -13009,10 +13009,10 @@
         <v>630</v>
       </c>
       <c r="B629">
-        <v>-1.846226898195234E-3</v>
+        <v>1.690813597544279E-3</v>
       </c>
       <c r="C629">
-        <v>1.9913726044113581E-3</v>
+        <v>6.0426568083870322E-4</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.3">
@@ -13020,10 +13020,10 @@
         <v>631</v>
       </c>
       <c r="B630">
-        <v>3.0790118448006221E-4</v>
+        <v>8.7411953147121992E-4</v>
       </c>
       <c r="C630">
-        <v>1.251282105919207E-4</v>
+        <v>4.583993711731151E-4</v>
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.3">
@@ -13031,10 +13031,10 @@
         <v>632</v>
       </c>
       <c r="B631">
-        <v>8.5764694351742456E-4</v>
+        <v>7.3938359697167601E-4</v>
       </c>
       <c r="C631">
-        <v>3.2791041944577292E-4</v>
+        <v>2.3710161811211949E-4</v>
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.3">
@@ -13042,10 +13042,10 @@
         <v>633</v>
       </c>
       <c r="B632">
-        <v>4.6873413197719648E-5</v>
+        <v>-1.0197421843427309E-4</v>
       </c>
       <c r="C632">
-        <v>1.8659804064103671E-7</v>
+        <v>1.514637877841282E-3</v>
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.3">
@@ -13053,10 +13053,10 @@
         <v>634</v>
       </c>
       <c r="B633">
-        <v>1.679228004194469E-3</v>
+        <v>4.4280494304570843E-5</v>
       </c>
       <c r="C633">
-        <v>2.4488189506240599E-4</v>
+        <v>3.3446862922411361E-4</v>
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.3">
@@ -13064,10 +13064,10 @@
         <v>635</v>
       </c>
       <c r="B634">
-        <v>1.2997707507843279E-3</v>
+        <v>1.9711180463392549E-3</v>
       </c>
       <c r="C634">
-        <v>3.5570204655674279E-4</v>
+        <v>5.5022761313933057E-4</v>
       </c>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.3">
@@ -13075,10 +13075,10 @@
         <v>636</v>
       </c>
       <c r="B635">
-        <v>9.4025993838668556E-4</v>
+        <v>2.1679993823279968E-3</v>
       </c>
       <c r="C635">
-        <v>3.3410374281903549E-4</v>
+        <v>3.3170755324888441E-4</v>
       </c>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.3">
@@ -13086,10 +13086,10 @@
         <v>637</v>
       </c>
       <c r="B636">
-        <v>6.5863824528414759E-5</v>
+        <v>9.9794471718894079E-4</v>
       </c>
       <c r="C636">
-        <v>9.2337786212658298E-5</v>
+        <v>6.2841858539275537E-4</v>
       </c>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.3">
@@ -13097,10 +13097,10 @@
         <v>638</v>
       </c>
       <c r="B637">
-        <v>7.8370646680921911E-4</v>
+        <v>3.1461874715465121E-4</v>
       </c>
       <c r="C637">
-        <v>2.6505935652233308E-4</v>
+        <v>1.089091998926472E-4</v>
       </c>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.3">
@@ -13108,10 +13108,10 @@
         <v>639</v>
       </c>
       <c r="B638">
-        <v>6.3655193716489155E-4</v>
+        <v>1.6810799030929981E-4</v>
       </c>
       <c r="C638">
-        <v>8.653227407290886E-4</v>
+        <v>1.159626935009194E-4</v>
       </c>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.3">
@@ -13119,10 +13119,10 @@
         <v>640</v>
       </c>
       <c r="B639">
-        <v>4.5167055678577931E-4</v>
+        <v>2.3554227366716669E-4</v>
       </c>
       <c r="C639">
-        <v>2.9263061164265411E-4</v>
+        <v>5.1997779206268521E-4</v>
       </c>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.3">
@@ -13130,10 +13130,10 @@
         <v>641</v>
       </c>
       <c r="B640">
-        <v>1.532273290763586E-3</v>
+        <v>6.8488034840540708E-4</v>
       </c>
       <c r="C640">
-        <v>7.1805639629991057E-5</v>
+        <v>2.0128211092345231E-4</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.3">
@@ -13141,10 +13141,10 @@
         <v>642</v>
       </c>
       <c r="B641">
-        <v>6.4371918845987624E-4</v>
+        <v>6.3556510882454209E-4</v>
       </c>
       <c r="C641">
-        <v>1.220113317189495E-4</v>
+        <v>1.8510058348273329E-4</v>
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.3">
@@ -13152,10 +13152,10 @@
         <v>643</v>
       </c>
       <c r="B642">
-        <v>9.2241592905174504E-4</v>
+        <v>3.1744418784061058E-4</v>
       </c>
       <c r="C642">
-        <v>1.39609542264371E-4</v>
+        <v>1.7655412125292579E-4</v>
       </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.3">
@@ -13163,10 +13163,10 @@
         <v>644</v>
       </c>
       <c r="B643">
-        <v>9.5080622336712666E-4</v>
+        <v>1.507678708065067E-3</v>
       </c>
       <c r="C643">
-        <v>1.2586232908924519E-4</v>
+        <v>2.8491261730056961E-4</v>
       </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.3">
@@ -13174,10 +13174,10 @@
         <v>645</v>
       </c>
       <c r="B644">
-        <v>1.690813597544279E-3</v>
+        <v>1.596859672785016E-3</v>
       </c>
       <c r="C644">
-        <v>6.0426568083870322E-4</v>
+        <v>2.9978423724538462E-4</v>
       </c>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.3">
@@ -13185,10 +13185,10 @@
         <v>646</v>
       </c>
       <c r="B645">
-        <v>8.7411953147121992E-4</v>
+        <v>1.1340866936904511E-3</v>
       </c>
       <c r="C645">
-        <v>4.583993711731151E-4</v>
+        <v>4.4623697805778171E-4</v>
       </c>
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.3">
@@ -13196,10 +13196,10 @@
         <v>647</v>
       </c>
       <c r="B646">
-        <v>7.3938359697167601E-4</v>
+        <v>-1.411696332315731E-3</v>
       </c>
       <c r="C646">
-        <v>2.3710161811211949E-4</v>
+        <v>1.512502698419843E-3</v>
       </c>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.3">
@@ -13207,10 +13207,10 @@
         <v>648</v>
       </c>
       <c r="B647">
-        <v>-1.0197421843427309E-4</v>
+        <v>1.0621604788894729E-3</v>
       </c>
       <c r="C647">
-        <v>1.514637877841282E-3</v>
+        <v>1.846495327880547E-4</v>
       </c>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.3">
@@ -13218,10 +13218,10 @@
         <v>649</v>
       </c>
       <c r="B648">
-        <v>4.4280494304570843E-5</v>
+        <v>-3.6880440482517749E-5</v>
       </c>
       <c r="C648">
-        <v>3.3446862922411361E-4</v>
+        <v>8.037739192729748E-5</v>
       </c>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.3">
@@ -13229,10 +13229,10 @@
         <v>650</v>
       </c>
       <c r="B649">
-        <v>1.9711180463392549E-3</v>
+        <v>2.160654427307031E-3</v>
       </c>
       <c r="C649">
-        <v>5.5022761313933057E-4</v>
+        <v>1.0125911853829479E-3</v>
       </c>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.3">
@@ -13240,10 +13240,10 @@
         <v>651</v>
       </c>
       <c r="B650">
-        <v>2.1679993823279968E-3</v>
+        <v>1.7505152776779099E-4</v>
       </c>
       <c r="C650">
-        <v>3.3170755324888441E-4</v>
+        <v>1.4004613855373159E-4</v>
       </c>
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.3">
@@ -13251,10 +13251,10 @@
         <v>652</v>
       </c>
       <c r="B651">
-        <v>9.9794471718894079E-4</v>
+        <v>1.0313210309944819E-3</v>
       </c>
       <c r="C651">
-        <v>6.2841858539275537E-4</v>
+        <v>6.4647206458379517E-4</v>
       </c>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.3">
@@ -13262,10 +13262,10 @@
         <v>653</v>
       </c>
       <c r="B652">
-        <v>3.1461874715465121E-4</v>
+        <v>1.6281636242636171E-3</v>
       </c>
       <c r="C652">
-        <v>1.089091998926472E-4</v>
+        <v>3.2729857717219969E-4</v>
       </c>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.3">
@@ -13273,10 +13273,10 @@
         <v>654</v>
       </c>
       <c r="B653">
-        <v>1.6810799030929981E-4</v>
+        <v>1.416212856726331E-3</v>
       </c>
       <c r="C653">
-        <v>1.159626935009194E-4</v>
+        <v>3.8978861985060939E-4</v>
       </c>
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.3">
@@ -13284,10 +13284,10 @@
         <v>655</v>
       </c>
       <c r="B654">
-        <v>2.3554227366716669E-4</v>
+        <v>-3.0078270737638182E-3</v>
       </c>
       <c r="C654">
-        <v>5.1997779206268521E-4</v>
+        <v>2.032478013626068E-3</v>
       </c>
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.3">
@@ -13295,10 +13295,10 @@
         <v>656</v>
       </c>
       <c r="B655">
-        <v>6.8488034840540708E-4</v>
+        <v>1.650929161169087E-3</v>
       </c>
       <c r="C655">
-        <v>2.0128211092345231E-4</v>
+        <v>6.1551328838525571E-4</v>
       </c>
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.3">
@@ -13306,10 +13306,10 @@
         <v>657</v>
       </c>
       <c r="B656">
-        <v>6.3556510882454209E-4</v>
+        <v>1.3572955814968939E-3</v>
       </c>
       <c r="C656">
-        <v>1.8510058348273329E-4</v>
+        <v>2.7957457470639791E-4</v>
       </c>
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.3">
@@ -13317,10 +13317,10 @@
         <v>658</v>
       </c>
       <c r="B657">
-        <v>3.1744418784061058E-4</v>
+        <v>1.1772091170473131E-3</v>
       </c>
       <c r="C657">
-        <v>1.7655412125292579E-4</v>
+        <v>2.378777696811223E-4</v>
       </c>
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.3">
@@ -13328,10 +13328,10 @@
         <v>659</v>
       </c>
       <c r="B658">
-        <v>2.0581457314601888E-3</v>
+        <v>1.9919322873307422E-3</v>
       </c>
       <c r="C658">
-        <v>2.26143937224926E-4</v>
+        <v>3.25933719882883E-4</v>
       </c>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.3">
@@ -13339,10 +13339,10 @@
         <v>660</v>
       </c>
       <c r="B659">
-        <v>1.8430255537783091E-3</v>
+        <v>9.6006378914186442E-4</v>
       </c>
       <c r="C659">
-        <v>3.4252544347545638E-4</v>
+        <v>1.408801802214193E-4</v>
       </c>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.3">
@@ -13350,10 +13350,10 @@
         <v>661</v>
       </c>
       <c r="B660">
-        <v>1.5377457429893359E-3</v>
+        <v>2.247799558945514E-3</v>
       </c>
       <c r="C660">
-        <v>1.891838773554091E-4</v>
+        <v>2.6579804718844811E-4</v>
       </c>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.3">
@@ -13361,10 +13361,10 @@
         <v>662</v>
       </c>
       <c r="B661">
-        <v>1.562579187508766E-4</v>
+        <v>9.2507330971428568E-4</v>
       </c>
       <c r="C661">
-        <v>5.0226722788486412E-4</v>
+        <v>1.218190165602055E-4</v>
       </c>
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.3">
@@ -13372,10 +13372,10 @@
         <v>663</v>
       </c>
       <c r="B662">
-        <v>1.6388729947855061E-4</v>
+        <v>4.3041128519553251E-4</v>
       </c>
       <c r="C662">
-        <v>1.8063864582976139E-4</v>
+        <v>8.7974013388695624E-5</v>
       </c>
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.3">
@@ -13383,10 +13383,10 @@
         <v>664</v>
       </c>
       <c r="B663">
-        <v>1.7820044160921889E-3</v>
+        <v>5.2635439739854315E-4</v>
       </c>
       <c r="C663">
-        <v>2.1411806720727849E-4</v>
+        <v>9.220008112996495E-4</v>
       </c>
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.3">
@@ -13394,10 +13394,10 @@
         <v>665</v>
       </c>
       <c r="B664">
-        <v>1.340856754254492E-4</v>
+        <v>-5.3597970635740444E-4</v>
       </c>
       <c r="C664">
-        <v>1.190777423413534E-4</v>
+        <v>1.429942034885625E-3</v>
       </c>
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.3">
@@ -13405,10 +13405,10 @@
         <v>666</v>
       </c>
       <c r="B665">
-        <v>1.389493638769188E-3</v>
+        <v>1.74447265953798E-3</v>
       </c>
       <c r="C665">
-        <v>3.8237431790331852E-4</v>
+        <v>2.3939820658474301E-4</v>
       </c>
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.3">
@@ -13416,10 +13416,10 @@
         <v>667</v>
       </c>
       <c r="B666">
-        <v>7.817993690781912E-4</v>
+        <v>-1.124129068639494E-3</v>
       </c>
       <c r="C666">
-        <v>4.4843138594754162E-4</v>
+        <v>1.5055375257923031E-3</v>
       </c>
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.3">
@@ -13427,10 +13427,10 @@
         <v>668</v>
       </c>
       <c r="B667">
-        <v>8.6495335029392062E-4</v>
+        <v>2.134496093835145E-3</v>
       </c>
       <c r="C667">
-        <v>6.246530325239413E-4</v>
+        <v>4.02975269770118E-4</v>
       </c>
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.3">
@@ -13438,10 +13438,10 @@
         <v>669</v>
       </c>
       <c r="B668">
-        <v>-6.5402490830866289E-4</v>
+        <v>-3.7972177432157031E-4</v>
       </c>
       <c r="C668">
-        <v>3.9328499779671991E-4</v>
+        <v>3.003866391516201E-3</v>
       </c>
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.3">
@@ -13449,10 +13449,10 @@
         <v>670</v>
       </c>
       <c r="B669">
-        <v>1.025087973619101E-3</v>
+        <v>-6.5982593024016848E-5</v>
       </c>
       <c r="C669">
-        <v>2.5926020239218058E-4</v>
+        <v>1.034962177518145E-4</v>
       </c>
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.3">
@@ -13460,10 +13460,10 @@
         <v>671</v>
       </c>
       <c r="B670">
-        <v>1.54138950277706E-3</v>
+        <v>2.2106993953537111E-3</v>
       </c>
       <c r="C670">
-        <v>7.7556468525937297E-4</v>
+        <v>4.8663133465611397E-4</v>
       </c>
     </row>
     <row r="671" spans="1:3" x14ac:dyDescent="0.3">
@@ -13471,10 +13471,10 @@
         <v>672</v>
       </c>
       <c r="B671">
-        <v>1.456579675292157E-3</v>
+        <v>5.9622143748775855E-4</v>
       </c>
       <c r="C671">
-        <v>6.4205501743506261E-4</v>
+        <v>4.5357683611082871E-4</v>
       </c>
     </row>
     <row r="672" spans="1:3" x14ac:dyDescent="0.3">
@@ -13482,10 +13482,10 @@
         <v>673</v>
       </c>
       <c r="B672">
-        <v>5.5462959229344513E-5</v>
+        <v>1.236388129520702E-3</v>
       </c>
       <c r="C672">
-        <v>5.8061860585925288E-6</v>
+        <v>1.087558227842994E-4</v>
       </c>
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.3">
@@ -13493,10 +13493,10 @@
         <v>674</v>
       </c>
       <c r="B673">
-        <v>5.7012286346224132E-4</v>
+        <v>-2.9161765596399931E-3</v>
       </c>
       <c r="C673">
-        <v>1.05288119489312E-4</v>
+        <v>8.6919835036156816E-4</v>
       </c>
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.3">
@@ -13504,10 +13504,10 @@
         <v>675</v>
       </c>
       <c r="B674">
-        <v>7.3916815973424602E-4</v>
+        <v>2.1654233967477449E-4</v>
       </c>
       <c r="C674">
-        <v>1.114109879564759E-4</v>
+        <v>1.213059758212827E-4</v>
       </c>
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.3">
@@ -13515,10 +13515,10 @@
         <v>676</v>
       </c>
       <c r="B675">
-        <v>-2.379014103442309E-3</v>
+        <v>5.2595706490233922E-4</v>
       </c>
       <c r="C675">
-        <v>2.540377868403821E-3</v>
+        <v>2.6410859323950948E-4</v>
       </c>
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.3">
@@ -13526,10 +13526,10 @@
         <v>677</v>
       </c>
       <c r="B676">
-        <v>1.0570319024364679E-3</v>
+        <v>1.720061269974891E-4</v>
       </c>
       <c r="C676">
-        <v>8.2764375674509072E-4</v>
+        <v>6.8628727947953321E-5</v>
       </c>
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.3">
@@ -13537,10 +13537,10 @@
         <v>678</v>
       </c>
       <c r="B677">
-        <v>1.7813962672323851E-3</v>
+        <v>3.8669517436834392E-4</v>
       </c>
       <c r="C677">
-        <v>4.3700587309514481E-4</v>
+        <v>5.5196087906126129E-5</v>
       </c>
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.3">
@@ -13548,10 +13548,10 @@
         <v>679</v>
       </c>
       <c r="B678">
-        <v>8.9204576257460541E-5</v>
+        <v>4.9563982091991199E-4</v>
       </c>
       <c r="C678">
-        <v>1.2258784292866579E-4</v>
+        <v>9.1584186975857265E-5</v>
       </c>
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.3">
@@ -13559,10 +13559,10 @@
         <v>680</v>
       </c>
       <c r="B679">
-        <v>9.4797859086956772E-4</v>
+        <v>6.2959474101320111E-5</v>
       </c>
       <c r="C679">
-        <v>8.1248776815982652E-5</v>
+        <v>4.9986884000908362E-5</v>
       </c>
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.3">
@@ -13570,10 +13570,10 @@
         <v>681</v>
       </c>
       <c r="B680">
-        <v>1.7776052436091179E-3</v>
+        <v>4.8370587986250432E-4</v>
       </c>
       <c r="C680">
-        <v>2.2296906342323449E-4</v>
+        <v>8.3541198335911082E-5</v>
       </c>
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.3">
@@ -13581,10 +13581,10 @@
         <v>682</v>
       </c>
       <c r="B681">
-        <v>7.7296925049911318E-4</v>
+        <v>-1.846226898195234E-3</v>
       </c>
       <c r="C681">
-        <v>1.075232887890366E-3</v>
+        <v>1.9913726044113581E-3</v>
       </c>
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.3">
@@ -13592,10 +13592,10 @@
         <v>683</v>
       </c>
       <c r="B682">
-        <v>9.4801978885042176E-4</v>
+        <v>3.0790118448006221E-4</v>
       </c>
       <c r="C682">
-        <v>1.4494535535824359E-4</v>
+        <v>1.251282105919207E-4</v>
       </c>
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.3">
@@ -13603,10 +13603,10 @@
         <v>684</v>
       </c>
       <c r="B683">
-        <v>1.443678249052996E-3</v>
+        <v>8.5764694351742456E-4</v>
       </c>
       <c r="C683">
-        <v>1.814912188290851E-4</v>
+        <v>3.2791041944577292E-4</v>
       </c>
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.3">
@@ -13614,10 +13614,10 @@
         <v>685</v>
       </c>
       <c r="B684">
-        <v>2.4695335129941318E-4</v>
+        <v>4.6873413197719648E-5</v>
       </c>
       <c r="C684">
-        <v>2.3976203018196019E-3</v>
+        <v>1.8659804064103671E-7</v>
       </c>
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.3">
@@ -13625,10 +13625,10 @@
         <v>686</v>
       </c>
       <c r="B685">
-        <v>7.7351113864099327E-4</v>
+        <v>1.679228004194469E-3</v>
       </c>
       <c r="C685">
-        <v>2.9208231820016542E-4</v>
+        <v>2.4488189506240599E-4</v>
       </c>
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.3">
@@ -13636,10 +13636,10 @@
         <v>687</v>
       </c>
       <c r="B686">
-        <v>8.8394693233546158E-4</v>
+        <v>1.2997707507843279E-3</v>
       </c>
       <c r="C686">
-        <v>1.1451219304067249E-4</v>
+        <v>3.5570204655674279E-4</v>
       </c>
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.3">
@@ -13647,10 +13647,10 @@
         <v>688</v>
       </c>
       <c r="B687">
-        <v>1.2619146766800621E-3</v>
+        <v>9.4025993838668556E-4</v>
       </c>
       <c r="C687">
-        <v>4.641130833899681E-4</v>
+        <v>3.3410374281903549E-4</v>
       </c>
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.3">
@@ -13658,10 +13658,10 @@
         <v>689</v>
       </c>
       <c r="B688">
-        <v>-1.7849590309484381E-3</v>
+        <v>6.5863824528414759E-5</v>
       </c>
       <c r="C688">
-        <v>1.168920104270864E-3</v>
+        <v>9.2337786212658298E-5</v>
       </c>
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.3">
@@ -13669,10 +13669,10 @@
         <v>690</v>
       </c>
       <c r="B689">
-        <v>8.2910611390699161E-4</v>
+        <v>7.8370646680921911E-4</v>
       </c>
       <c r="C689">
-        <v>1.02463671456811E-2</v>
+        <v>2.6505935652233308E-4</v>
       </c>
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.3">
@@ -13680,10 +13680,10 @@
         <v>691</v>
       </c>
       <c r="B690">
-        <v>-1.452342082719582E-5</v>
+        <v>6.3655193716489155E-4</v>
       </c>
       <c r="C690">
-        <v>4.7217991212302021E-4</v>
+        <v>8.653227407290886E-4</v>
       </c>
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.3">
@@ -13691,10 +13691,10 @@
         <v>692</v>
       </c>
       <c r="B691">
-        <v>2.8029418473644771E-4</v>
+        <v>4.5167055678577931E-4</v>
       </c>
       <c r="C691">
-        <v>2.0183113836725511E-6</v>
+        <v>2.9263061164265411E-4</v>
       </c>
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.3">
@@ -13702,10 +13702,10 @@
         <v>693</v>
       </c>
       <c r="B692">
-        <v>1.123770447401271E-3</v>
+        <v>1.532273290763586E-3</v>
       </c>
       <c r="C692">
-        <v>1.3660539135851191E-4</v>
+        <v>7.1805639629991057E-5</v>
       </c>
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.3">
@@ -13713,10 +13713,10 @@
         <v>694</v>
       </c>
       <c r="B693">
-        <v>6.0778330055852585E-4</v>
+        <v>6.4371918845987624E-4</v>
       </c>
       <c r="C693">
-        <v>1.081247326571978E-3</v>
+        <v>1.220113317189495E-4</v>
       </c>
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.3">
@@ -13724,10 +13724,10 @@
         <v>695</v>
       </c>
       <c r="B694">
-        <v>1.13991458397758E-3</v>
+        <v>9.2241592905174504E-4</v>
       </c>
       <c r="C694">
-        <v>1.666725773255088E-4</v>
+        <v>1.39609542264371E-4</v>
       </c>
     </row>
     <row r="695" spans="1:3" x14ac:dyDescent="0.3">
@@ -14010,10 +14010,10 @@
         <v>721</v>
       </c>
       <c r="B720">
-        <v>4.0379488940394873E-4</v>
+        <v>7.962630002663764E-4</v>
       </c>
       <c r="C720">
-        <v>2.2511596141828911E-3</v>
+        <v>1.7922528363082679E-3</v>
       </c>
     </row>
     <row r="721" spans="1:3" x14ac:dyDescent="0.3">
@@ -14021,10 +14021,10 @@
         <v>722</v>
       </c>
       <c r="B721">
-        <v>4.6911190504365079E-3</v>
+        <v>9.6662936096193254E-4</v>
       </c>
       <c r="C721">
-        <v>4.0001209758451766E-3</v>
+        <v>3.219217157206753E-4</v>
       </c>
     </row>
     <row r="722" spans="1:3" x14ac:dyDescent="0.3">
@@ -14032,10 +14032,10 @@
         <v>723</v>
       </c>
       <c r="B722">
-        <v>1.9925510216012802E-3</v>
+        <v>-1.030546938671275E-4</v>
       </c>
       <c r="C722">
-        <v>4.9578804912236963E-4</v>
+        <v>3.9595655466591209E-4</v>
       </c>
     </row>
     <row r="723" spans="1:3" x14ac:dyDescent="0.3">
@@ -14043,10 +14043,10 @@
         <v>724</v>
       </c>
       <c r="B723">
-        <v>2.4702147509035478E-5</v>
+        <v>-2.255732828665665E-4</v>
       </c>
       <c r="C723">
-        <v>1.0740416746551329E-3</v>
+        <v>4.0804865078591214E-3</v>
       </c>
     </row>
     <row r="724" spans="1:3" x14ac:dyDescent="0.3">
@@ -14054,10 +14054,10 @@
         <v>725</v>
       </c>
       <c r="B724">
-        <v>-1.743995060570305E-3</v>
+        <v>-6.1851015047472476E-3</v>
       </c>
       <c r="C724">
-        <v>1.376360495287267E-3</v>
+        <v>4.6024807194252138E-3</v>
       </c>
     </row>
     <row r="725" spans="1:3" x14ac:dyDescent="0.3">
@@ -14065,10 +14065,10 @@
         <v>726</v>
       </c>
       <c r="B725">
-        <v>5.7012297295954697E-4</v>
+        <v>2.060869048205355E-3</v>
       </c>
       <c r="C725">
-        <v>8.3332582446444387E-4</v>
+        <v>2.1835632446755759E-4</v>
       </c>
     </row>
     <row r="726" spans="1:3" x14ac:dyDescent="0.3">
@@ -14076,10 +14076,10 @@
         <v>727</v>
       </c>
       <c r="B726">
-        <v>1.388624649271891E-3</v>
+        <v>6.4466326544220464E-4</v>
       </c>
       <c r="C726">
-        <v>9.1501447624106798E-4</v>
+        <v>1.9218775490092269E-4</v>
       </c>
     </row>
     <row r="727" spans="1:3" x14ac:dyDescent="0.3">
@@ -14087,10 +14087,10 @@
         <v>728</v>
       </c>
       <c r="B727">
-        <v>3.8257462413214939E-4</v>
+        <v>-2.002505338814786E-3</v>
       </c>
       <c r="C727">
-        <v>1.4279108185611419E-4</v>
+        <v>4.5555690324924226E-3</v>
       </c>
     </row>
     <row r="728" spans="1:3" x14ac:dyDescent="0.3">
@@ -14098,10 +14098,10 @@
         <v>729</v>
       </c>
       <c r="B728">
-        <v>2.060869048205355E-3</v>
+        <v>-5.8504132619133199E-5</v>
       </c>
       <c r="C728">
-        <v>2.1835632446755759E-4</v>
+        <v>1.2417184925042021E-3</v>
       </c>
     </row>
     <row r="729" spans="1:3" x14ac:dyDescent="0.3">
@@ -14109,10 +14109,10 @@
         <v>730</v>
       </c>
       <c r="B729">
-        <v>6.4466326544220464E-4</v>
+        <v>6.92803472255517E-4</v>
       </c>
       <c r="C729">
-        <v>1.9218775490092269E-4</v>
+        <v>6.6952442599040526E-5</v>
       </c>
     </row>
     <row r="730" spans="1:3" x14ac:dyDescent="0.3">
@@ -14120,10 +14120,10 @@
         <v>731</v>
       </c>
       <c r="B730">
-        <v>-2.002505338814786E-3</v>
+        <v>1.4414205807769919E-4</v>
       </c>
       <c r="C730">
-        <v>4.5555690324924226E-3</v>
+        <v>5.4930148906861096E-6</v>
       </c>
     </row>
     <row r="731" spans="1:3" x14ac:dyDescent="0.3">
@@ -14131,10 +14131,10 @@
         <v>732</v>
       </c>
       <c r="B731">
-        <v>-5.8504132619133199E-5</v>
+        <v>-4.2583272403229726E-3</v>
       </c>
       <c r="C731">
-        <v>1.2417184925042021E-3</v>
+        <v>1.662903317198083E-3</v>
       </c>
     </row>
     <row r="732" spans="1:3" x14ac:dyDescent="0.3">
@@ -14142,10 +14142,10 @@
         <v>733</v>
       </c>
       <c r="B732">
-        <v>6.92803472255517E-4</v>
+        <v>-3.438431133848075E-3</v>
       </c>
       <c r="C732">
-        <v>6.6952442599040526E-5</v>
+        <v>2.625990774600833E-3</v>
       </c>
     </row>
     <row r="733" spans="1:3" x14ac:dyDescent="0.3">
@@ -14153,10 +14153,10 @@
         <v>734</v>
       </c>
       <c r="B733">
-        <v>1.4414205807769919E-4</v>
+        <v>1.427170684173114E-3</v>
       </c>
       <c r="C733">
-        <v>5.4930148906861096E-6</v>
+        <v>1.6551705304843529E-3</v>
       </c>
     </row>
     <row r="734" spans="1:3" x14ac:dyDescent="0.3">
@@ -14164,10 +14164,10 @@
         <v>735</v>
       </c>
       <c r="B734">
-        <v>-4.2583272403229726E-3</v>
+        <v>-5.3433224137028803E-3</v>
       </c>
       <c r="C734">
-        <v>1.662903317198083E-3</v>
+        <v>9.6195469127532546E-3</v>
       </c>
     </row>
     <row r="735" spans="1:3" x14ac:dyDescent="0.3">
@@ -14175,10 +14175,10 @@
         <v>736</v>
       </c>
       <c r="B735">
-        <v>-3.438431133848075E-3</v>
+        <v>6.2893335674271765E-4</v>
       </c>
       <c r="C735">
-        <v>2.625990774600833E-3</v>
+        <v>8.7162359017565539E-4</v>
       </c>
     </row>
     <row r="736" spans="1:3" x14ac:dyDescent="0.3">
@@ -14186,10 +14186,10 @@
         <v>737</v>
       </c>
       <c r="B736">
-        <v>1.427170684173114E-3</v>
+        <v>-1.6813412421369349E-3</v>
       </c>
       <c r="C736">
-        <v>1.6551705304843529E-3</v>
+        <v>1.1978574311286511E-3</v>
       </c>
     </row>
     <row r="737" spans="1:3" x14ac:dyDescent="0.3">
@@ -14197,10 +14197,10 @@
         <v>738</v>
       </c>
       <c r="B737">
-        <v>-5.3433224137028803E-3</v>
+        <v>1.47477046652779E-3</v>
       </c>
       <c r="C737">
-        <v>9.6195469127532546E-3</v>
+        <v>4.5259770372729741E-4</v>
       </c>
     </row>
     <row r="738" spans="1:3" x14ac:dyDescent="0.3">
@@ -14208,10 +14208,10 @@
         <v>739</v>
       </c>
       <c r="B738">
-        <v>6.2893335674271765E-4</v>
+        <v>7.6371418812034306E-3</v>
       </c>
       <c r="C738">
-        <v>8.7162359017565539E-4</v>
+        <v>3.044249542496771E-2</v>
       </c>
     </row>
     <row r="739" spans="1:3" x14ac:dyDescent="0.3">
@@ -14219,10 +14219,10 @@
         <v>740</v>
       </c>
       <c r="B739">
-        <v>-1.6813412421369349E-3</v>
+        <v>3.3632399831381478E-4</v>
       </c>
       <c r="C739">
-        <v>1.1978574311286511E-3</v>
+        <v>1.0970244471879421E-3</v>
       </c>
     </row>
     <row r="740" spans="1:3" x14ac:dyDescent="0.3">
@@ -14230,10 +14230,10 @@
         <v>741</v>
       </c>
       <c r="B740">
-        <v>1.47477046652779E-3</v>
+        <v>-3.0515200569724722E-3</v>
       </c>
       <c r="C740">
-        <v>4.5259770372729741E-4</v>
+        <v>3.1013089196620719E-3</v>
       </c>
     </row>
     <row r="741" spans="1:3" x14ac:dyDescent="0.3">
@@ -14241,10 +14241,10 @@
         <v>742</v>
       </c>
       <c r="B741">
-        <v>7.6371418812034306E-3</v>
+        <v>7.1042285153509433E-4</v>
       </c>
       <c r="C741">
-        <v>3.044249542496771E-2</v>
+        <v>1.4421796351576739E-4</v>
       </c>
     </row>
     <row r="742" spans="1:3" x14ac:dyDescent="0.3">
@@ -14252,10 +14252,10 @@
         <v>743</v>
       </c>
       <c r="B742">
-        <v>3.3632399831381478E-4</v>
+        <v>1.5312406853049189E-4</v>
       </c>
       <c r="C742">
-        <v>1.0970244471879421E-3</v>
+        <v>1.718489555808543E-3</v>
       </c>
     </row>
     <row r="743" spans="1:3" x14ac:dyDescent="0.3">
@@ -14263,10 +14263,10 @@
         <v>744</v>
       </c>
       <c r="B743">
-        <v>-3.0515200569724722E-3</v>
+        <v>-3.8309981992367681E-2</v>
       </c>
       <c r="C743">
-        <v>3.1013089196620719E-3</v>
+        <v>0.42489941579118629</v>
       </c>
     </row>
     <row r="744" spans="1:3" x14ac:dyDescent="0.3">
@@ -14274,10 +14274,10 @@
         <v>745</v>
       </c>
       <c r="B744">
-        <v>7.1042285153509433E-4</v>
+        <v>-3.9191694250725949E-4</v>
       </c>
       <c r="C744">
-        <v>1.4421796351576739E-4</v>
+        <v>6.7395926285234342E-4</v>
       </c>
     </row>
     <row r="745" spans="1:3" x14ac:dyDescent="0.3">
@@ -14285,10 +14285,10 @@
         <v>746</v>
       </c>
       <c r="B745">
-        <v>1.5312406853049189E-4</v>
+        <v>9.7470502214519179E-4</v>
       </c>
       <c r="C745">
-        <v>1.718489555808543E-3</v>
+        <v>2.218503388420132E-4</v>
       </c>
     </row>
     <row r="746" spans="1:3" x14ac:dyDescent="0.3">
@@ -14296,10 +14296,10 @@
         <v>747</v>
       </c>
       <c r="B746">
-        <v>-3.8309981992367681E-2</v>
+        <v>-2.7769090260941769E-4</v>
       </c>
       <c r="C746">
-        <v>0.42489941579118629</v>
+        <v>2.59133631489E-3</v>
       </c>
     </row>
     <row r="747" spans="1:3" x14ac:dyDescent="0.3">
@@ -14307,10 +14307,10 @@
         <v>748</v>
       </c>
       <c r="B747">
-        <v>-3.9191694250725949E-4</v>
+        <v>1.715305103503364E-3</v>
       </c>
       <c r="C747">
-        <v>6.7395926285234342E-4</v>
+        <v>2.5024876062930261E-4</v>
       </c>
     </row>
     <row r="748" spans="1:3" x14ac:dyDescent="0.3">
@@ -14318,10 +14318,10 @@
         <v>749</v>
       </c>
       <c r="B748">
-        <v>9.7470502214519179E-4</v>
+        <v>1.6951443884270079E-4</v>
       </c>
       <c r="C748">
-        <v>2.218503388420132E-4</v>
+        <v>1.5948346890306951E-4</v>
       </c>
     </row>
     <row r="749" spans="1:3" x14ac:dyDescent="0.3">
@@ -14329,10 +14329,10 @@
         <v>750</v>
       </c>
       <c r="B749">
-        <v>-2.7769090260941769E-4</v>
+        <v>4.0379488940394873E-4</v>
       </c>
       <c r="C749">
-        <v>2.59133631489E-3</v>
+        <v>2.2511596141828911E-3</v>
       </c>
     </row>
     <row r="750" spans="1:3" x14ac:dyDescent="0.3">
@@ -14340,10 +14340,10 @@
         <v>751</v>
       </c>
       <c r="B750">
-        <v>1.715305103503364E-3</v>
+        <v>4.6911190504365079E-3</v>
       </c>
       <c r="C750">
-        <v>2.5024876062930261E-4</v>
+        <v>4.0001209758451766E-3</v>
       </c>
     </row>
     <row r="751" spans="1:3" x14ac:dyDescent="0.3">
@@ -14351,10 +14351,10 @@
         <v>752</v>
       </c>
       <c r="B751">
-        <v>1.6951443884270079E-4</v>
+        <v>1.9925510216012802E-3</v>
       </c>
       <c r="C751">
-        <v>1.5948346890306951E-4</v>
+        <v>4.9578804912236963E-4</v>
       </c>
     </row>
     <row r="752" spans="1:3" x14ac:dyDescent="0.3">
@@ -14362,10 +14362,10 @@
         <v>753</v>
       </c>
       <c r="B752">
-        <v>7.962630002663764E-4</v>
+        <v>2.4702147509035478E-5</v>
       </c>
       <c r="C752">
-        <v>1.7922528363082679E-3</v>
+        <v>1.0740416746551329E-3</v>
       </c>
     </row>
     <row r="753" spans="1:3" x14ac:dyDescent="0.3">
@@ -14373,10 +14373,10 @@
         <v>754</v>
       </c>
       <c r="B753">
-        <v>9.6662936096193254E-4</v>
+        <v>-1.743995060570305E-3</v>
       </c>
       <c r="C753">
-        <v>3.219217157206753E-4</v>
+        <v>1.376360495287267E-3</v>
       </c>
     </row>
     <row r="754" spans="1:3" x14ac:dyDescent="0.3">
@@ -14384,10 +14384,10 @@
         <v>755</v>
       </c>
       <c r="B754">
-        <v>-1.030546938671275E-4</v>
+        <v>5.7012297295954697E-4</v>
       </c>
       <c r="C754">
-        <v>3.9595655466591209E-4</v>
+        <v>8.3332582446444387E-4</v>
       </c>
     </row>
     <row r="755" spans="1:3" x14ac:dyDescent="0.3">
@@ -14395,10 +14395,10 @@
         <v>756</v>
       </c>
       <c r="B755">
-        <v>-2.255732828665665E-4</v>
+        <v>1.388624649271891E-3</v>
       </c>
       <c r="C755">
-        <v>4.0804865078591214E-3</v>
+        <v>9.1501447624106798E-4</v>
       </c>
     </row>
     <row r="756" spans="1:3" x14ac:dyDescent="0.3">
@@ -14406,10 +14406,10 @@
         <v>757</v>
       </c>
       <c r="B756">
-        <v>-6.1851015047472476E-3</v>
+        <v>3.8257462413214939E-4</v>
       </c>
       <c r="C756">
-        <v>4.6024807194252138E-3</v>
+        <v>1.4279108185611419E-4</v>
       </c>
     </row>
     <row r="757" spans="1:3" x14ac:dyDescent="0.3">
@@ -20434,10 +20434,10 @@
         <v>1305</v>
       </c>
       <c r="B1304">
-        <v>2.6993403503897349E-5</v>
+        <v>2.763822666317687E-5</v>
       </c>
       <c r="C1304">
-        <v>1.7746610904231699E-3</v>
+        <v>1.7747164415726931E-3</v>
       </c>
     </row>
     <row r="1305" spans="1:3" x14ac:dyDescent="0.3">
@@ -24317,10 +24317,10 @@
         <v>1658</v>
       </c>
       <c r="B1657">
-        <v>3.9436121718106542E-4</v>
+        <v>-3.576186893993714E-3</v>
       </c>
       <c r="C1657">
-        <v>6.6322374686460781E-4</v>
+        <v>1.8918241779257859E-3</v>
       </c>
     </row>
     <row r="1658" spans="1:3" x14ac:dyDescent="0.3">
@@ -24328,10 +24328,10 @@
         <v>1659</v>
       </c>
       <c r="B1658">
-        <v>1.282435383454502E-3</v>
+        <v>1.9340000867269749E-3</v>
       </c>
       <c r="C1658">
-        <v>8.0408933346364658E-4</v>
+        <v>1.804961344175465E-4</v>
       </c>
     </row>
     <row r="1659" spans="1:3" x14ac:dyDescent="0.3">
@@ -24339,10 +24339,10 @@
         <v>1660</v>
       </c>
       <c r="B1659">
-        <v>4.5820392401599091E-4</v>
+        <v>-1.182755588350011E-3</v>
       </c>
       <c r="C1659">
-        <v>3.4512286755536642E-4</v>
+        <v>6.733550734438551E-4</v>
       </c>
     </row>
     <row r="1660" spans="1:3" x14ac:dyDescent="0.3">
@@ -24350,10 +24350,10 @@
         <v>1661</v>
       </c>
       <c r="B1660">
-        <v>-1.511910843445836E-3</v>
+        <v>1.8725244193057199E-3</v>
       </c>
       <c r="C1660">
-        <v>1.504660713739862E-3</v>
+        <v>1.369141518308595E-3</v>
       </c>
     </row>
     <row r="1661" spans="1:3" x14ac:dyDescent="0.3">
@@ -24361,10 +24361,10 @@
         <v>1662</v>
       </c>
       <c r="B1661">
-        <v>1.7764954517231431E-5</v>
+        <v>5.9552770987089203E-5</v>
       </c>
       <c r="C1661">
-        <v>6.6327006450857986E-5</v>
+        <v>4.5014259831903429E-4</v>
       </c>
     </row>
     <row r="1662" spans="1:3" x14ac:dyDescent="0.3">
@@ -24372,10 +24372,10 @@
         <v>1663</v>
       </c>
       <c r="B1662">
-        <v>-6.691173380913842E-3</v>
+        <v>1.552510058309129E-3</v>
       </c>
       <c r="C1662">
-        <v>5.2679763190258723E-3</v>
+        <v>3.080523567992733E-4</v>
       </c>
     </row>
     <row r="1663" spans="1:3" x14ac:dyDescent="0.3">
@@ -24383,10 +24383,10 @@
         <v>1664</v>
       </c>
       <c r="B1663">
-        <v>-2.311308571257917E-3</v>
+        <v>1.499670985925318E-3</v>
       </c>
       <c r="C1663">
-        <v>9.7821070180372925E-4</v>
+        <v>5.273660176263328E-3</v>
       </c>
     </row>
     <row r="1664" spans="1:3" x14ac:dyDescent="0.3">
@@ -24394,10 +24394,10 @@
         <v>1665</v>
       </c>
       <c r="B1664">
-        <v>6.8061318212147095E-4</v>
+        <v>-1.1098800613452539E-2</v>
       </c>
       <c r="C1664">
-        <v>9.2279736927785975E-4</v>
+        <v>6.5951657849432788E-3</v>
       </c>
     </row>
     <row r="1665" spans="1:3" x14ac:dyDescent="0.3">
@@ -24405,10 +24405,10 @@
         <v>1666</v>
       </c>
       <c r="B1665">
-        <v>-2.0855070836618048E-3</v>
+        <v>-2.5338195549166188E-3</v>
       </c>
       <c r="C1665">
-        <v>2.3050449184974019E-3</v>
+        <v>3.1087979809539049E-3</v>
       </c>
     </row>
     <row r="1666" spans="1:3" x14ac:dyDescent="0.3">
@@ -24416,10 +24416,10 @@
         <v>1667</v>
       </c>
       <c r="B1666">
-        <v>1.3304966491097931E-3</v>
+        <v>2.005217882349356E-3</v>
       </c>
       <c r="C1666">
-        <v>3.5209218476912402E-4</v>
+        <v>2.147176338224237E-4</v>
       </c>
     </row>
     <row r="1667" spans="1:3" x14ac:dyDescent="0.3">
@@ -24427,10 +24427,10 @@
         <v>1668</v>
       </c>
       <c r="B1667">
-        <v>1.9492306847170881E-3</v>
+        <v>4.0111741644762956E-3</v>
       </c>
       <c r="C1667">
-        <v>2.1619886957605959E-4</v>
+        <v>2.7837365940828729E-3</v>
       </c>
     </row>
     <row r="1668" spans="1:3" x14ac:dyDescent="0.3">
@@ -24438,10 +24438,10 @@
         <v>1669</v>
       </c>
       <c r="B1668">
-        <v>3.1990521027435602E-3</v>
+        <v>-7.1644388456145441E-3</v>
       </c>
       <c r="C1668">
-        <v>2.4857763778057631E-3</v>
+        <v>6.4301016272538354E-3</v>
       </c>
     </row>
     <row r="1669" spans="1:3" x14ac:dyDescent="0.3">
@@ -24449,10 +24449,10 @@
         <v>1670</v>
       </c>
       <c r="B1669">
-        <v>1.020431869562253E-3</v>
+        <v>-5.5753930380943572E-3</v>
       </c>
       <c r="C1669">
-        <v>4.0098939525273043E-4</v>
+        <v>3.755633538721625E-3</v>
       </c>
     </row>
     <row r="1670" spans="1:3" x14ac:dyDescent="0.3">
@@ -24460,10 +24460,10 @@
         <v>1671</v>
       </c>
       <c r="B1670">
-        <v>1.6835582403337799E-3</v>
+        <v>5.6770451079844319E-4</v>
       </c>
       <c r="C1670">
-        <v>2.6591606589948828E-4</v>
+        <v>1.7988824072385911E-3</v>
       </c>
     </row>
     <row r="1671" spans="1:3" x14ac:dyDescent="0.3">
@@ -24471,10 +24471,10 @@
         <v>1672</v>
       </c>
       <c r="B1671">
-        <v>-2.0270227973553379E-3</v>
+        <v>-2.318514037242135E-3</v>
       </c>
       <c r="C1671">
-        <v>1.692553359401735E-3</v>
+        <v>6.6574774762197231E-4</v>
       </c>
     </row>
     <row r="1672" spans="1:3" x14ac:dyDescent="0.3">
@@ -24482,10 +24482,10 @@
         <v>1673</v>
       </c>
       <c r="B1672">
-        <v>2.1584316252665141E-3</v>
+        <v>4.1157393480289371E-4</v>
       </c>
       <c r="C1672">
-        <v>1.592790161266661E-4</v>
+        <v>3.7710171718887059E-4</v>
       </c>
     </row>
     <row r="1673" spans="1:3" x14ac:dyDescent="0.3">
@@ -24493,10 +24493,10 @@
         <v>1674</v>
       </c>
       <c r="B1673">
-        <v>-3.5141455982937658E-4</v>
+        <v>3.9712543679145637E-4</v>
       </c>
       <c r="C1673">
-        <v>3.2935428120578031E-4</v>
+        <v>2.0505620158522731E-4</v>
       </c>
     </row>
     <row r="1674" spans="1:3" x14ac:dyDescent="0.3">
@@ -24504,10 +24504,10 @@
         <v>1675</v>
       </c>
       <c r="B1674">
-        <v>1.286049685987285E-3</v>
+        <v>1.2911134427249771E-3</v>
       </c>
       <c r="C1674">
-        <v>5.6842025379037894E-4</v>
+        <v>1.306905868656374E-3</v>
       </c>
     </row>
     <row r="1675" spans="1:3" x14ac:dyDescent="0.3">
@@ -24515,10 +24515,10 @@
         <v>1676</v>
       </c>
       <c r="B1675">
-        <v>5.5167280177811267E-4</v>
+        <v>2.0402992971387179E-3</v>
       </c>
       <c r="C1675">
-        <v>2.1878853214089329E-4</v>
+        <v>5.8838788357599232E-4</v>
       </c>
     </row>
     <row r="1676" spans="1:3" x14ac:dyDescent="0.3">
@@ -24526,10 +24526,10 @@
         <v>1677</v>
       </c>
       <c r="B1676">
-        <v>9.352034733092524E-6</v>
+        <v>9.8255628877008628E-5</v>
       </c>
       <c r="C1676">
-        <v>4.7092159789723157E-4</v>
+        <v>3.723899881100495E-4</v>
       </c>
     </row>
     <row r="1677" spans="1:3" x14ac:dyDescent="0.3">
@@ -24537,10 +24537,10 @@
         <v>1678</v>
       </c>
       <c r="B1677">
-        <v>-2.3214704431863441E-4</v>
+        <v>-1.7722017915239991E-4</v>
       </c>
       <c r="C1677">
-        <v>1.629988548400149E-3</v>
+        <v>5.8520984210559289E-4</v>
       </c>
     </row>
     <row r="1678" spans="1:3" x14ac:dyDescent="0.3">
@@ -24548,10 +24548,10 @@
         <v>1679</v>
       </c>
       <c r="B1678">
-        <v>7.9337637288149233E-4</v>
+        <v>2.2981794712517959E-3</v>
       </c>
       <c r="C1678">
-        <v>5.9826692073652887E-4</v>
+        <v>1.9745906980769029E-4</v>
       </c>
     </row>
     <row r="1679" spans="1:3" x14ac:dyDescent="0.3">
@@ -24559,10 +24559,10 @@
         <v>1680</v>
       </c>
       <c r="B1679">
-        <v>-2.4077290137142991E-4</v>
+        <v>2.9746770135660509E-3</v>
       </c>
       <c r="C1679">
-        <v>4.0104727306407393E-4</v>
+        <v>9.1298534930809346E-4</v>
       </c>
     </row>
     <row r="1680" spans="1:3" x14ac:dyDescent="0.3">
@@ -24570,10 +24570,10 @@
         <v>1681</v>
       </c>
       <c r="B1680">
-        <v>-1.894118350812099E-3</v>
+        <v>-2.924785875578689E-3</v>
       </c>
       <c r="C1680">
-        <v>4.8307242173296401E-4</v>
+        <v>2.3309027339134072E-3</v>
       </c>
     </row>
     <row r="1681" spans="1:3" x14ac:dyDescent="0.3">
@@ -24581,10 +24581,10 @@
         <v>1682</v>
       </c>
       <c r="B1681">
-        <v>8.4276180873302502E-6</v>
+        <v>1.459654289844646E-3</v>
       </c>
       <c r="C1681">
-        <v>9.7673487346688014E-4</v>
+        <v>3.4527835912902461E-4</v>
       </c>
     </row>
     <row r="1682" spans="1:3" x14ac:dyDescent="0.3">
@@ -24592,10 +24592,10 @@
         <v>1683</v>
       </c>
       <c r="B1682">
-        <v>1.3476282345549621E-3</v>
+        <v>1.2801347357314339E-3</v>
       </c>
       <c r="C1682">
-        <v>1.095641309391859E-3</v>
+        <v>1.753741046152313E-4</v>
       </c>
     </row>
     <row r="1683" spans="1:3" x14ac:dyDescent="0.3">
@@ -24603,10 +24603,10 @@
         <v>1684</v>
       </c>
       <c r="B1683">
-        <v>-2.1144629205468628E-3</v>
+        <v>-1.1140429962864999E-3</v>
       </c>
       <c r="C1683">
-        <v>1.231912199779088E-3</v>
+        <v>4.2433119874705453E-4</v>
       </c>
     </row>
     <row r="1684" spans="1:3" x14ac:dyDescent="0.3">
@@ -24614,10 +24614,10 @@
         <v>1685</v>
       </c>
       <c r="B1684">
-        <v>1.314955211825818E-3</v>
+        <v>-3.9688492724867493E-3</v>
       </c>
       <c r="C1684">
-        <v>3.4655381537928578E-4</v>
+        <v>2.284751132978238E-3</v>
       </c>
     </row>
     <row r="1685" spans="1:3" x14ac:dyDescent="0.3">
@@ -24625,10 +24625,10 @@
         <v>1686</v>
       </c>
       <c r="B1685">
-        <v>5.1507981454788551E-4</v>
+        <v>-7.9683524659479518E-3</v>
       </c>
       <c r="C1685">
-        <v>7.4269587644380287E-4</v>
+        <v>9.2836338285808197E-3</v>
       </c>
     </row>
     <row r="1686" spans="1:3" x14ac:dyDescent="0.3">
@@ -24636,10 +24636,10 @@
         <v>1687</v>
       </c>
       <c r="B1686">
-        <v>-1.1140429962864999E-3</v>
+        <v>1.449035265731071E-3</v>
       </c>
       <c r="C1686">
-        <v>4.2433119874705453E-4</v>
+        <v>7.2887849750861934E-4</v>
       </c>
     </row>
     <row r="1687" spans="1:3" x14ac:dyDescent="0.3">
@@ -24647,10 +24647,10 @@
         <v>1688</v>
       </c>
       <c r="B1687">
-        <v>-3.9688492724867493E-3</v>
+        <v>-2.390645805650852E-4</v>
       </c>
       <c r="C1687">
-        <v>2.284751132978238E-3</v>
+        <v>9.1934225864695137E-4</v>
       </c>
     </row>
     <row r="1688" spans="1:3" x14ac:dyDescent="0.3">
@@ -24658,10 +24658,10 @@
         <v>1689</v>
       </c>
       <c r="B1688">
-        <v>-7.9683524659479518E-3</v>
+        <v>2.6872569998304002E-3</v>
       </c>
       <c r="C1688">
-        <v>9.2836338285808197E-3</v>
+        <v>1.456039927163377E-3</v>
       </c>
     </row>
     <row r="1689" spans="1:3" x14ac:dyDescent="0.3">
@@ -24669,10 +24669,10 @@
         <v>1690</v>
       </c>
       <c r="B1689">
-        <v>1.449035265731071E-3</v>
+        <v>1.056606001053958E-3</v>
       </c>
       <c r="C1689">
-        <v>7.2887849750861934E-4</v>
+        <v>1.091424213694091E-4</v>
       </c>
     </row>
     <row r="1690" spans="1:3" x14ac:dyDescent="0.3">
@@ -24680,10 +24680,10 @@
         <v>1691</v>
       </c>
       <c r="B1690">
-        <v>-2.390645805650852E-4</v>
+        <v>2.257901417148551E-3</v>
       </c>
       <c r="C1690">
-        <v>9.1934225864695137E-4</v>
+        <v>5.5208067267830329E-4</v>
       </c>
     </row>
     <row r="1691" spans="1:3" x14ac:dyDescent="0.3">
@@ -24691,10 +24691,10 @@
         <v>1692</v>
       </c>
       <c r="B1691">
-        <v>2.6872569998304002E-3</v>
+        <v>7.6607664415573827E-4</v>
       </c>
       <c r="C1691">
-        <v>1.456039927163377E-3</v>
+        <v>1.020143945289722E-4</v>
       </c>
     </row>
     <row r="1692" spans="1:3" x14ac:dyDescent="0.3">
@@ -24702,10 +24702,10 @@
         <v>1693</v>
       </c>
       <c r="B1692">
-        <v>1.056606001053958E-3</v>
+        <v>8.209277313555312E-4</v>
       </c>
       <c r="C1692">
-        <v>1.091424213694091E-4</v>
+        <v>2.2127229204465929E-4</v>
       </c>
     </row>
     <row r="1693" spans="1:3" x14ac:dyDescent="0.3">
@@ -24713,10 +24713,10 @@
         <v>1694</v>
       </c>
       <c r="B1693">
-        <v>2.257901417148551E-3</v>
+        <v>-1.948413642296538E-3</v>
       </c>
       <c r="C1693">
-        <v>5.5208067267830329E-4</v>
+        <v>9.5308352573144945E-4</v>
       </c>
     </row>
     <row r="1694" spans="1:3" x14ac:dyDescent="0.3">
@@ -24724,10 +24724,10 @@
         <v>1695</v>
       </c>
       <c r="B1694">
-        <v>7.6607664415573827E-4</v>
+        <v>3.9436121718106542E-4</v>
       </c>
       <c r="C1694">
-        <v>1.020143945289722E-4</v>
+        <v>6.6322374686460781E-4</v>
       </c>
     </row>
     <row r="1695" spans="1:3" x14ac:dyDescent="0.3">
@@ -24735,10 +24735,10 @@
         <v>1696</v>
       </c>
       <c r="B1695">
-        <v>8.209277313555312E-4</v>
+        <v>1.282435383454502E-3</v>
       </c>
       <c r="C1695">
-        <v>2.2127229204465929E-4</v>
+        <v>8.0408933346364658E-4</v>
       </c>
     </row>
     <row r="1696" spans="1:3" x14ac:dyDescent="0.3">
@@ -24746,10 +24746,10 @@
         <v>1697</v>
       </c>
       <c r="B1696">
-        <v>-1.948413642296538E-3</v>
+        <v>4.5820392401599091E-4</v>
       </c>
       <c r="C1696">
-        <v>9.5308352573144945E-4</v>
+        <v>3.4512286755536642E-4</v>
       </c>
     </row>
     <row r="1697" spans="1:3" x14ac:dyDescent="0.3">
@@ -24757,10 +24757,10 @@
         <v>1698</v>
       </c>
       <c r="B1697">
-        <v>-3.576186893993714E-3</v>
+        <v>-1.511910843445836E-3</v>
       </c>
       <c r="C1697">
-        <v>1.8918241779257859E-3</v>
+        <v>1.504660713739862E-3</v>
       </c>
     </row>
     <row r="1698" spans="1:3" x14ac:dyDescent="0.3">
@@ -24768,10 +24768,10 @@
         <v>1699</v>
       </c>
       <c r="B1698">
-        <v>1.9340000867269749E-3</v>
+        <v>1.7764954517231431E-5</v>
       </c>
       <c r="C1698">
-        <v>1.804961344175465E-4</v>
+        <v>6.6327006450857986E-5</v>
       </c>
     </row>
     <row r="1699" spans="1:3" x14ac:dyDescent="0.3">
@@ -24779,10 +24779,10 @@
         <v>1700</v>
       </c>
       <c r="B1699">
-        <v>-1.182755588350011E-3</v>
+        <v>-6.691173380913842E-3</v>
       </c>
       <c r="C1699">
-        <v>6.733550734438551E-4</v>
+        <v>5.2679763190258723E-3</v>
       </c>
     </row>
     <row r="1700" spans="1:3" x14ac:dyDescent="0.3">
@@ -24790,10 +24790,10 @@
         <v>1701</v>
       </c>
       <c r="B1700">
-        <v>1.8725244193057199E-3</v>
+        <v>-2.311308571257917E-3</v>
       </c>
       <c r="C1700">
-        <v>1.369141518308595E-3</v>
+        <v>9.7821070180372925E-4</v>
       </c>
     </row>
     <row r="1701" spans="1:3" x14ac:dyDescent="0.3">
@@ -24801,10 +24801,10 @@
         <v>1702</v>
       </c>
       <c r="B1701">
-        <v>5.9552770987089203E-5</v>
+        <v>6.8061318212147095E-4</v>
       </c>
       <c r="C1701">
-        <v>4.5014259831903429E-4</v>
+        <v>9.2279736927785975E-4</v>
       </c>
     </row>
     <row r="1702" spans="1:3" x14ac:dyDescent="0.3">
@@ -24812,10 +24812,10 @@
         <v>1703</v>
       </c>
       <c r="B1702">
-        <v>1.552510058309129E-3</v>
+        <v>-2.0855070836618048E-3</v>
       </c>
       <c r="C1702">
-        <v>3.080523567992733E-4</v>
+        <v>2.3050449184974019E-3</v>
       </c>
     </row>
     <row r="1703" spans="1:3" x14ac:dyDescent="0.3">
@@ -24823,10 +24823,10 @@
         <v>1704</v>
       </c>
       <c r="B1703">
-        <v>1.499670985925318E-3</v>
+        <v>1.3304966491097931E-3</v>
       </c>
       <c r="C1703">
-        <v>5.273660176263328E-3</v>
+        <v>3.5209218476912402E-4</v>
       </c>
     </row>
     <row r="1704" spans="1:3" x14ac:dyDescent="0.3">
@@ -24834,10 +24834,10 @@
         <v>1705</v>
       </c>
       <c r="B1704">
-        <v>-1.1098800613452539E-2</v>
+        <v>1.9492306847170881E-3</v>
       </c>
       <c r="C1704">
-        <v>6.5951657849432788E-3</v>
+        <v>2.1619886957605959E-4</v>
       </c>
     </row>
     <row r="1705" spans="1:3" x14ac:dyDescent="0.3">
@@ -24845,10 +24845,10 @@
         <v>1706</v>
       </c>
       <c r="B1705">
-        <v>-2.5338195549166188E-3</v>
+        <v>3.1990521027435602E-3</v>
       </c>
       <c r="C1705">
-        <v>3.1087979809539049E-3</v>
+        <v>2.4857763778057631E-3</v>
       </c>
     </row>
     <row r="1706" spans="1:3" x14ac:dyDescent="0.3">
@@ -24856,10 +24856,10 @@
         <v>1707</v>
       </c>
       <c r="B1706">
-        <v>2.005217882349356E-3</v>
+        <v>1.020431869562253E-3</v>
       </c>
       <c r="C1706">
-        <v>2.147176338224237E-4</v>
+        <v>4.0098939525273043E-4</v>
       </c>
     </row>
     <row r="1707" spans="1:3" x14ac:dyDescent="0.3">
@@ -24867,10 +24867,10 @@
         <v>1708</v>
       </c>
       <c r="B1707">
-        <v>4.0111741644762956E-3</v>
+        <v>1.6835582403337799E-3</v>
       </c>
       <c r="C1707">
-        <v>2.7837365940828729E-3</v>
+        <v>2.6591606589948828E-4</v>
       </c>
     </row>
     <row r="1708" spans="1:3" x14ac:dyDescent="0.3">
@@ -24878,10 +24878,10 @@
         <v>1709</v>
       </c>
       <c r="B1708">
-        <v>-7.1644388456145441E-3</v>
+        <v>-2.0270227973553379E-3</v>
       </c>
       <c r="C1708">
-        <v>6.4301016272538354E-3</v>
+        <v>1.692553359401735E-3</v>
       </c>
     </row>
     <row r="1709" spans="1:3" x14ac:dyDescent="0.3">
@@ -24889,10 +24889,10 @@
         <v>1710</v>
       </c>
       <c r="B1709">
-        <v>-5.5753930380943572E-3</v>
+        <v>2.1584316252665141E-3</v>
       </c>
       <c r="C1709">
-        <v>3.755633538721625E-3</v>
+        <v>1.592790161266661E-4</v>
       </c>
     </row>
     <row r="1710" spans="1:3" x14ac:dyDescent="0.3">
@@ -24900,10 +24900,10 @@
         <v>1711</v>
       </c>
       <c r="B1710">
-        <v>5.6770451079844319E-4</v>
+        <v>-3.5141455982937658E-4</v>
       </c>
       <c r="C1710">
-        <v>1.7988824072385911E-3</v>
+        <v>3.2935428120578031E-4</v>
       </c>
     </row>
     <row r="1711" spans="1:3" x14ac:dyDescent="0.3">
@@ -24911,10 +24911,10 @@
         <v>1712</v>
       </c>
       <c r="B1711">
-        <v>-2.318514037242135E-3</v>
+        <v>1.286049685987285E-3</v>
       </c>
       <c r="C1711">
-        <v>6.6574774762197231E-4</v>
+        <v>5.6842025379037894E-4</v>
       </c>
     </row>
     <row r="1712" spans="1:3" x14ac:dyDescent="0.3">
@@ -24922,10 +24922,10 @@
         <v>1713</v>
       </c>
       <c r="B1712">
-        <v>4.1157393480289371E-4</v>
+        <v>5.5167280177811267E-4</v>
       </c>
       <c r="C1712">
-        <v>3.7710171718887059E-4</v>
+        <v>2.1878853214089329E-4</v>
       </c>
     </row>
     <row r="1713" spans="1:3" x14ac:dyDescent="0.3">
@@ -24933,10 +24933,10 @@
         <v>1714</v>
       </c>
       <c r="B1713">
-        <v>3.9712543679145637E-4</v>
+        <v>9.352034733092524E-6</v>
       </c>
       <c r="C1713">
-        <v>2.0505620158522731E-4</v>
+        <v>4.7092159789723157E-4</v>
       </c>
     </row>
     <row r="1714" spans="1:3" x14ac:dyDescent="0.3">
@@ -24944,10 +24944,10 @@
         <v>1715</v>
       </c>
       <c r="B1714">
-        <v>1.2911134427249771E-3</v>
+        <v>-2.3214704431863441E-4</v>
       </c>
       <c r="C1714">
-        <v>1.306905868656374E-3</v>
+        <v>1.629988548400149E-3</v>
       </c>
     </row>
     <row r="1715" spans="1:3" x14ac:dyDescent="0.3">
@@ -24955,10 +24955,10 @@
         <v>1716</v>
       </c>
       <c r="B1715">
-        <v>2.0402992971387179E-3</v>
+        <v>7.9337637288149233E-4</v>
       </c>
       <c r="C1715">
-        <v>5.8838788357599232E-4</v>
+        <v>5.9826692073652887E-4</v>
       </c>
     </row>
     <row r="1716" spans="1:3" x14ac:dyDescent="0.3">
@@ -24966,10 +24966,10 @@
         <v>1717</v>
       </c>
       <c r="B1716">
-        <v>9.8255628877008628E-5</v>
+        <v>-2.4077290137142991E-4</v>
       </c>
       <c r="C1716">
-        <v>3.723899881100495E-4</v>
+        <v>4.0104727306407393E-4</v>
       </c>
     </row>
     <row r="1717" spans="1:3" x14ac:dyDescent="0.3">
@@ -24977,10 +24977,10 @@
         <v>1718</v>
       </c>
       <c r="B1717">
-        <v>-1.7722017915239991E-4</v>
+        <v>-1.894118350812099E-3</v>
       </c>
       <c r="C1717">
-        <v>5.8520984210559289E-4</v>
+        <v>4.8307242173296401E-4</v>
       </c>
     </row>
     <row r="1718" spans="1:3" x14ac:dyDescent="0.3">
@@ -24988,10 +24988,10 @@
         <v>1719</v>
       </c>
       <c r="B1718">
-        <v>2.2981794712517959E-3</v>
+        <v>8.4276180873302502E-6</v>
       </c>
       <c r="C1718">
-        <v>1.9745906980769029E-4</v>
+        <v>9.7673487346688014E-4</v>
       </c>
     </row>
     <row r="1719" spans="1:3" x14ac:dyDescent="0.3">
@@ -24999,10 +24999,10 @@
         <v>1720</v>
       </c>
       <c r="B1719">
-        <v>2.9746770135660509E-3</v>
+        <v>1.3476282345549621E-3</v>
       </c>
       <c r="C1719">
-        <v>9.1298534930809346E-4</v>
+        <v>1.095641309391859E-3</v>
       </c>
     </row>
     <row r="1720" spans="1:3" x14ac:dyDescent="0.3">
@@ -25010,10 +25010,10 @@
         <v>1721</v>
       </c>
       <c r="B1720">
-        <v>-2.924785875578689E-3</v>
+        <v>-2.1144629205468628E-3</v>
       </c>
       <c r="C1720">
-        <v>2.3309027339134072E-3</v>
+        <v>1.231912199779088E-3</v>
       </c>
     </row>
     <row r="1721" spans="1:3" x14ac:dyDescent="0.3">
@@ -25021,10 +25021,10 @@
         <v>1722</v>
       </c>
       <c r="B1721">
-        <v>1.459654289844646E-3</v>
+        <v>1.314955211825818E-3</v>
       </c>
       <c r="C1721">
-        <v>3.4527835912902461E-4</v>
+        <v>3.4655381537928578E-4</v>
       </c>
     </row>
     <row r="1722" spans="1:3" x14ac:dyDescent="0.3">
@@ -25032,10 +25032,10 @@
         <v>1723</v>
       </c>
       <c r="B1722">
-        <v>1.2801347357314339E-3</v>
+        <v>5.1507981454788551E-4</v>
       </c>
       <c r="C1722">
-        <v>1.753741046152313E-4</v>
+        <v>7.4269587644380287E-4</v>
       </c>
     </row>
     <row r="1723" spans="1:3" x14ac:dyDescent="0.3">
@@ -25703,10 +25703,10 @@
         <v>1784</v>
       </c>
       <c r="B1783">
-        <v>4.4242245709764618E-4</v>
+        <v>-1.845755931446148E-3</v>
       </c>
       <c r="C1783">
-        <v>3.8979185950366942E-4</v>
+        <v>1.573726150915718E-3</v>
       </c>
     </row>
     <row r="1784" spans="1:3" x14ac:dyDescent="0.3">
@@ -25714,10 +25714,10 @@
         <v>1785</v>
       </c>
       <c r="B1784">
-        <v>9.4223046245027074E-4</v>
+        <v>-3.888950238441137E-3</v>
       </c>
       <c r="C1784">
-        <v>5.7658537999817367E-4</v>
+        <v>2.722054469653601E-3</v>
       </c>
     </row>
     <row r="1785" spans="1:3" x14ac:dyDescent="0.3">
@@ -25725,10 +25725,10 @@
         <v>1786</v>
       </c>
       <c r="B1785">
-        <v>5.4171419492793002E-4</v>
+        <v>1.038609035418995E-4</v>
       </c>
       <c r="C1785">
-        <v>6.590247032225428E-5</v>
+        <v>1.2001681205488129E-6</v>
       </c>
     </row>
     <row r="1786" spans="1:3" x14ac:dyDescent="0.3">
@@ -25736,10 +25736,10 @@
         <v>1787</v>
       </c>
       <c r="B1786">
-        <v>5.1552168887687309E-4</v>
+        <v>-1.3308175923282151E-3</v>
       </c>
       <c r="C1786">
-        <v>3.098756167231835E-3</v>
+        <v>6.7818919391681386E-4</v>
       </c>
     </row>
     <row r="1787" spans="1:3" x14ac:dyDescent="0.3">
@@ -25747,10 +25747,10 @@
         <v>1788</v>
       </c>
       <c r="B1787">
-        <v>2.5298139262913502E-3</v>
+        <v>-1.339348269378748E-3</v>
       </c>
       <c r="C1787">
-        <v>1.8085116576298469E-3</v>
+        <v>1.081709408064448E-3</v>
       </c>
     </row>
     <row r="1788" spans="1:3" x14ac:dyDescent="0.3">
@@ -25758,10 +25758,10 @@
         <v>1789</v>
       </c>
       <c r="B1788">
-        <v>5.3674235275645989E-4</v>
+        <v>8.6683457721939265E-4</v>
       </c>
       <c r="C1788">
-        <v>1.465455803895897E-4</v>
+        <v>1.3311997063455579E-4</v>
       </c>
     </row>
     <row r="1789" spans="1:3" x14ac:dyDescent="0.3">
@@ -25769,10 +25769,10 @@
         <v>1790</v>
       </c>
       <c r="B1789">
-        <v>1.177624239284421E-3</v>
+        <v>3.3184976688376678E-4</v>
       </c>
       <c r="C1789">
-        <v>1.155018556552102E-4</v>
+        <v>1.6871456079005259E-5</v>
       </c>
     </row>
     <row r="1790" spans="1:3" x14ac:dyDescent="0.3">
@@ -25780,10 +25780,10 @@
         <v>1791</v>
       </c>
       <c r="B1790">
-        <v>-5.5172237567221246E-4</v>
+        <v>2.5532921979322441E-4</v>
       </c>
       <c r="C1790">
-        <v>2.3790208672243201E-3</v>
+        <v>1.359592191226933E-4</v>
       </c>
     </row>
     <row r="1791" spans="1:3" x14ac:dyDescent="0.3">
@@ -25791,10 +25791,10 @@
         <v>1792</v>
       </c>
       <c r="B1791">
-        <v>-2.309454179485998E-3</v>
+        <v>7.5181216903936576E-4</v>
       </c>
       <c r="C1791">
-        <v>1.4160592126915149E-3</v>
+        <v>1.7039135481926329E-4</v>
       </c>
     </row>
     <row r="1792" spans="1:3" x14ac:dyDescent="0.3">
@@ -25802,10 +25802,10 @@
         <v>1793</v>
       </c>
       <c r="B1792">
-        <v>-1.896743930615917E-3</v>
+        <v>-4.1622830095487569E-3</v>
       </c>
       <c r="C1792">
-        <v>1.474604811611682E-3</v>
+        <v>2.6299961655063711E-3</v>
       </c>
     </row>
     <row r="1793" spans="1:3" x14ac:dyDescent="0.3">
@@ -25813,10 +25813,10 @@
         <v>1794</v>
       </c>
       <c r="B1793">
-        <v>-2.0194950409461428E-3</v>
+        <v>7.7841722142397995E-4</v>
       </c>
       <c r="C1793">
-        <v>1.992252654938265E-3</v>
+        <v>3.1103460406408409E-4</v>
       </c>
     </row>
     <row r="1794" spans="1:3" x14ac:dyDescent="0.3">
@@ -25824,10 +25824,10 @@
         <v>1795</v>
       </c>
       <c r="B1794">
-        <v>7.5181216903936576E-4</v>
+        <v>1.9839420270872151E-4</v>
       </c>
       <c r="C1794">
-        <v>1.7039135481926329E-4</v>
+        <v>6.1315796423061147E-6</v>
       </c>
     </row>
     <row r="1795" spans="1:3" x14ac:dyDescent="0.3">
@@ -25835,10 +25835,10 @@
         <v>1796</v>
       </c>
       <c r="B1795">
-        <v>-4.1622830095487569E-3</v>
+        <v>1.3753943771633299E-3</v>
       </c>
       <c r="C1795">
-        <v>2.6299961655063711E-3</v>
+        <v>5.7016398219016768E-4</v>
       </c>
     </row>
     <row r="1796" spans="1:3" x14ac:dyDescent="0.3">
@@ -25846,10 +25846,10 @@
         <v>1797</v>
       </c>
       <c r="B1796">
-        <v>7.7841722142397995E-4</v>
+        <v>6.4004599407669076E-4</v>
       </c>
       <c r="C1796">
-        <v>3.1103460406408409E-4</v>
+        <v>8.5414538559055845E-4</v>
       </c>
     </row>
     <row r="1797" spans="1:3" x14ac:dyDescent="0.3">
@@ -25857,10 +25857,10 @@
         <v>1798</v>
       </c>
       <c r="B1797">
-        <v>1.9839420270872151E-4</v>
+        <v>1.8725244193057149E-3</v>
       </c>
       <c r="C1797">
-        <v>6.1315796423061147E-6</v>
+        <v>1.9255862826947131E-2</v>
       </c>
     </row>
     <row r="1798" spans="1:3" x14ac:dyDescent="0.3">
@@ -25868,10 +25868,10 @@
         <v>1799</v>
       </c>
       <c r="B1798">
-        <v>1.3753943771633299E-3</v>
+        <v>-3.4762747214682819E-6</v>
       </c>
       <c r="C1798">
-        <v>5.7016398219016768E-4</v>
+        <v>5.8952874099253557E-5</v>
       </c>
     </row>
     <row r="1799" spans="1:3" x14ac:dyDescent="0.3">
@@ -25879,10 +25879,10 @@
         <v>1800</v>
       </c>
       <c r="B1799">
-        <v>6.4004599407669076E-4</v>
+        <v>1.175474426872187E-3</v>
       </c>
       <c r="C1799">
-        <v>8.5414538559055845E-4</v>
+        <v>3.4983817041984571E-4</v>
       </c>
     </row>
     <row r="1800" spans="1:3" x14ac:dyDescent="0.3">
@@ -25890,10 +25890,10 @@
         <v>1801</v>
       </c>
       <c r="B1800">
-        <v>1.8725244193057149E-3</v>
+        <v>-1.5933261695487511E-3</v>
       </c>
       <c r="C1800">
-        <v>1.9255862826947131E-2</v>
+        <v>1.8698855214004269E-3</v>
       </c>
     </row>
     <row r="1801" spans="1:3" x14ac:dyDescent="0.3">
@@ -25901,10 +25901,10 @@
         <v>1802</v>
       </c>
       <c r="B1801">
-        <v>-3.4762747214682819E-6</v>
+        <v>-4.0996769955115638E-3</v>
       </c>
       <c r="C1801">
-        <v>5.8952874099253557E-5</v>
+        <v>3.3304878089491681E-3</v>
       </c>
     </row>
     <row r="1802" spans="1:3" x14ac:dyDescent="0.3">
@@ -25912,10 +25912,10 @@
         <v>1803</v>
       </c>
       <c r="B1802">
-        <v>1.175474426872187E-3</v>
+        <v>8.9047865802202857E-4</v>
       </c>
       <c r="C1802">
-        <v>3.4983817041984571E-4</v>
+        <v>3.3369480544757609E-4</v>
       </c>
     </row>
     <row r="1803" spans="1:3" x14ac:dyDescent="0.3">
@@ -25923,10 +25923,10 @@
         <v>1804</v>
       </c>
       <c r="B1803">
-        <v>-1.5933261695487511E-3</v>
+        <v>5.0525880773840663E-5</v>
       </c>
       <c r="C1803">
-        <v>1.8698855214004269E-3</v>
+        <v>2.1360672797696982E-6</v>
       </c>
     </row>
     <row r="1804" spans="1:3" x14ac:dyDescent="0.3">
@@ -25934,10 +25934,10 @@
         <v>1805</v>
       </c>
       <c r="B1804">
-        <v>-4.0996769955115638E-3</v>
+        <v>-4.3254595044843226E-3</v>
       </c>
       <c r="C1804">
-        <v>3.3304878089491681E-3</v>
+        <v>1.317403909871822E-3</v>
       </c>
     </row>
     <row r="1805" spans="1:3" x14ac:dyDescent="0.3">
@@ -25945,10 +25945,10 @@
         <v>1806</v>
       </c>
       <c r="B1805">
-        <v>8.9047865802202857E-4</v>
+        <v>1.2090711436259659E-4</v>
       </c>
       <c r="C1805">
-        <v>3.3369480544757609E-4</v>
+        <v>1.074843548439328E-4</v>
       </c>
     </row>
     <row r="1806" spans="1:3" x14ac:dyDescent="0.3">
@@ -25956,10 +25956,10 @@
         <v>1807</v>
       </c>
       <c r="B1806">
-        <v>5.0525880773840663E-5</v>
+        <v>5.0103260924548468E-4</v>
       </c>
       <c r="C1806">
-        <v>2.1360672797696982E-6</v>
+        <v>6.8415805323474398E-5</v>
       </c>
     </row>
     <row r="1807" spans="1:3" x14ac:dyDescent="0.3">
@@ -25967,10 +25967,10 @@
         <v>1808</v>
       </c>
       <c r="B1807">
-        <v>-4.3254595044843226E-3</v>
+        <v>6.8156570455664401E-4</v>
       </c>
       <c r="C1807">
-        <v>1.317403909871822E-3</v>
+        <v>7.4837297038778355E-5</v>
       </c>
     </row>
     <row r="1808" spans="1:3" x14ac:dyDescent="0.3">
@@ -25978,10 +25978,10 @@
         <v>1809</v>
       </c>
       <c r="B1808">
-        <v>1.2090711436259659E-4</v>
+        <v>1.548326620652212E-3</v>
       </c>
       <c r="C1808">
-        <v>1.074843548439328E-4</v>
+        <v>8.0923613912383405E-4</v>
       </c>
     </row>
     <row r="1809" spans="1:3" x14ac:dyDescent="0.3">
@@ -25989,10 +25989,10 @@
         <v>1810</v>
       </c>
       <c r="B1809">
-        <v>5.0103260924548468E-4</v>
+        <v>2.9906553439592372E-4</v>
       </c>
       <c r="C1809">
-        <v>6.8415805323474398E-5</v>
+        <v>1.148201365180191E-4</v>
       </c>
     </row>
     <row r="1810" spans="1:3" x14ac:dyDescent="0.3">
@@ -26000,10 +26000,10 @@
         <v>1811</v>
       </c>
       <c r="B1810">
-        <v>6.8156570455664401E-4</v>
+        <v>-2.0386215358165561E-3</v>
       </c>
       <c r="C1810">
-        <v>7.4837297038778355E-5</v>
+        <v>7.2982264230316604E-4</v>
       </c>
     </row>
     <row r="1811" spans="1:3" x14ac:dyDescent="0.3">
@@ -26011,10 +26011,10 @@
         <v>1812</v>
       </c>
       <c r="B1811">
-        <v>1.548326620652212E-3</v>
+        <v>4.4242245709764618E-4</v>
       </c>
       <c r="C1811">
-        <v>8.0923613912383405E-4</v>
+        <v>3.8979185950366942E-4</v>
       </c>
     </row>
     <row r="1812" spans="1:3" x14ac:dyDescent="0.3">
@@ -26022,10 +26022,10 @@
         <v>1813</v>
       </c>
       <c r="B1812">
-        <v>2.9906553439592372E-4</v>
+        <v>9.4223046245027074E-4</v>
       </c>
       <c r="C1812">
-        <v>1.148201365180191E-4</v>
+        <v>5.7658537999817367E-4</v>
       </c>
     </row>
     <row r="1813" spans="1:3" x14ac:dyDescent="0.3">
@@ -26033,10 +26033,10 @@
         <v>1814</v>
       </c>
       <c r="B1813">
-        <v>-2.0386215358165561E-3</v>
+        <v>5.4171419492793002E-4</v>
       </c>
       <c r="C1813">
-        <v>7.2982264230316604E-4</v>
+        <v>6.590247032225428E-5</v>
       </c>
     </row>
     <row r="1814" spans="1:3" x14ac:dyDescent="0.3">
@@ -26044,10 +26044,10 @@
         <v>1815</v>
       </c>
       <c r="B1814">
-        <v>-1.845755931446148E-3</v>
+        <v>5.1552168887687309E-4</v>
       </c>
       <c r="C1814">
-        <v>1.573726150915718E-3</v>
+        <v>3.098756167231835E-3</v>
       </c>
     </row>
     <row r="1815" spans="1:3" x14ac:dyDescent="0.3">
@@ -26055,10 +26055,10 @@
         <v>1816</v>
       </c>
       <c r="B1815">
-        <v>-3.888950238441137E-3</v>
+        <v>2.5298139262913502E-3</v>
       </c>
       <c r="C1815">
-        <v>2.722054469653601E-3</v>
+        <v>1.8085116576298469E-3</v>
       </c>
     </row>
     <row r="1816" spans="1:3" x14ac:dyDescent="0.3">
@@ -26066,10 +26066,10 @@
         <v>1817</v>
       </c>
       <c r="B1816">
-        <v>1.038609035418995E-4</v>
+        <v>5.3674235275645989E-4</v>
       </c>
       <c r="C1816">
-        <v>1.2001681205488129E-6</v>
+        <v>1.465455803895897E-4</v>
       </c>
     </row>
     <row r="1817" spans="1:3" x14ac:dyDescent="0.3">
@@ -26077,10 +26077,10 @@
         <v>1818</v>
       </c>
       <c r="B1817">
-        <v>-1.3308175923282151E-3</v>
+        <v>1.177624239284421E-3</v>
       </c>
       <c r="C1817">
-        <v>6.7818919391681386E-4</v>
+        <v>1.155018556552102E-4</v>
       </c>
     </row>
     <row r="1818" spans="1:3" x14ac:dyDescent="0.3">
@@ -26088,10 +26088,10 @@
         <v>1819</v>
       </c>
       <c r="B1818">
-        <v>-1.339348269378748E-3</v>
+        <v>-5.5172237567221246E-4</v>
       </c>
       <c r="C1818">
-        <v>1.081709408064448E-3</v>
+        <v>2.3790208672243201E-3</v>
       </c>
     </row>
     <row r="1819" spans="1:3" x14ac:dyDescent="0.3">
@@ -26099,10 +26099,10 @@
         <v>1820</v>
       </c>
       <c r="B1819">
-        <v>8.6683457721939265E-4</v>
+        <v>-2.309454179485998E-3</v>
       </c>
       <c r="C1819">
-        <v>1.3311997063455579E-4</v>
+        <v>1.4160592126915149E-3</v>
       </c>
     </row>
     <row r="1820" spans="1:3" x14ac:dyDescent="0.3">
@@ -26110,10 +26110,10 @@
         <v>1821</v>
       </c>
       <c r="B1820">
-        <v>3.3184976688376678E-4</v>
+        <v>-1.896743930615917E-3</v>
       </c>
       <c r="C1820">
-        <v>1.6871456079005259E-5</v>
+        <v>1.474604811611682E-3</v>
       </c>
     </row>
     <row r="1821" spans="1:3" x14ac:dyDescent="0.3">
@@ -26121,10 +26121,10 @@
         <v>1822</v>
       </c>
       <c r="B1821">
-        <v>2.5532921979322441E-4</v>
+        <v>-2.0194950409461428E-3</v>
       </c>
       <c r="C1821">
-        <v>1.359592191226933E-4</v>
+        <v>1.992252654938265E-3</v>
       </c>
     </row>
     <row r="1822" spans="1:3" x14ac:dyDescent="0.3">
